--- a/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
+++ b/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Esat\!Punët\!!!!!!!!!!2019\11. Nëntor\Legalizimi\Gjeodezia\Formatet\4. Njësit banesore\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kosova\Ferizaj\Ferizaj\Ingjinierike\Unioni-337-0-Objekti\5-Njësit-Banesore\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nr</t>
   </si>
@@ -41,13 +41,19 @@
     <t>Etazhi</t>
   </si>
   <si>
-    <t>Kati 1</t>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>B1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -78,7 +84,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -101,18 +107,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -395,305 +453,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E21"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
-        <v>7514184.7182</v>
-      </c>
-      <c r="C2" s="3">
-        <v>4723259.6950000003</v>
-      </c>
-      <c r="D2" s="4">
-        <v>550.15</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="C3" s="6">
+        <v>7511881.8049999904</v>
+      </c>
+      <c r="D3" s="6">
+        <v>4693165.9556</v>
+      </c>
+      <c r="E3" s="7">
+        <v>620.17700000000002</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>7511901.8927999903</v>
+      </c>
+      <c r="D4" s="6">
+        <v>4693157.3587999903</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>7511897.0533999903</v>
+      </c>
+      <c r="D5" s="6">
+        <v>4693146.0508999899</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>7511891.1695999904</v>
+      </c>
+      <c r="D6" s="6">
+        <v>4693148.5689000003</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3">
-        <v>7514190.1926999995</v>
-      </c>
-      <c r="C3" s="3">
-        <v>4723269.0087000001</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3">
-        <v>7514192.5751</v>
-      </c>
-      <c r="C4" s="3">
-        <v>4723273.0619000001</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>7514205.2521000002</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4723265.6105000004</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="C7" s="6">
+        <v>7511870.1818000004</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4693099.5273000002</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="6">
+        <v>7511855.9779000003</v>
+      </c>
+      <c r="D8" s="6">
+        <v>4693105.6059999997</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="6">
+        <v>7511876.8673</v>
+      </c>
+      <c r="D9" s="6">
+        <v>4693154.4177999897</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
-        <v>7514203.6958999997</v>
-      </c>
-      <c r="C6" s="3">
-        <v>4723262.9630000005</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3">
-        <v>7514203.5235000001</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4723263.0643999996</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>7514202.4691000003</v>
-      </c>
-      <c r="C8" s="3">
-        <v>4723261.2707000002</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3">
-        <v>7514208.7644999996</v>
-      </c>
-      <c r="C9" s="3">
-        <v>4723257.5702999998</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
-        <v>7514203.5181</v>
-      </c>
-      <c r="C10" s="3">
-        <v>4723248.6447000001</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3">
-        <v>7514198.6457000002</v>
-      </c>
-      <c r="C11" s="3">
-        <v>4723251.5087000001</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3">
-        <v>7514201.1699999999</v>
-      </c>
-      <c r="C12" s="3">
-        <v>4723255.8032999998</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3">
-        <v>7514199.7039999999</v>
-      </c>
-      <c r="C13" s="3">
-        <v>4723256.665</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>7514199.7800000003</v>
-      </c>
-      <c r="C14" s="3">
-        <v>4723256.7944</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>7514195.1662999997</v>
-      </c>
-      <c r="C15" s="3">
-        <v>4723259.5062999995</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3">
-        <v>7514196.4183</v>
-      </c>
-      <c r="C16" s="3">
-        <v>4723261.6364000002</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3">
-        <v>7514194.9780999999</v>
-      </c>
-      <c r="C17" s="3">
-        <v>4723262.4829000002</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3">
-        <v>7514196.6002000002</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4723265.2424999997</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3">
-        <v>7514197.2951999996</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4723263.1283</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3">
-        <v>7514197.6402000003</v>
-      </c>
-      <c r="C20" s="3">
-        <v>4723262.9254999999</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>7514199.2116</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4723265.5988999996</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
+      <c r="C10" s="6">
+        <v>7511878.2570000002</v>
+      </c>
+      <c r="D10" s="6">
+        <v>4693157.7015000004</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A1:C21">
-    <sortCondition ref="A1"/>
+  <sortState ref="B1:D21">
+    <sortCondition ref="B1"/>
   </sortState>
   <mergeCells count="2">
-    <mergeCell ref="D2:D21"/>
-    <mergeCell ref="E2:E21"/>
+    <mergeCell ref="F3:F10"/>
+    <mergeCell ref="E3:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
+++ b/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>Nr</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>B1</t>
+  </si>
+  <si>
+    <t>Përshkrimi</t>
+  </si>
+  <si>
+    <t>Shtëpi-Ndërtesë</t>
+  </si>
+  <si>
+    <t>B2</t>
   </si>
 </sst>
 </file>
@@ -148,12 +157,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -163,7 +173,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -172,6 +181,15 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F10"/>
+  <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B12" sqref="B12:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,7 +483,7 @@
     <col min="3" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,121 +500,288 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="3">
         <v>7511881.8049999904</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>4693165.9556</v>
       </c>
       <c r="E3" s="7">
         <v>620.17700000000002</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="3">
         <v>7511901.8927999903</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>4693157.3587999903</v>
       </c>
       <c r="E4" s="8"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <v>7511897.0533999903</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>4693146.0508999899</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>7511891.1695999904</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>4693148.5689000003</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>7511870.1818000004</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>4693099.5273000002</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <v>7511855.9779000003</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>4693105.6059999997</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <v>7511876.8673</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>4693154.4177999897</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <v>7511878.2570000002</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>4693157.7015000004</v>
       </c>
       <c r="E10" s="9"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7511881.8049999904</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4693165.9556</v>
+      </c>
+      <c r="E13" s="2">
+        <v>617.17700000000002</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7511901.8927999903</v>
+      </c>
+      <c r="D14" s="2">
+        <v>4693157.3587999903</v>
+      </c>
+      <c r="E14" s="2">
+        <v>617.17700000000002</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7511897.0533999903</v>
+      </c>
+      <c r="D15" s="2">
+        <v>4693146.0508999899</v>
+      </c>
+      <c r="E15" s="2">
+        <v>617.17700000000002</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7511891.1695999904</v>
+      </c>
+      <c r="D16" s="2">
+        <v>4693148.5689000003</v>
+      </c>
+      <c r="E16" s="2">
+        <v>617.17700000000002</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>5</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7511870.1818000004</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4693099.5273000002</v>
+      </c>
+      <c r="E17" s="2">
+        <v>617.17700000000002</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7511855.9779000003</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4693105.6059999997</v>
+      </c>
+      <c r="E18" s="2">
+        <v>617.17700000000002</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7511876.8673</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4693154.4177999897</v>
+      </c>
+      <c r="E19" s="2">
+        <v>617.17700000000002</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>7511878.2570000002</v>
+      </c>
+      <c r="D20" s="3">
+        <v>4693157.7015000004</v>
+      </c>
+      <c r="E20" s="2">
+        <v>623.11699999999996</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="12"/>
     </row>
   </sheetData>
   <sortState ref="B1:D21">
     <sortCondition ref="B1"/>
   </sortState>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="F3:F10"/>
     <mergeCell ref="E3:E10"/>
+    <mergeCell ref="G13:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
+++ b/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="14">
   <si>
     <t>Nr</t>
   </si>
@@ -54,6 +54,18 @@
   </si>
   <si>
     <t>B2</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>Hyrje</t>
+  </si>
+  <si>
+    <t>H2</t>
   </si>
 </sst>
 </file>
@@ -157,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -189,6 +201,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -471,16 +495,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G20"/>
+  <dimension ref="B2:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:G20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="3" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -774,14 +799,955 @@
       </c>
       <c r="G20" s="12"/>
     </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="13">
+        <v>1</v>
+      </c>
+      <c r="C23" s="14">
+        <v>7511863.3491000002</v>
+      </c>
+      <c r="D23" s="14">
+        <v>4693125.8782000002</v>
+      </c>
+      <c r="E23" s="14">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="13">
+        <v>2</v>
+      </c>
+      <c r="C24" s="14">
+        <v>7511865.0015000002</v>
+      </c>
+      <c r="D24" s="14">
+        <v>4693129.7394999899</v>
+      </c>
+      <c r="E24" s="14">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="13">
+        <v>3</v>
+      </c>
+      <c r="C25" s="14">
+        <v>7511866.4725000001</v>
+      </c>
+      <c r="D25" s="14">
+        <v>4693129.1098999903</v>
+      </c>
+      <c r="E25" s="14">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="13">
+        <v>4</v>
+      </c>
+      <c r="C26" s="14">
+        <v>7511868.6166000003</v>
+      </c>
+      <c r="D26" s="14">
+        <v>4693134.1200999999</v>
+      </c>
+      <c r="E26" s="14">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="13">
+        <v>5</v>
+      </c>
+      <c r="C27" s="14">
+        <v>7511883.3492000001</v>
+      </c>
+      <c r="D27" s="14">
+        <v>4693128.00589999</v>
+      </c>
+      <c r="E27" s="14">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="13">
+        <v>6</v>
+      </c>
+      <c r="C28" s="14">
+        <v>7511881.0574000003</v>
+      </c>
+      <c r="D28" s="14">
+        <v>4693122.65059999</v>
+      </c>
+      <c r="E28" s="14">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="13">
+        <v>7</v>
+      </c>
+      <c r="C29" s="14">
+        <v>7511882.5284000002</v>
+      </c>
+      <c r="D29" s="14">
+        <v>4693122.0210999902</v>
+      </c>
+      <c r="E29" s="14">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="13">
+        <v>8</v>
+      </c>
+      <c r="C30" s="14">
+        <v>7511880.9545999896</v>
+      </c>
+      <c r="D30" s="14">
+        <v>4693118.3436999898</v>
+      </c>
+      <c r="E30" s="14">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="15">
+        <v>9</v>
+      </c>
+      <c r="C31" s="16">
+        <v>7511859.8503</v>
+      </c>
+      <c r="D31" s="16">
+        <v>4693116.1777999904</v>
+      </c>
+      <c r="E31" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="15">
+        <v>10</v>
+      </c>
+      <c r="C32" s="16">
+        <v>7511861.0700000003</v>
+      </c>
+      <c r="D32" s="16">
+        <v>4693119.02779999</v>
+      </c>
+      <c r="E32" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="15">
+        <v>11</v>
+      </c>
+      <c r="C33" s="16">
+        <v>7511860.8860999905</v>
+      </c>
+      <c r="D33" s="16">
+        <v>4693119.1064999904</v>
+      </c>
+      <c r="E33" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="15">
+        <v>12</v>
+      </c>
+      <c r="C34" s="16">
+        <v>7511860.9845000003</v>
+      </c>
+      <c r="D34" s="16">
+        <v>4693119.3362999996</v>
+      </c>
+      <c r="E34" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="11"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="15">
+        <v>13</v>
+      </c>
+      <c r="C35" s="16">
+        <v>7511860.6168</v>
+      </c>
+      <c r="D35" s="16">
+        <v>4693119.4936999902</v>
+      </c>
+      <c r="E35" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="15">
+        <v>14</v>
+      </c>
+      <c r="C36" s="16">
+        <v>7511861.6672999896</v>
+      </c>
+      <c r="D36" s="16">
+        <v>4693121.9483000003</v>
+      </c>
+      <c r="E36" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="11"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="15">
+        <v>15</v>
+      </c>
+      <c r="C37" s="16">
+        <v>7511862.0350000001</v>
+      </c>
+      <c r="D37" s="16">
+        <v>4693121.79099999</v>
+      </c>
+      <c r="E37" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="11"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="15">
+        <v>16</v>
+      </c>
+      <c r="C38" s="16">
+        <v>7511863.6796000004</v>
+      </c>
+      <c r="D38" s="16">
+        <v>4693125.6338</v>
+      </c>
+      <c r="E38" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="15">
+        <v>17</v>
+      </c>
+      <c r="C39" s="16">
+        <v>7511880.9173999904</v>
+      </c>
+      <c r="D39" s="16">
+        <v>4693118.2567999903</v>
+      </c>
+      <c r="E39" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="15">
+        <v>18</v>
+      </c>
+      <c r="C40" s="16">
+        <v>7511878.7315999903</v>
+      </c>
+      <c r="D40" s="16">
+        <v>4693113.1493999902</v>
+      </c>
+      <c r="E40" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="15">
+        <v>19</v>
+      </c>
+      <c r="C41" s="16">
+        <v>7511878.3914999897</v>
+      </c>
+      <c r="D41" s="16">
+        <v>4693113.2949999897</v>
+      </c>
+      <c r="E41" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="15">
+        <v>20</v>
+      </c>
+      <c r="C42" s="16">
+        <v>7511876.5522999903</v>
+      </c>
+      <c r="D42" s="16">
+        <v>4693108.9973999998</v>
+      </c>
+      <c r="E42" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="11"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="15">
+        <v>21</v>
+      </c>
+      <c r="C43" s="16">
+        <v>7511870.5888999896</v>
+      </c>
+      <c r="D43" s="16">
+        <v>4693141.2703</v>
+      </c>
+      <c r="E43" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="11"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="15">
+        <v>22</v>
+      </c>
+      <c r="C44" s="16">
+        <v>7511867.1457000002</v>
+      </c>
+      <c r="D44" s="16">
+        <v>4693134.7495999997</v>
+      </c>
+      <c r="E44" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="11"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="15">
+        <v>23</v>
+      </c>
+      <c r="C45" s="16">
+        <v>7511868.3261000002</v>
+      </c>
+      <c r="D45" s="16">
+        <v>4693137.5078999903</v>
+      </c>
+      <c r="E45" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="11"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="15">
+        <v>24</v>
+      </c>
+      <c r="C46" s="16">
+        <v>7511868.6709000003</v>
+      </c>
+      <c r="D46" s="16">
+        <v>4693137.3603999997</v>
+      </c>
+      <c r="E46" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="15">
+        <v>25</v>
+      </c>
+      <c r="C47" s="16">
+        <v>7511870.3821</v>
+      </c>
+      <c r="D47" s="16">
+        <v>4693141.3587999903</v>
+      </c>
+      <c r="E47" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="15">
+        <v>26</v>
+      </c>
+      <c r="C48" s="16">
+        <v>7511871.8479000004</v>
+      </c>
+      <c r="D48" s="16">
+        <v>4693144.2122</v>
+      </c>
+      <c r="E48" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="11"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="15">
+        <v>27</v>
+      </c>
+      <c r="C49" s="16">
+        <v>7511886.6259000003</v>
+      </c>
+      <c r="D49" s="16">
+        <v>4693132.6124</v>
+      </c>
+      <c r="E49" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="11"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="15">
+        <v>28</v>
+      </c>
+      <c r="C50" s="16">
+        <v>7511886.9935999904</v>
+      </c>
+      <c r="D50" s="16">
+        <v>4693132.4550000001</v>
+      </c>
+      <c r="E50" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="11"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="15">
+        <v>29</v>
+      </c>
+      <c r="C51" s="16">
+        <v>7511885.6558999904</v>
+      </c>
+      <c r="D51" s="16">
+        <v>4693129.3291999903</v>
+      </c>
+      <c r="E51" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="11"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="15">
+        <v>30</v>
+      </c>
+      <c r="C52" s="16">
+        <v>7511884.1849999903</v>
+      </c>
+      <c r="D52" s="16">
+        <v>4693129.9586999901</v>
+      </c>
+      <c r="E52" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="11"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="15">
+        <v>31</v>
+      </c>
+      <c r="C53" s="16">
+        <v>7511871.9463</v>
+      </c>
+      <c r="D53" s="16">
+        <v>4693144.4420999903</v>
+      </c>
+      <c r="E53" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="11"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="15">
+        <v>32</v>
+      </c>
+      <c r="C54" s="16">
+        <v>7511871.2107999902</v>
+      </c>
+      <c r="D54" s="16">
+        <v>4693144.7567999903</v>
+      </c>
+      <c r="E54" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="11"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="15">
+        <v>33</v>
+      </c>
+      <c r="C55" s="16">
+        <v>7511873.3158999896</v>
+      </c>
+      <c r="D55" s="16">
+        <v>4693149.6756999902</v>
+      </c>
+      <c r="E55" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="11"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="15">
+        <v>34</v>
+      </c>
+      <c r="C56" s="16">
+        <v>7511873.5916999904</v>
+      </c>
+      <c r="D56" s="16">
+        <v>4693149.5576999998</v>
+      </c>
+      <c r="E56" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="11"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="15">
+        <v>35</v>
+      </c>
+      <c r="C57" s="16">
+        <v>7511875.9522000002</v>
+      </c>
+      <c r="D57" s="16">
+        <v>4693155.0734000001</v>
+      </c>
+      <c r="E57" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="11"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="15">
+        <v>36</v>
+      </c>
+      <c r="C58" s="16">
+        <v>7511893.3739</v>
+      </c>
+      <c r="D58" s="16">
+        <v>4693147.6175999902</v>
+      </c>
+      <c r="E58" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="11"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="15">
+        <v>37</v>
+      </c>
+      <c r="C59" s="16">
+        <v>7511891.0133999903</v>
+      </c>
+      <c r="D59" s="16">
+        <v>4693142.1019000001</v>
+      </c>
+      <c r="E59" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="11"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="15">
+        <v>38</v>
+      </c>
+      <c r="C60" s="16">
+        <v>7511891.2892000005</v>
+      </c>
+      <c r="D60" s="16">
+        <v>4693141.9838999901</v>
+      </c>
+      <c r="E60" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="11"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="15">
+        <v>39</v>
+      </c>
+      <c r="C61" s="16">
+        <v>7511889.1841000002</v>
+      </c>
+      <c r="D61" s="16">
+        <v>4693137.0649999902</v>
+      </c>
+      <c r="E61" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="11"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="15">
+        <v>40</v>
+      </c>
+      <c r="C62" s="16">
+        <v>7511888.6325000003</v>
+      </c>
+      <c r="D62" s="16">
+        <v>4693137.3010999998</v>
+      </c>
+      <c r="E62" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="11"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="15">
+        <v>41</v>
+      </c>
+      <c r="C63" s="16">
+        <v>7511876.5050999904</v>
+      </c>
+      <c r="D63" s="16">
+        <v>4693108.8870999897</v>
+      </c>
+      <c r="E63" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="11"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="15">
+        <v>42</v>
+      </c>
+      <c r="C64" s="16">
+        <v>7511877.0290999897</v>
+      </c>
+      <c r="D64" s="16">
+        <v>4693108.6627999898</v>
+      </c>
+      <c r="E64" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="11"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="15">
+        <v>43</v>
+      </c>
+      <c r="C65" s="16">
+        <v>7511874.9239999903</v>
+      </c>
+      <c r="D65" s="16">
+        <v>4693103.7438999899</v>
+      </c>
+      <c r="E65" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="11"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="15">
+        <v>44</v>
+      </c>
+      <c r="C66" s="16">
+        <v>7511874.6481999904</v>
+      </c>
+      <c r="D66" s="16">
+        <v>4693103.8619999904</v>
+      </c>
+      <c r="E66" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="11"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="15">
+        <v>45</v>
+      </c>
+      <c r="C67" s="16">
+        <v>7511872.2877000002</v>
+      </c>
+      <c r="D67" s="16">
+        <v>4693098.3461999996</v>
+      </c>
+      <c r="E67" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="11"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="15">
+        <v>46</v>
+      </c>
+      <c r="C68" s="16">
+        <v>7511854.8661000002</v>
+      </c>
+      <c r="D68" s="16">
+        <v>4693105.8019999899</v>
+      </c>
+      <c r="E68" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="11"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="15">
+        <v>47</v>
+      </c>
+      <c r="C69" s="16">
+        <v>7511857.2265999904</v>
+      </c>
+      <c r="D69" s="16">
+        <v>4693111.3176999995</v>
+      </c>
+      <c r="E69" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="11"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="15">
+        <v>48</v>
+      </c>
+      <c r="C70" s="16">
+        <v>7511856.9507999904</v>
+      </c>
+      <c r="D70" s="16">
+        <v>4693111.43569999</v>
+      </c>
+      <c r="E70" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="11"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="15">
+        <v>49</v>
+      </c>
+      <c r="C71" s="16">
+        <v>7511859.1149000004</v>
+      </c>
+      <c r="D71" s="16">
+        <v>4693116.4924999904</v>
+      </c>
+      <c r="E71" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="11"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="14">
+        <v>7511869.1087999996</v>
+      </c>
+      <c r="D72" s="14">
+        <v>4693143.5547000002</v>
+      </c>
+      <c r="E72" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="11"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" s="14">
+        <v>7511858.3772</v>
+      </c>
+      <c r="D73" s="14">
+        <v>4693118.5031000003</v>
+      </c>
+      <c r="E73" s="16">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="12"/>
+    </row>
   </sheetData>
   <sortState ref="B1:D21">
     <sortCondition ref="B1"/>
   </sortState>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="F3:F10"/>
     <mergeCell ref="E3:E10"/>
     <mergeCell ref="G13:G20"/>
+    <mergeCell ref="G23:G73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
+++ b/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="15">
   <si>
     <t>Nr</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>H2</t>
+  </si>
+  <si>
+    <t>Kati 1</t>
   </si>
 </sst>
 </file>
@@ -169,13 +172,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -203,18 +218,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G73"/>
+  <dimension ref="B2:I126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="I124" sqref="I76:I124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,10 +539,10 @@
       <c r="D3" s="3">
         <v>4693165.9556</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="11">
         <v>620.17700000000002</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -552,8 +556,8 @@
       <c r="D4" s="3">
         <v>4693157.3587999903</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
@@ -565,8 +569,8 @@
       <c r="D5" s="3">
         <v>4693146.0508999899</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
@@ -578,8 +582,8 @@
       <c r="D6" s="3">
         <v>4693148.5689000003</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
@@ -591,8 +595,8 @@
       <c r="D7" s="3">
         <v>4693099.5273000002</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
@@ -604,8 +608,8 @@
       <c r="D8" s="3">
         <v>4693105.6059999997</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
@@ -617,8 +621,8 @@
       <c r="D9" s="3">
         <v>4693154.4177999897</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -630,8 +634,8 @@
       <c r="D10" s="3">
         <v>4693157.7015000004</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="6"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -669,7 +673,7 @@
       <c r="F13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="14" t="s">
         <v>9</v>
       </c>
     </row>
@@ -689,7 +693,7 @@
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="15"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
@@ -707,7 +711,7 @@
       <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
@@ -725,7 +729,7 @@
       <c r="F16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
@@ -743,7 +747,7 @@
       <c r="F17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
@@ -761,7 +765,7 @@
       <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="11"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
@@ -779,7 +783,7 @@
       <c r="F19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="11"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
@@ -797,7 +801,7 @@
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="12"/>
+      <c r="G20" s="16"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
@@ -820,934 +824,1924 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="13">
+      <c r="B23" s="4">
         <v>1</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="5">
         <v>7511863.3491000002</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="5">
         <v>4693125.8782000002</v>
       </c>
-      <c r="E23" s="14">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="10" t="s">
+      <c r="E23" s="5">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="13">
+      <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="5">
         <v>7511865.0015000002</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="5">
         <v>4693129.7394999899</v>
       </c>
-      <c r="E24" s="14">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="11"/>
+      <c r="E24" s="5">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="15"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="13">
+      <c r="B25" s="4">
         <v>3</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="5">
         <v>7511866.4725000001</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="5">
         <v>4693129.1098999903</v>
       </c>
-      <c r="E25" s="14">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="11"/>
+      <c r="E25" s="5">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="15"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="13">
+      <c r="B26" s="4">
         <v>4</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="5">
         <v>7511868.6166000003</v>
       </c>
-      <c r="D26" s="14">
+      <c r="D26" s="5">
         <v>4693134.1200999999</v>
       </c>
-      <c r="E26" s="14">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="11"/>
+      <c r="E26" s="5">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G26" s="15"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="13">
+      <c r="B27" s="4">
         <v>5</v>
       </c>
-      <c r="C27" s="14">
+      <c r="C27" s="5">
         <v>7511883.3492000001</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D27" s="5">
         <v>4693128.00589999</v>
       </c>
-      <c r="E27" s="14">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="11"/>
+      <c r="E27" s="5">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G27" s="15"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="13">
+      <c r="B28" s="4">
         <v>6</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="5">
         <v>7511881.0574000003</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="5">
         <v>4693122.65059999</v>
       </c>
-      <c r="E28" s="14">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="11"/>
+      <c r="E28" s="5">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G28" s="15"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="13">
+      <c r="B29" s="4">
         <v>7</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="5">
         <v>7511882.5284000002</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="5">
         <v>4693122.0210999902</v>
       </c>
-      <c r="E29" s="14">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="11"/>
+      <c r="E29" s="5">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="15"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="13">
-        <v>8</v>
-      </c>
-      <c r="C30" s="14">
+      <c r="B30" s="4">
+        <v>8</v>
+      </c>
+      <c r="C30" s="5">
         <v>7511880.9545999896</v>
       </c>
-      <c r="D30" s="14">
+      <c r="D30" s="5">
         <v>4693118.3436999898</v>
       </c>
-      <c r="E30" s="14">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="11"/>
+      <c r="E30" s="5">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G30" s="15"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="15">
+      <c r="B31" s="6">
         <v>9</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="7">
         <v>7511859.8503</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="7">
         <v>4693116.1777999904</v>
       </c>
-      <c r="E31" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="11"/>
+      <c r="E31" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="15"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="15">
+      <c r="B32" s="6">
         <v>10</v>
       </c>
-      <c r="C32" s="16">
+      <c r="C32" s="7">
         <v>7511861.0700000003</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="7">
         <v>4693119.02779999</v>
       </c>
-      <c r="E32" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="11"/>
+      <c r="E32" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="15"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="15">
+      <c r="B33" s="6">
         <v>11</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="7">
         <v>7511860.8860999905</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="7">
         <v>4693119.1064999904</v>
       </c>
-      <c r="E33" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="11"/>
+      <c r="E33" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="15"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="15">
+      <c r="B34" s="6">
         <v>12</v>
       </c>
-      <c r="C34" s="16">
+      <c r="C34" s="7">
         <v>7511860.9845000003</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="7">
         <v>4693119.3362999996</v>
       </c>
-      <c r="E34" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="11"/>
+      <c r="E34" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="15"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="15">
+      <c r="B35" s="6">
         <v>13</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="7">
         <v>7511860.6168</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="7">
         <v>4693119.4936999902</v>
       </c>
-      <c r="E35" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="11"/>
+      <c r="E35" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="15"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="15">
+      <c r="B36" s="6">
         <v>14</v>
       </c>
-      <c r="C36" s="16">
+      <c r="C36" s="7">
         <v>7511861.6672999896</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="7">
         <v>4693121.9483000003</v>
       </c>
-      <c r="E36" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="11"/>
+      <c r="E36" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="15"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="15">
+      <c r="B37" s="6">
         <v>15</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="7">
         <v>7511862.0350000001</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="7">
         <v>4693121.79099999</v>
       </c>
-      <c r="E37" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="11"/>
+      <c r="E37" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="15"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="15">
+      <c r="B38" s="6">
         <v>16</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="7">
         <v>7511863.6796000004</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="7">
         <v>4693125.6338</v>
       </c>
-      <c r="E38" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="11"/>
+      <c r="E38" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="15">
+      <c r="B39" s="6">
         <v>17</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="7">
         <v>7511880.9173999904</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="7">
         <v>4693118.2567999903</v>
       </c>
-      <c r="E39" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="11"/>
+      <c r="E39" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" s="15"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="15">
+      <c r="B40" s="6">
         <v>18</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="7">
         <v>7511878.7315999903</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="7">
         <v>4693113.1493999902</v>
       </c>
-      <c r="E40" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="11"/>
+      <c r="E40" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="15"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="15">
+      <c r="B41" s="6">
         <v>19</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="7">
         <v>7511878.3914999897</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D41" s="7">
         <v>4693113.2949999897</v>
       </c>
-      <c r="E41" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="11"/>
+      <c r="E41" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="15"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="15">
+      <c r="B42" s="6">
         <v>20</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="7">
         <v>7511876.5522999903</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="7">
         <v>4693108.9973999998</v>
       </c>
-      <c r="E42" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="11"/>
+      <c r="E42" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="15"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="15">
+      <c r="B43" s="6">
         <v>21</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="7">
         <v>7511870.5888999896</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="7">
         <v>4693141.2703</v>
       </c>
-      <c r="E43" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="11"/>
+      <c r="E43" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="15"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="15">
+      <c r="B44" s="6">
         <v>22</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="7">
         <v>7511867.1457000002</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="7">
         <v>4693134.7495999997</v>
       </c>
-      <c r="E44" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="11"/>
+      <c r="E44" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="15"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B45" s="15">
+      <c r="B45" s="6">
         <v>23</v>
       </c>
-      <c r="C45" s="16">
+      <c r="C45" s="7">
         <v>7511868.3261000002</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="7">
         <v>4693137.5078999903</v>
       </c>
-      <c r="E45" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="11"/>
+      <c r="E45" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="15"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="15">
+      <c r="B46" s="6">
         <v>24</v>
       </c>
-      <c r="C46" s="16">
+      <c r="C46" s="7">
         <v>7511868.6709000003</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="7">
         <v>4693137.3603999997</v>
       </c>
-      <c r="E46" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="11"/>
+      <c r="E46" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="15"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="15">
+      <c r="B47" s="6">
         <v>25</v>
       </c>
-      <c r="C47" s="16">
+      <c r="C47" s="7">
         <v>7511870.3821</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="7">
         <v>4693141.3587999903</v>
       </c>
-      <c r="E47" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="11"/>
+      <c r="E47" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="15"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="15">
+      <c r="B48" s="6">
         <v>26</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C48" s="7">
         <v>7511871.8479000004</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D48" s="7">
         <v>4693144.2122</v>
       </c>
-      <c r="E48" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="11"/>
+      <c r="E48" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="15"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="15">
+      <c r="B49" s="6">
         <v>27</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="7">
         <v>7511886.6259000003</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D49" s="7">
         <v>4693132.6124</v>
       </c>
-      <c r="E49" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="11"/>
+      <c r="E49" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="15"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="15">
+      <c r="B50" s="6">
         <v>28</v>
       </c>
-      <c r="C50" s="16">
+      <c r="C50" s="7">
         <v>7511886.9935999904</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="7">
         <v>4693132.4550000001</v>
       </c>
-      <c r="E50" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="11"/>
+      <c r="E50" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G50" s="15"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="15">
+      <c r="B51" s="6">
         <v>29</v>
       </c>
-      <c r="C51" s="16">
+      <c r="C51" s="7">
         <v>7511885.6558999904</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D51" s="7">
         <v>4693129.3291999903</v>
       </c>
-      <c r="E51" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="11"/>
+      <c r="E51" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" s="15"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="15">
+      <c r="B52" s="6">
         <v>30</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="7">
         <v>7511884.1849999903</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="7">
         <v>4693129.9586999901</v>
       </c>
-      <c r="E52" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="11"/>
+      <c r="E52" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="15"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="15">
+      <c r="B53" s="6">
         <v>31</v>
       </c>
-      <c r="C53" s="16">
+      <c r="C53" s="7">
         <v>7511871.9463</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D53" s="7">
         <v>4693144.4420999903</v>
       </c>
-      <c r="E53" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="11"/>
+      <c r="E53" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G53" s="15"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="15">
+      <c r="B54" s="6">
         <v>32</v>
       </c>
-      <c r="C54" s="16">
+      <c r="C54" s="7">
         <v>7511871.2107999902</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D54" s="7">
         <v>4693144.7567999903</v>
       </c>
-      <c r="E54" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="11"/>
+      <c r="E54" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="15"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="15">
+      <c r="B55" s="6">
         <v>33</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C55" s="7">
         <v>7511873.3158999896</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D55" s="7">
         <v>4693149.6756999902</v>
       </c>
-      <c r="E55" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="11"/>
+      <c r="E55" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G55" s="15"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="15">
+      <c r="B56" s="6">
         <v>34</v>
       </c>
-      <c r="C56" s="16">
+      <c r="C56" s="7">
         <v>7511873.5916999904</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D56" s="7">
         <v>4693149.5576999998</v>
       </c>
-      <c r="E56" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="11"/>
+      <c r="E56" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G56" s="15"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="15">
+      <c r="B57" s="6">
         <v>35</v>
       </c>
-      <c r="C57" s="16">
+      <c r="C57" s="7">
         <v>7511875.9522000002</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D57" s="7">
         <v>4693155.0734000001</v>
       </c>
-      <c r="E57" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="11"/>
+      <c r="E57" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="15"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="15">
+      <c r="B58" s="6">
         <v>36</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="7">
         <v>7511893.3739</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D58" s="7">
         <v>4693147.6175999902</v>
       </c>
-      <c r="E58" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="11"/>
+      <c r="E58" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="15"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="15">
+      <c r="B59" s="6">
         <v>37</v>
       </c>
-      <c r="C59" s="16">
+      <c r="C59" s="7">
         <v>7511891.0133999903</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D59" s="7">
         <v>4693142.1019000001</v>
       </c>
-      <c r="E59" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="11"/>
+      <c r="E59" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="15"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="15">
+      <c r="B60" s="6">
         <v>38</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="7">
         <v>7511891.2892000005</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D60" s="7">
         <v>4693141.9838999901</v>
       </c>
-      <c r="E60" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="11"/>
+      <c r="E60" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="15"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="15">
+      <c r="B61" s="6">
         <v>39</v>
       </c>
-      <c r="C61" s="16">
+      <c r="C61" s="7">
         <v>7511889.1841000002</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D61" s="7">
         <v>4693137.0649999902</v>
       </c>
-      <c r="E61" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61" s="11"/>
+      <c r="E61" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" s="15"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="15">
+      <c r="B62" s="6">
         <v>40</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C62" s="7">
         <v>7511888.6325000003</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D62" s="7">
         <v>4693137.3010999998</v>
       </c>
-      <c r="E62" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="11"/>
+      <c r="E62" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="15"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="15">
+      <c r="B63" s="6">
         <v>41</v>
       </c>
-      <c r="C63" s="16">
+      <c r="C63" s="7">
         <v>7511876.5050999904</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D63" s="7">
         <v>4693108.8870999897</v>
       </c>
-      <c r="E63" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G63" s="11"/>
+      <c r="E63" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="15"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="15">
+      <c r="B64" s="6">
         <v>42</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C64" s="7">
         <v>7511877.0290999897</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D64" s="7">
         <v>4693108.6627999898</v>
       </c>
-      <c r="E64" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G64" s="11"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="15">
+      <c r="E64" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G64" s="15"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="6">
         <v>43</v>
       </c>
-      <c r="C65" s="16">
+      <c r="C65" s="7">
         <v>7511874.9239999903</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D65" s="7">
         <v>4693103.7438999899</v>
       </c>
-      <c r="E65" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65" s="11"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="15">
+      <c r="E65" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" s="15"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="6">
         <v>44</v>
       </c>
-      <c r="C66" s="16">
+      <c r="C66" s="7">
         <v>7511874.6481999904</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D66" s="7">
         <v>4693103.8619999904</v>
       </c>
-      <c r="E66" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="11"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="15">
+      <c r="E66" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="15"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="6">
         <v>45</v>
       </c>
-      <c r="C67" s="16">
+      <c r="C67" s="7">
         <v>7511872.2877000002</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D67" s="7">
         <v>4693098.3461999996</v>
       </c>
-      <c r="E67" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G67" s="11"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="15">
+      <c r="E67" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="15"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="6">
         <v>46</v>
       </c>
-      <c r="C68" s="16">
+      <c r="C68" s="7">
         <v>7511854.8661000002</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D68" s="7">
         <v>4693105.8019999899</v>
       </c>
-      <c r="E68" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G68" s="11"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="15">
+      <c r="E68" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G68" s="15"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="6">
         <v>47</v>
       </c>
-      <c r="C69" s="16">
+      <c r="C69" s="7">
         <v>7511857.2265999904</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D69" s="7">
         <v>4693111.3176999995</v>
       </c>
-      <c r="E69" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="11"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="15">
+      <c r="E69" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G69" s="15"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="6">
         <v>48</v>
       </c>
-      <c r="C70" s="16">
+      <c r="C70" s="7">
         <v>7511856.9507999904</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D70" s="7">
         <v>4693111.43569999</v>
       </c>
-      <c r="E70" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G70" s="11"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="15">
+      <c r="E70" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G70" s="15"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="6">
         <v>49</v>
       </c>
-      <c r="C71" s="16">
+      <c r="C71" s="7">
         <v>7511859.1149000004</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D71" s="7">
         <v>4693116.4924999904</v>
       </c>
-      <c r="E71" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G71" s="11"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="13" t="s">
+      <c r="E71" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G71" s="15"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="14">
+      <c r="C72" s="5">
         <v>7511869.1087999996</v>
       </c>
-      <c r="D72" s="14">
+      <c r="D72" s="5">
         <v>4693143.5547000002</v>
       </c>
-      <c r="E72" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F72" s="13" t="s">
+      <c r="E72" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G72" s="11"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="13" t="s">
+      <c r="G72" s="15"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="5">
         <v>7511858.3772</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D73" s="5">
         <v>4693118.5031000003</v>
       </c>
-      <c r="E73" s="16">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F73" s="13" t="s">
+      <c r="E73" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="12"/>
+      <c r="G73" s="16"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="4">
+        <v>1</v>
+      </c>
+      <c r="C76" s="5">
+        <v>7511863.3491000002</v>
+      </c>
+      <c r="D76" s="5">
+        <v>4693125.8782000002</v>
+      </c>
+      <c r="E76" s="5">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I76" s="17"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="4">
+        <v>2</v>
+      </c>
+      <c r="C77" s="5">
+        <v>7511865.0015000002</v>
+      </c>
+      <c r="D77" s="5">
+        <v>4693129.7394999899</v>
+      </c>
+      <c r="E77" s="5">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G77" s="15"/>
+      <c r="I77" s="17"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="4">
+        <v>3</v>
+      </c>
+      <c r="C78" s="5">
+        <v>7511866.4725000001</v>
+      </c>
+      <c r="D78" s="5">
+        <v>4693129.1098999903</v>
+      </c>
+      <c r="E78" s="5">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G78" s="15"/>
+      <c r="I78" s="17"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="4">
+        <v>4</v>
+      </c>
+      <c r="C79" s="5">
+        <v>7511868.6166000003</v>
+      </c>
+      <c r="D79" s="5">
+        <v>4693134.1200999999</v>
+      </c>
+      <c r="E79" s="5">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G79" s="15"/>
+      <c r="I79" s="17"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="4">
+        <v>5</v>
+      </c>
+      <c r="C80" s="5">
+        <v>7511883.3492000001</v>
+      </c>
+      <c r="D80" s="5">
+        <v>4693128.00589999</v>
+      </c>
+      <c r="E80" s="5">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G80" s="15"/>
+      <c r="I80" s="17"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="4">
+        <v>6</v>
+      </c>
+      <c r="C81" s="5">
+        <v>7511881.0574000003</v>
+      </c>
+      <c r="D81" s="5">
+        <v>4693122.65059999</v>
+      </c>
+      <c r="E81" s="5">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G81" s="15"/>
+      <c r="I81" s="17"/>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B82" s="4">
+        <v>7</v>
+      </c>
+      <c r="C82" s="5">
+        <v>7511882.5284000002</v>
+      </c>
+      <c r="D82" s="5">
+        <v>4693122.0210999902</v>
+      </c>
+      <c r="E82" s="5">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G82" s="15"/>
+      <c r="I82" s="17"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="4">
+        <v>8</v>
+      </c>
+      <c r="C83" s="5">
+        <v>7511880.9545999896</v>
+      </c>
+      <c r="D83" s="5">
+        <v>4693118.3436999898</v>
+      </c>
+      <c r="E83" s="5">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G83" s="15"/>
+      <c r="I83" s="17"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="6">
+        <v>9</v>
+      </c>
+      <c r="C84" s="7">
+        <v>7511859.8503</v>
+      </c>
+      <c r="D84" s="7">
+        <v>4693116.1777999904</v>
+      </c>
+      <c r="E84" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="15"/>
+      <c r="I84" s="17"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="6">
+        <v>10</v>
+      </c>
+      <c r="C85" s="7">
+        <v>7511861.0700000003</v>
+      </c>
+      <c r="D85" s="7">
+        <v>4693119.02779999</v>
+      </c>
+      <c r="E85" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G85" s="15"/>
+      <c r="I85" s="17"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="6">
+        <v>11</v>
+      </c>
+      <c r="C86" s="7">
+        <v>7511860.8860999905</v>
+      </c>
+      <c r="D86" s="7">
+        <v>4693119.1064999904</v>
+      </c>
+      <c r="E86" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G86" s="15"/>
+      <c r="I86" s="17"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="6">
+        <v>12</v>
+      </c>
+      <c r="C87" s="7">
+        <v>7511860.9845000003</v>
+      </c>
+      <c r="D87" s="7">
+        <v>4693119.3362999996</v>
+      </c>
+      <c r="E87" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G87" s="15"/>
+      <c r="I87" s="17"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="6">
+        <v>13</v>
+      </c>
+      <c r="C88" s="7">
+        <v>7511860.6168</v>
+      </c>
+      <c r="D88" s="7">
+        <v>4693119.4936999902</v>
+      </c>
+      <c r="E88" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G88" s="15"/>
+      <c r="I88" s="17"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B89" s="6">
+        <v>14</v>
+      </c>
+      <c r="C89" s="7">
+        <v>7511861.6672999896</v>
+      </c>
+      <c r="D89" s="7">
+        <v>4693121.9483000003</v>
+      </c>
+      <c r="E89" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G89" s="15"/>
+      <c r="I89" s="17"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="6">
+        <v>15</v>
+      </c>
+      <c r="C90" s="7">
+        <v>7511862.0350000001</v>
+      </c>
+      <c r="D90" s="7">
+        <v>4693121.79099999</v>
+      </c>
+      <c r="E90" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G90" s="15"/>
+      <c r="I90" s="17"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="6">
+        <v>16</v>
+      </c>
+      <c r="C91" s="7">
+        <v>7511863.6796000004</v>
+      </c>
+      <c r="D91" s="7">
+        <v>4693125.6338</v>
+      </c>
+      <c r="E91" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G91" s="15"/>
+      <c r="I91" s="17"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="6">
+        <v>17</v>
+      </c>
+      <c r="C92" s="7">
+        <v>7511880.9173999904</v>
+      </c>
+      <c r="D92" s="7">
+        <v>4693118.2567999903</v>
+      </c>
+      <c r="E92" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G92" s="15"/>
+      <c r="I92" s="17"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="6">
+        <v>18</v>
+      </c>
+      <c r="C93" s="7">
+        <v>7511878.7315999903</v>
+      </c>
+      <c r="D93" s="7">
+        <v>4693113.1493999902</v>
+      </c>
+      <c r="E93" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" s="15"/>
+      <c r="I93" s="17"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="6">
+        <v>19</v>
+      </c>
+      <c r="C94" s="7">
+        <v>7511878.3914999897</v>
+      </c>
+      <c r="D94" s="7">
+        <v>4693113.2949999897</v>
+      </c>
+      <c r="E94" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G94" s="15"/>
+      <c r="I94" s="17"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="6">
+        <v>20</v>
+      </c>
+      <c r="C95" s="7">
+        <v>7511876.5522999903</v>
+      </c>
+      <c r="D95" s="7">
+        <v>4693108.9973999998</v>
+      </c>
+      <c r="E95" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G95" s="15"/>
+      <c r="I95" s="17"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B96" s="6">
+        <v>21</v>
+      </c>
+      <c r="C96" s="7">
+        <v>7511870.5888999896</v>
+      </c>
+      <c r="D96" s="7">
+        <v>4693141.2703</v>
+      </c>
+      <c r="E96" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F96" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" s="15"/>
+      <c r="I96" s="17"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="6">
+        <v>22</v>
+      </c>
+      <c r="C97" s="7">
+        <v>7511867.1457000002</v>
+      </c>
+      <c r="D97" s="7">
+        <v>4693134.7495999997</v>
+      </c>
+      <c r="E97" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G97" s="15"/>
+      <c r="I97" s="17"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="6">
+        <v>23</v>
+      </c>
+      <c r="C98" s="7">
+        <v>7511868.3261000002</v>
+      </c>
+      <c r="D98" s="7">
+        <v>4693137.5078999903</v>
+      </c>
+      <c r="E98" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F98" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G98" s="15"/>
+      <c r="I98" s="17"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="6">
+        <v>24</v>
+      </c>
+      <c r="C99" s="7">
+        <v>7511868.6709000003</v>
+      </c>
+      <c r="D99" s="7">
+        <v>4693137.3603999997</v>
+      </c>
+      <c r="E99" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G99" s="15"/>
+      <c r="I99" s="17"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="6">
+        <v>25</v>
+      </c>
+      <c r="C100" s="7">
+        <v>7511870.3821</v>
+      </c>
+      <c r="D100" s="7">
+        <v>4693141.3587999903</v>
+      </c>
+      <c r="E100" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="15"/>
+      <c r="I100" s="17"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="6">
+        <v>26</v>
+      </c>
+      <c r="C101" s="7">
+        <v>7511871.8479000004</v>
+      </c>
+      <c r="D101" s="7">
+        <v>4693144.2122</v>
+      </c>
+      <c r="E101" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G101" s="15"/>
+      <c r="I101" s="17"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="6">
+        <v>27</v>
+      </c>
+      <c r="C102" s="7">
+        <v>7511886.6259000003</v>
+      </c>
+      <c r="D102" s="7">
+        <v>4693132.6124</v>
+      </c>
+      <c r="E102" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" s="15"/>
+      <c r="I102" s="17"/>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B103" s="6">
+        <v>28</v>
+      </c>
+      <c r="C103" s="7">
+        <v>7511886.9935999904</v>
+      </c>
+      <c r="D103" s="7">
+        <v>4693132.4550000001</v>
+      </c>
+      <c r="E103" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G103" s="15"/>
+      <c r="I103" s="17"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="6">
+        <v>29</v>
+      </c>
+      <c r="C104" s="7">
+        <v>7511885.6558999904</v>
+      </c>
+      <c r="D104" s="7">
+        <v>4693129.3291999903</v>
+      </c>
+      <c r="E104" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G104" s="15"/>
+      <c r="I104" s="17"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="6">
+        <v>30</v>
+      </c>
+      <c r="C105" s="7">
+        <v>7511884.1849999903</v>
+      </c>
+      <c r="D105" s="7">
+        <v>4693129.9586999901</v>
+      </c>
+      <c r="E105" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G105" s="15"/>
+      <c r="I105" s="17"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="6">
+        <v>31</v>
+      </c>
+      <c r="C106" s="7">
+        <v>7511871.9463</v>
+      </c>
+      <c r="D106" s="7">
+        <v>4693144.4420999903</v>
+      </c>
+      <c r="E106" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G106" s="15"/>
+      <c r="I106" s="17"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="6">
+        <v>32</v>
+      </c>
+      <c r="C107" s="7">
+        <v>7511871.2107999902</v>
+      </c>
+      <c r="D107" s="7">
+        <v>4693144.7567999903</v>
+      </c>
+      <c r="E107" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G107" s="15"/>
+      <c r="I107" s="17"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="6">
+        <v>33</v>
+      </c>
+      <c r="C108" s="7">
+        <v>7511873.3158999896</v>
+      </c>
+      <c r="D108" s="7">
+        <v>4693149.6756999902</v>
+      </c>
+      <c r="E108" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" s="15"/>
+      <c r="I108" s="17"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="6">
+        <v>34</v>
+      </c>
+      <c r="C109" s="7">
+        <v>7511873.5916999904</v>
+      </c>
+      <c r="D109" s="7">
+        <v>4693149.5576999998</v>
+      </c>
+      <c r="E109" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G109" s="15"/>
+      <c r="I109" s="17"/>
+    </row>
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B110" s="6">
+        <v>35</v>
+      </c>
+      <c r="C110" s="7">
+        <v>7511875.9522000002</v>
+      </c>
+      <c r="D110" s="7">
+        <v>4693155.0734000001</v>
+      </c>
+      <c r="E110" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G110" s="15"/>
+      <c r="I110" s="17"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="6">
+        <v>36</v>
+      </c>
+      <c r="C111" s="7">
+        <v>7511893.3739</v>
+      </c>
+      <c r="D111" s="7">
+        <v>4693147.6175999902</v>
+      </c>
+      <c r="E111" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G111" s="15"/>
+      <c r="I111" s="17"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="6">
+        <v>37</v>
+      </c>
+      <c r="C112" s="7">
+        <v>7511891.0133999903</v>
+      </c>
+      <c r="D112" s="7">
+        <v>4693142.1019000001</v>
+      </c>
+      <c r="E112" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G112" s="15"/>
+      <c r="I112" s="17"/>
+    </row>
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B113" s="6">
+        <v>38</v>
+      </c>
+      <c r="C113" s="7">
+        <v>7511891.2892000005</v>
+      </c>
+      <c r="D113" s="7">
+        <v>4693141.9838999901</v>
+      </c>
+      <c r="E113" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G113" s="15"/>
+      <c r="I113" s="17"/>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B114" s="6">
+        <v>39</v>
+      </c>
+      <c r="C114" s="7">
+        <v>7511889.1841000002</v>
+      </c>
+      <c r="D114" s="7">
+        <v>4693137.0649999902</v>
+      </c>
+      <c r="E114" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G114" s="15"/>
+      <c r="I114" s="17"/>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B115" s="6">
+        <v>40</v>
+      </c>
+      <c r="C115" s="7">
+        <v>7511888.6325000003</v>
+      </c>
+      <c r="D115" s="7">
+        <v>4693137.3010999998</v>
+      </c>
+      <c r="E115" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G115" s="15"/>
+      <c r="I115" s="17"/>
+    </row>
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B116" s="6">
+        <v>41</v>
+      </c>
+      <c r="C116" s="7">
+        <v>7511876.5050999904</v>
+      </c>
+      <c r="D116" s="7">
+        <v>4693108.8870999897</v>
+      </c>
+      <c r="E116" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G116" s="15"/>
+      <c r="I116" s="17"/>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B117" s="6">
+        <v>42</v>
+      </c>
+      <c r="C117" s="7">
+        <v>7511877.0290999897</v>
+      </c>
+      <c r="D117" s="7">
+        <v>4693108.6627999898</v>
+      </c>
+      <c r="E117" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G117" s="15"/>
+      <c r="I117" s="17"/>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B118" s="6">
+        <v>43</v>
+      </c>
+      <c r="C118" s="7">
+        <v>7511874.9239999903</v>
+      </c>
+      <c r="D118" s="7">
+        <v>4693103.7438999899</v>
+      </c>
+      <c r="E118" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G118" s="15"/>
+      <c r="I118" s="17"/>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="6">
+        <v>44</v>
+      </c>
+      <c r="C119" s="7">
+        <v>7511874.6481999904</v>
+      </c>
+      <c r="D119" s="7">
+        <v>4693103.8619999904</v>
+      </c>
+      <c r="E119" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G119" s="15"/>
+      <c r="I119" s="17"/>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="6">
+        <v>45</v>
+      </c>
+      <c r="C120" s="7">
+        <v>7511872.2877000002</v>
+      </c>
+      <c r="D120" s="7">
+        <v>4693098.3461999996</v>
+      </c>
+      <c r="E120" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G120" s="15"/>
+      <c r="I120" s="17"/>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="6">
+        <v>46</v>
+      </c>
+      <c r="C121" s="7">
+        <v>7511854.8661000002</v>
+      </c>
+      <c r="D121" s="7">
+        <v>4693105.8019999899</v>
+      </c>
+      <c r="E121" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G121" s="15"/>
+      <c r="I121" s="17"/>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="6">
+        <v>47</v>
+      </c>
+      <c r="C122" s="7">
+        <v>7511857.2265999904</v>
+      </c>
+      <c r="D122" s="7">
+        <v>4693111.3176999995</v>
+      </c>
+      <c r="E122" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G122" s="15"/>
+      <c r="I122" s="17"/>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="6">
+        <v>48</v>
+      </c>
+      <c r="C123" s="7">
+        <v>7511856.9507999904</v>
+      </c>
+      <c r="D123" s="7">
+        <v>4693111.43569999</v>
+      </c>
+      <c r="E123" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" s="15"/>
+      <c r="I123" s="17"/>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B124" s="6">
+        <v>49</v>
+      </c>
+      <c r="C124" s="7">
+        <v>7511859.1149000004</v>
+      </c>
+      <c r="D124" s="7">
+        <v>4693116.4924999904</v>
+      </c>
+      <c r="E124" s="7">
+        <v>626.12700000000007</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G124" s="15"/>
+      <c r="I124" s="17"/>
+    </row>
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="5">
+        <v>7511869.1087999996</v>
+      </c>
+      <c r="D125" s="5">
+        <v>4693143.5547000002</v>
+      </c>
+      <c r="E125" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="15"/>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B126" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" s="5">
+        <v>7511858.3772</v>
+      </c>
+      <c r="D126" s="5">
+        <v>4693118.5031000003</v>
+      </c>
+      <c r="E126" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="16"/>
     </row>
   </sheetData>
   <sortState ref="B1:D21">
     <sortCondition ref="B1"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="F3:F10"/>
     <mergeCell ref="E3:E10"/>
     <mergeCell ref="G13:G20"/>
     <mergeCell ref="G23:G73"/>
+    <mergeCell ref="G76:G126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
+++ b/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="16">
   <si>
     <t>Nr</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>Kati 1</t>
+  </si>
+  <si>
+    <t>Kati 2</t>
   </si>
 </sst>
 </file>
@@ -191,6 +194,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -218,7 +222,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I126"/>
+  <dimension ref="B2:J180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="I124" sqref="I76:I124"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="J165" sqref="J165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,10 +542,10 @@
       <c r="D3" s="3">
         <v>4693165.9556</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="12">
         <v>620.17700000000002</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -556,8 +559,8 @@
       <c r="D4" s="3">
         <v>4693157.3587999903</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="9"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
@@ -569,8 +572,8 @@
       <c r="D5" s="3">
         <v>4693146.0508999899</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="9"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
@@ -582,8 +585,8 @@
       <c r="D6" s="3">
         <v>4693148.5689000003</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="9"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
@@ -595,8 +598,8 @@
       <c r="D7" s="3">
         <v>4693099.5273000002</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="9"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
@@ -608,8 +611,8 @@
       <c r="D8" s="3">
         <v>4693105.6059999997</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="9"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
@@ -621,8 +624,8 @@
       <c r="D9" s="3">
         <v>4693154.4177999897</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="9"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -634,8 +637,8 @@
       <c r="D10" s="3">
         <v>4693157.7015000004</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="10"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -673,7 +676,7 @@
       <c r="F13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -693,7 +696,7 @@
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
@@ -711,7 +714,7 @@
       <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="16"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
@@ -729,7 +732,7 @@
       <c r="F16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="16"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
@@ -747,7 +750,7 @@
       <c r="F17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="16"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
@@ -765,7 +768,7 @@
       <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="16"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
@@ -783,7 +786,7 @@
       <c r="F19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
@@ -801,7 +804,7 @@
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="16"/>
+      <c r="G20" s="17"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
@@ -839,7 +842,7 @@
       <c r="F23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="15" t="s">
         <v>10</v>
       </c>
     </row>
@@ -859,7 +862,7 @@
       <c r="F24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="16"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
@@ -877,7 +880,7 @@
       <c r="F25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="15"/>
+      <c r="G25" s="16"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
@@ -895,7 +898,7 @@
       <c r="F26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="15"/>
+      <c r="G26" s="16"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
@@ -913,7 +916,7 @@
       <c r="F27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="15"/>
+      <c r="G27" s="16"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
@@ -931,7 +934,7 @@
       <c r="F28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="15"/>
+      <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
@@ -949,7 +952,7 @@
       <c r="F29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="15"/>
+      <c r="G29" s="16"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
@@ -967,7 +970,7 @@
       <c r="F30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="15"/>
+      <c r="G30" s="16"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="6">
@@ -985,7 +988,7 @@
       <c r="F31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="15"/>
+      <c r="G31" s="16"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
@@ -1003,7 +1006,7 @@
       <c r="F32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="15"/>
+      <c r="G32" s="16"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
@@ -1021,7 +1024,7 @@
       <c r="F33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="15"/>
+      <c r="G33" s="16"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
@@ -1039,7 +1042,7 @@
       <c r="F34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="15"/>
+      <c r="G34" s="16"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="6">
@@ -1057,7 +1060,7 @@
       <c r="F35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="15"/>
+      <c r="G35" s="16"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
@@ -1075,7 +1078,7 @@
       <c r="F36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="15"/>
+      <c r="G36" s="16"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="6">
@@ -1093,7 +1096,7 @@
       <c r="F37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="15"/>
+      <c r="G37" s="16"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
@@ -1111,7 +1114,7 @@
       <c r="F38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="15"/>
+      <c r="G38" s="16"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
@@ -1129,7 +1132,7 @@
       <c r="F39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="15"/>
+      <c r="G39" s="16"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="6">
@@ -1147,7 +1150,7 @@
       <c r="F40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="15"/>
+      <c r="G40" s="16"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
@@ -1165,7 +1168,7 @@
       <c r="F41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="15"/>
+      <c r="G41" s="16"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="6">
@@ -1183,7 +1186,7 @@
       <c r="F42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="15"/>
+      <c r="G42" s="16"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
@@ -1201,7 +1204,7 @@
       <c r="F43" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="15"/>
+      <c r="G43" s="16"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="6">
@@ -1219,7 +1222,7 @@
       <c r="F44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="15"/>
+      <c r="G44" s="16"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="6">
@@ -1237,7 +1240,7 @@
       <c r="F45" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="15"/>
+      <c r="G45" s="16"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="6">
@@ -1255,7 +1258,7 @@
       <c r="F46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="15"/>
+      <c r="G46" s="16"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="6">
@@ -1273,7 +1276,7 @@
       <c r="F47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="15"/>
+      <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="6">
@@ -1291,7 +1294,7 @@
       <c r="F48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="15"/>
+      <c r="G48" s="16"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="6">
@@ -1309,7 +1312,7 @@
       <c r="F49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="15"/>
+      <c r="G49" s="16"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="6">
@@ -1327,7 +1330,7 @@
       <c r="F50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="15"/>
+      <c r="G50" s="16"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="6">
@@ -1345,7 +1348,7 @@
       <c r="F51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="15"/>
+      <c r="G51" s="16"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="6">
@@ -1363,7 +1366,7 @@
       <c r="F52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="15"/>
+      <c r="G52" s="16"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="6">
@@ -1381,7 +1384,7 @@
       <c r="F53" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="15"/>
+      <c r="G53" s="16"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="6">
@@ -1399,7 +1402,7 @@
       <c r="F54" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="15"/>
+      <c r="G54" s="16"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="6">
@@ -1417,7 +1420,7 @@
       <c r="F55" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="15"/>
+      <c r="G55" s="16"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="6">
@@ -1435,7 +1438,7 @@
       <c r="F56" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="15"/>
+      <c r="G56" s="16"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="6">
@@ -1453,7 +1456,7 @@
       <c r="F57" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="15"/>
+      <c r="G57" s="16"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="6">
@@ -1471,7 +1474,7 @@
       <c r="F58" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="15"/>
+      <c r="G58" s="16"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="6">
@@ -1489,7 +1492,7 @@
       <c r="F59" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="15"/>
+      <c r="G59" s="16"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="6">
@@ -1507,7 +1510,7 @@
       <c r="F60" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="15"/>
+      <c r="G60" s="16"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="6">
@@ -1525,7 +1528,7 @@
       <c r="F61" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="15"/>
+      <c r="G61" s="16"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="6">
@@ -1543,7 +1546,7 @@
       <c r="F62" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="15"/>
+      <c r="G62" s="16"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="6">
@@ -1561,7 +1564,7 @@
       <c r="F63" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G63" s="15"/>
+      <c r="G63" s="16"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="6">
@@ -1579,7 +1582,7 @@
       <c r="F64" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="15"/>
+      <c r="G64" s="16"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="6">
@@ -1597,7 +1600,7 @@
       <c r="F65" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="15"/>
+      <c r="G65" s="16"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="6">
@@ -1615,7 +1618,7 @@
       <c r="F66" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="15"/>
+      <c r="G66" s="16"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="6">
@@ -1633,7 +1636,7 @@
       <c r="F67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="15"/>
+      <c r="G67" s="16"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="6">
@@ -1651,7 +1654,7 @@
       <c r="F68" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="15"/>
+      <c r="G68" s="16"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="6">
@@ -1669,7 +1672,7 @@
       <c r="F69" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G69" s="15"/>
+      <c r="G69" s="16"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="6">
@@ -1687,7 +1690,7 @@
       <c r="F70" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="15"/>
+      <c r="G70" s="16"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="6">
@@ -1705,7 +1708,7 @@
       <c r="F71" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G71" s="15"/>
+      <c r="G71" s="16"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
@@ -1723,7 +1726,7 @@
       <c r="F72" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G72" s="15"/>
+      <c r="G72" s="16"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
@@ -1741,7 +1744,7 @@
       <c r="F73" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="16"/>
+      <c r="G73" s="17"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
@@ -1779,10 +1782,10 @@
       <c r="F76" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G76" s="14" t="s">
+      <c r="G76" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="I76" s="17"/>
+      <c r="I76" s="8"/>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="4">
@@ -1800,8 +1803,8 @@
       <c r="F77" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="15"/>
-      <c r="I77" s="17"/>
+      <c r="G77" s="16"/>
+      <c r="I77" s="8"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="4">
@@ -1819,8 +1822,8 @@
       <c r="F78" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G78" s="15"/>
-      <c r="I78" s="17"/>
+      <c r="G78" s="16"/>
+      <c r="I78" s="8"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="4">
@@ -1838,8 +1841,8 @@
       <c r="F79" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G79" s="15"/>
-      <c r="I79" s="17"/>
+      <c r="G79" s="16"/>
+      <c r="I79" s="8"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="4">
@@ -1857,8 +1860,8 @@
       <c r="F80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G80" s="15"/>
-      <c r="I80" s="17"/>
+      <c r="G80" s="16"/>
+      <c r="I80" s="8"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="4">
@@ -1876,8 +1879,8 @@
       <c r="F81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="15"/>
-      <c r="I81" s="17"/>
+      <c r="G81" s="16"/>
+      <c r="I81" s="8"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="4">
@@ -1895,8 +1898,8 @@
       <c r="F82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G82" s="15"/>
-      <c r="I82" s="17"/>
+      <c r="G82" s="16"/>
+      <c r="I82" s="8"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="4">
@@ -1914,8 +1917,8 @@
       <c r="F83" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="15"/>
-      <c r="I83" s="17"/>
+      <c r="G83" s="16"/>
+      <c r="I83" s="8"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="6">
@@ -1933,8 +1936,8 @@
       <c r="F84" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G84" s="15"/>
-      <c r="I84" s="17"/>
+      <c r="G84" s="16"/>
+      <c r="I84" s="8"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" s="6">
@@ -1952,8 +1955,8 @@
       <c r="F85" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G85" s="15"/>
-      <c r="I85" s="17"/>
+      <c r="G85" s="16"/>
+      <c r="I85" s="8"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" s="6">
@@ -1971,8 +1974,8 @@
       <c r="F86" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G86" s="15"/>
-      <c r="I86" s="17"/>
+      <c r="G86" s="16"/>
+      <c r="I86" s="8"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="6">
@@ -1990,8 +1993,8 @@
       <c r="F87" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="15"/>
-      <c r="I87" s="17"/>
+      <c r="G87" s="16"/>
+      <c r="I87" s="8"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="6">
@@ -2009,8 +2012,8 @@
       <c r="F88" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G88" s="15"/>
-      <c r="I88" s="17"/>
+      <c r="G88" s="16"/>
+      <c r="I88" s="8"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="6">
@@ -2028,8 +2031,8 @@
       <c r="F89" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="15"/>
-      <c r="I89" s="17"/>
+      <c r="G89" s="16"/>
+      <c r="I89" s="8"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="6">
@@ -2047,8 +2050,8 @@
       <c r="F90" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G90" s="15"/>
-      <c r="I90" s="17"/>
+      <c r="G90" s="16"/>
+      <c r="I90" s="8"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="6">
@@ -2066,8 +2069,8 @@
       <c r="F91" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="15"/>
-      <c r="I91" s="17"/>
+      <c r="G91" s="16"/>
+      <c r="I91" s="8"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" s="6">
@@ -2085,8 +2088,8 @@
       <c r="F92" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G92" s="15"/>
-      <c r="I92" s="17"/>
+      <c r="G92" s="16"/>
+      <c r="I92" s="8"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="6">
@@ -2104,8 +2107,8 @@
       <c r="F93" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="15"/>
-      <c r="I93" s="17"/>
+      <c r="G93" s="16"/>
+      <c r="I93" s="8"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="6">
@@ -2123,8 +2126,8 @@
       <c r="F94" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="15"/>
-      <c r="I94" s="17"/>
+      <c r="G94" s="16"/>
+      <c r="I94" s="8"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="6">
@@ -2142,8 +2145,8 @@
       <c r="F95" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G95" s="15"/>
-      <c r="I95" s="17"/>
+      <c r="G95" s="16"/>
+      <c r="I95" s="8"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="6">
@@ -2161,8 +2164,8 @@
       <c r="F96" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="15"/>
-      <c r="I96" s="17"/>
+      <c r="G96" s="16"/>
+      <c r="I96" s="8"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="6">
@@ -2180,8 +2183,8 @@
       <c r="F97" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G97" s="15"/>
-      <c r="I97" s="17"/>
+      <c r="G97" s="16"/>
+      <c r="I97" s="8"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="6">
@@ -2199,8 +2202,8 @@
       <c r="F98" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G98" s="15"/>
-      <c r="I98" s="17"/>
+      <c r="G98" s="16"/>
+      <c r="I98" s="8"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="6">
@@ -2218,8 +2221,8 @@
       <c r="F99" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="15"/>
-      <c r="I99" s="17"/>
+      <c r="G99" s="16"/>
+      <c r="I99" s="8"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" s="6">
@@ -2237,8 +2240,8 @@
       <c r="F100" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="15"/>
-      <c r="I100" s="17"/>
+      <c r="G100" s="16"/>
+      <c r="I100" s="8"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" s="6">
@@ -2256,8 +2259,8 @@
       <c r="F101" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="15"/>
-      <c r="I101" s="17"/>
+      <c r="G101" s="16"/>
+      <c r="I101" s="8"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" s="6">
@@ -2275,8 +2278,8 @@
       <c r="F102" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="15"/>
-      <c r="I102" s="17"/>
+      <c r="G102" s="16"/>
+      <c r="I102" s="8"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" s="6">
@@ -2294,8 +2297,8 @@
       <c r="F103" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G103" s="15"/>
-      <c r="I103" s="17"/>
+      <c r="G103" s="16"/>
+      <c r="I103" s="8"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="6">
@@ -2313,8 +2316,8 @@
       <c r="F104" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G104" s="15"/>
-      <c r="I104" s="17"/>
+      <c r="G104" s="16"/>
+      <c r="I104" s="8"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" s="6">
@@ -2332,8 +2335,8 @@
       <c r="F105" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G105" s="15"/>
-      <c r="I105" s="17"/>
+      <c r="G105" s="16"/>
+      <c r="I105" s="8"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" s="6">
@@ -2351,8 +2354,8 @@
       <c r="F106" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G106" s="15"/>
-      <c r="I106" s="17"/>
+      <c r="G106" s="16"/>
+      <c r="I106" s="8"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" s="6">
@@ -2370,8 +2373,8 @@
       <c r="F107" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G107" s="15"/>
-      <c r="I107" s="17"/>
+      <c r="G107" s="16"/>
+      <c r="I107" s="8"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" s="6">
@@ -2389,8 +2392,8 @@
       <c r="F108" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G108" s="15"/>
-      <c r="I108" s="17"/>
+      <c r="G108" s="16"/>
+      <c r="I108" s="8"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" s="6">
@@ -2408,8 +2411,8 @@
       <c r="F109" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G109" s="15"/>
-      <c r="I109" s="17"/>
+      <c r="G109" s="16"/>
+      <c r="I109" s="8"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" s="6">
@@ -2427,8 +2430,8 @@
       <c r="F110" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G110" s="15"/>
-      <c r="I110" s="17"/>
+      <c r="G110" s="16"/>
+      <c r="I110" s="8"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="6">
@@ -2446,8 +2449,8 @@
       <c r="F111" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G111" s="15"/>
-      <c r="I111" s="17"/>
+      <c r="G111" s="16"/>
+      <c r="I111" s="8"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="6">
@@ -2465,8 +2468,8 @@
       <c r="F112" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G112" s="15"/>
-      <c r="I112" s="17"/>
+      <c r="G112" s="16"/>
+      <c r="I112" s="8"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="6">
@@ -2484,8 +2487,8 @@
       <c r="F113" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G113" s="15"/>
-      <c r="I113" s="17"/>
+      <c r="G113" s="16"/>
+      <c r="I113" s="8"/>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="6">
@@ -2503,8 +2506,8 @@
       <c r="F114" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G114" s="15"/>
-      <c r="I114" s="17"/>
+      <c r="G114" s="16"/>
+      <c r="I114" s="8"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="6">
@@ -2522,8 +2525,8 @@
       <c r="F115" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G115" s="15"/>
-      <c r="I115" s="17"/>
+      <c r="G115" s="16"/>
+      <c r="I115" s="8"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="6">
@@ -2541,8 +2544,8 @@
       <c r="F116" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G116" s="15"/>
-      <c r="I116" s="17"/>
+      <c r="G116" s="16"/>
+      <c r="I116" s="8"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="6">
@@ -2560,8 +2563,8 @@
       <c r="F117" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G117" s="15"/>
-      <c r="I117" s="17"/>
+      <c r="G117" s="16"/>
+      <c r="I117" s="8"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="6">
@@ -2579,8 +2582,8 @@
       <c r="F118" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G118" s="15"/>
-      <c r="I118" s="17"/>
+      <c r="G118" s="16"/>
+      <c r="I118" s="8"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" s="6">
@@ -2598,8 +2601,8 @@
       <c r="F119" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G119" s="15"/>
-      <c r="I119" s="17"/>
+      <c r="G119" s="16"/>
+      <c r="I119" s="8"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" s="6">
@@ -2617,8 +2620,8 @@
       <c r="F120" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G120" s="15"/>
-      <c r="I120" s="17"/>
+      <c r="G120" s="16"/>
+      <c r="I120" s="8"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" s="6">
@@ -2636,8 +2639,8 @@
       <c r="F121" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G121" s="15"/>
-      <c r="I121" s="17"/>
+      <c r="G121" s="16"/>
+      <c r="I121" s="8"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="6">
@@ -2655,8 +2658,8 @@
       <c r="F122" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G122" s="15"/>
-      <c r="I122" s="17"/>
+      <c r="G122" s="16"/>
+      <c r="I122" s="8"/>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" s="6">
@@ -2674,8 +2677,8 @@
       <c r="F123" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G123" s="15"/>
-      <c r="I123" s="17"/>
+      <c r="G123" s="16"/>
+      <c r="I123" s="8"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" s="6">
@@ -2693,8 +2696,8 @@
       <c r="F124" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G124" s="15"/>
-      <c r="I124" s="17"/>
+      <c r="G124" s="16"/>
+      <c r="I124" s="8"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" s="4" t="s">
@@ -2712,7 +2715,7 @@
       <c r="F125" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G125" s="15"/>
+      <c r="G125" s="16"/>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" s="4" t="s">
@@ -2730,13 +2733,955 @@
       <c r="F126" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G126" s="16"/>
+      <c r="G126" s="17"/>
+    </row>
+    <row r="129" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B130" s="4">
+        <v>1</v>
+      </c>
+      <c r="C130" s="5">
+        <v>7511863.3491000002</v>
+      </c>
+      <c r="D130" s="5">
+        <v>4693125.8782000002</v>
+      </c>
+      <c r="E130" s="5">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J130" s="8"/>
+    </row>
+    <row r="131" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B131" s="4">
+        <v>2</v>
+      </c>
+      <c r="C131" s="5">
+        <v>7511865.0015000002</v>
+      </c>
+      <c r="D131" s="5">
+        <v>4693129.7394999899</v>
+      </c>
+      <c r="E131" s="5">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G131" s="16"/>
+    </row>
+    <row r="132" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B132" s="4">
+        <v>3</v>
+      </c>
+      <c r="C132" s="5">
+        <v>7511866.4725000001</v>
+      </c>
+      <c r="D132" s="5">
+        <v>4693129.1098999903</v>
+      </c>
+      <c r="E132" s="5">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G132" s="16"/>
+    </row>
+    <row r="133" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B133" s="4">
+        <v>4</v>
+      </c>
+      <c r="C133" s="5">
+        <v>7511868.6166000003</v>
+      </c>
+      <c r="D133" s="5">
+        <v>4693134.1200999999</v>
+      </c>
+      <c r="E133" s="5">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G133" s="16"/>
+    </row>
+    <row r="134" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B134" s="4">
+        <v>5</v>
+      </c>
+      <c r="C134" s="5">
+        <v>7511883.3492000001</v>
+      </c>
+      <c r="D134" s="5">
+        <v>4693128.00589999</v>
+      </c>
+      <c r="E134" s="5">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G134" s="16"/>
+    </row>
+    <row r="135" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B135" s="4">
+        <v>6</v>
+      </c>
+      <c r="C135" s="5">
+        <v>7511881.0574000003</v>
+      </c>
+      <c r="D135" s="5">
+        <v>4693122.65059999</v>
+      </c>
+      <c r="E135" s="5">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G135" s="16"/>
+    </row>
+    <row r="136" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B136" s="4">
+        <v>7</v>
+      </c>
+      <c r="C136" s="5">
+        <v>7511882.5284000002</v>
+      </c>
+      <c r="D136" s="5">
+        <v>4693122.0210999902</v>
+      </c>
+      <c r="E136" s="5">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G136" s="16"/>
+    </row>
+    <row r="137" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B137" s="4">
+        <v>8</v>
+      </c>
+      <c r="C137" s="5">
+        <v>7511880.9545999896</v>
+      </c>
+      <c r="D137" s="5">
+        <v>4693118.3436999898</v>
+      </c>
+      <c r="E137" s="5">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G137" s="16"/>
+    </row>
+    <row r="138" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B138" s="6">
+        <v>9</v>
+      </c>
+      <c r="C138" s="7">
+        <v>7511859.8503</v>
+      </c>
+      <c r="D138" s="7">
+        <v>4693116.1777999904</v>
+      </c>
+      <c r="E138" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G138" s="16"/>
+    </row>
+    <row r="139" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B139" s="6">
+        <v>10</v>
+      </c>
+      <c r="C139" s="7">
+        <v>7511861.0700000003</v>
+      </c>
+      <c r="D139" s="7">
+        <v>4693119.02779999</v>
+      </c>
+      <c r="E139" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G139" s="16"/>
+    </row>
+    <row r="140" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B140" s="6">
+        <v>11</v>
+      </c>
+      <c r="C140" s="7">
+        <v>7511860.8860999905</v>
+      </c>
+      <c r="D140" s="7">
+        <v>4693119.1064999904</v>
+      </c>
+      <c r="E140" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G140" s="16"/>
+    </row>
+    <row r="141" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B141" s="6">
+        <v>12</v>
+      </c>
+      <c r="C141" s="7">
+        <v>7511860.9845000003</v>
+      </c>
+      <c r="D141" s="7">
+        <v>4693119.3362999996</v>
+      </c>
+      <c r="E141" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G141" s="16"/>
+    </row>
+    <row r="142" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B142" s="6">
+        <v>13</v>
+      </c>
+      <c r="C142" s="7">
+        <v>7511860.6168</v>
+      </c>
+      <c r="D142" s="7">
+        <v>4693119.4936999902</v>
+      </c>
+      <c r="E142" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G142" s="16"/>
+    </row>
+    <row r="143" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B143" s="6">
+        <v>14</v>
+      </c>
+      <c r="C143" s="7">
+        <v>7511861.6672999896</v>
+      </c>
+      <c r="D143" s="7">
+        <v>4693121.9483000003</v>
+      </c>
+      <c r="E143" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G143" s="16"/>
+    </row>
+    <row r="144" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B144" s="6">
+        <v>15</v>
+      </c>
+      <c r="C144" s="7">
+        <v>7511862.0350000001</v>
+      </c>
+      <c r="D144" s="7">
+        <v>4693121.79099999</v>
+      </c>
+      <c r="E144" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G144" s="16"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145" s="6">
+        <v>16</v>
+      </c>
+      <c r="C145" s="7">
+        <v>7511863.6796000004</v>
+      </c>
+      <c r="D145" s="7">
+        <v>4693125.6338</v>
+      </c>
+      <c r="E145" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G145" s="16"/>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146" s="6">
+        <v>17</v>
+      </c>
+      <c r="C146" s="7">
+        <v>7511880.9173999904</v>
+      </c>
+      <c r="D146" s="7">
+        <v>4693118.2567999903</v>
+      </c>
+      <c r="E146" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G146" s="16"/>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B147" s="6">
+        <v>18</v>
+      </c>
+      <c r="C147" s="7">
+        <v>7511878.7315999903</v>
+      </c>
+      <c r="D147" s="7">
+        <v>4693113.1493999902</v>
+      </c>
+      <c r="E147" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G147" s="16"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B148" s="6">
+        <v>19</v>
+      </c>
+      <c r="C148" s="7">
+        <v>7511878.3914999897</v>
+      </c>
+      <c r="D148" s="7">
+        <v>4693113.2949999897</v>
+      </c>
+      <c r="E148" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G148" s="16"/>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B149" s="6">
+        <v>20</v>
+      </c>
+      <c r="C149" s="7">
+        <v>7511876.5522999903</v>
+      </c>
+      <c r="D149" s="7">
+        <v>4693108.9973999998</v>
+      </c>
+      <c r="E149" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G149" s="16"/>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B150" s="6">
+        <v>21</v>
+      </c>
+      <c r="C150" s="7">
+        <v>7511870.5888999896</v>
+      </c>
+      <c r="D150" s="7">
+        <v>4693141.2703</v>
+      </c>
+      <c r="E150" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G150" s="16"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B151" s="6">
+        <v>22</v>
+      </c>
+      <c r="C151" s="7">
+        <v>7511867.1457000002</v>
+      </c>
+      <c r="D151" s="7">
+        <v>4693134.7495999997</v>
+      </c>
+      <c r="E151" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G151" s="16"/>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B152" s="6">
+        <v>23</v>
+      </c>
+      <c r="C152" s="7">
+        <v>7511868.3261000002</v>
+      </c>
+      <c r="D152" s="7">
+        <v>4693137.5078999903</v>
+      </c>
+      <c r="E152" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G152" s="16"/>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B153" s="6">
+        <v>24</v>
+      </c>
+      <c r="C153" s="7">
+        <v>7511868.6709000003</v>
+      </c>
+      <c r="D153" s="7">
+        <v>4693137.3603999997</v>
+      </c>
+      <c r="E153" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G153" s="16"/>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B154" s="6">
+        <v>25</v>
+      </c>
+      <c r="C154" s="7">
+        <v>7511870.3821</v>
+      </c>
+      <c r="D154" s="7">
+        <v>4693141.3587999903</v>
+      </c>
+      <c r="E154" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G154" s="16"/>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B155" s="6">
+        <v>26</v>
+      </c>
+      <c r="C155" s="7">
+        <v>7511871.8479000004</v>
+      </c>
+      <c r="D155" s="7">
+        <v>4693144.2122</v>
+      </c>
+      <c r="E155" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G155" s="16"/>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B156" s="6">
+        <v>27</v>
+      </c>
+      <c r="C156" s="7">
+        <v>7511886.6259000003</v>
+      </c>
+      <c r="D156" s="7">
+        <v>4693132.6124</v>
+      </c>
+      <c r="E156" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G156" s="16"/>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B157" s="6">
+        <v>28</v>
+      </c>
+      <c r="C157" s="7">
+        <v>7511886.9935999904</v>
+      </c>
+      <c r="D157" s="7">
+        <v>4693132.4550000001</v>
+      </c>
+      <c r="E157" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G157" s="16"/>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B158" s="6">
+        <v>29</v>
+      </c>
+      <c r="C158" s="7">
+        <v>7511885.6558999904</v>
+      </c>
+      <c r="D158" s="7">
+        <v>4693129.3291999903</v>
+      </c>
+      <c r="E158" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G158" s="16"/>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B159" s="6">
+        <v>30</v>
+      </c>
+      <c r="C159" s="7">
+        <v>7511884.1849999903</v>
+      </c>
+      <c r="D159" s="7">
+        <v>4693129.9586999901</v>
+      </c>
+      <c r="E159" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G159" s="16"/>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B160" s="6">
+        <v>31</v>
+      </c>
+      <c r="C160" s="7">
+        <v>7511871.9463</v>
+      </c>
+      <c r="D160" s="7">
+        <v>4693144.4420999903</v>
+      </c>
+      <c r="E160" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G160" s="16"/>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161" s="6">
+        <v>32</v>
+      </c>
+      <c r="C161" s="7">
+        <v>7511871.2107999902</v>
+      </c>
+      <c r="D161" s="7">
+        <v>4693144.7567999903</v>
+      </c>
+      <c r="E161" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G161" s="16"/>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B162" s="6">
+        <v>33</v>
+      </c>
+      <c r="C162" s="7">
+        <v>7511873.3158999896</v>
+      </c>
+      <c r="D162" s="7">
+        <v>4693149.6756999902</v>
+      </c>
+      <c r="E162" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G162" s="16"/>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B163" s="6">
+        <v>34</v>
+      </c>
+      <c r="C163" s="7">
+        <v>7511873.5916999904</v>
+      </c>
+      <c r="D163" s="7">
+        <v>4693149.5576999998</v>
+      </c>
+      <c r="E163" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G163" s="16"/>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B164" s="6">
+        <v>35</v>
+      </c>
+      <c r="C164" s="7">
+        <v>7511875.9522000002</v>
+      </c>
+      <c r="D164" s="7">
+        <v>4693155.0734000001</v>
+      </c>
+      <c r="E164" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G164" s="16"/>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B165" s="6">
+        <v>36</v>
+      </c>
+      <c r="C165" s="7">
+        <v>7511893.3739</v>
+      </c>
+      <c r="D165" s="7">
+        <v>4693147.6175999902</v>
+      </c>
+      <c r="E165" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G165" s="16"/>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B166" s="6">
+        <v>37</v>
+      </c>
+      <c r="C166" s="7">
+        <v>7511891.0133999903</v>
+      </c>
+      <c r="D166" s="7">
+        <v>4693142.1019000001</v>
+      </c>
+      <c r="E166" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G166" s="16"/>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B167" s="6">
+        <v>38</v>
+      </c>
+      <c r="C167" s="7">
+        <v>7511891.2892000005</v>
+      </c>
+      <c r="D167" s="7">
+        <v>4693141.9838999901</v>
+      </c>
+      <c r="E167" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G167" s="16"/>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B168" s="6">
+        <v>39</v>
+      </c>
+      <c r="C168" s="7">
+        <v>7511889.1841000002</v>
+      </c>
+      <c r="D168" s="7">
+        <v>4693137.0649999902</v>
+      </c>
+      <c r="E168" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G168" s="16"/>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B169" s="6">
+        <v>40</v>
+      </c>
+      <c r="C169" s="7">
+        <v>7511888.6325000003</v>
+      </c>
+      <c r="D169" s="7">
+        <v>4693137.3010999998</v>
+      </c>
+      <c r="E169" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G169" s="16"/>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B170" s="6">
+        <v>41</v>
+      </c>
+      <c r="C170" s="7">
+        <v>7511876.5050999904</v>
+      </c>
+      <c r="D170" s="7">
+        <v>4693108.8870999897</v>
+      </c>
+      <c r="E170" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G170" s="16"/>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B171" s="6">
+        <v>42</v>
+      </c>
+      <c r="C171" s="7">
+        <v>7511877.0290999897</v>
+      </c>
+      <c r="D171" s="7">
+        <v>4693108.6627999898</v>
+      </c>
+      <c r="E171" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G171" s="16"/>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B172" s="6">
+        <v>43</v>
+      </c>
+      <c r="C172" s="7">
+        <v>7511874.9239999903</v>
+      </c>
+      <c r="D172" s="7">
+        <v>4693103.7438999899</v>
+      </c>
+      <c r="E172" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G172" s="16"/>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B173" s="6">
+        <v>44</v>
+      </c>
+      <c r="C173" s="7">
+        <v>7511874.6481999904</v>
+      </c>
+      <c r="D173" s="7">
+        <v>4693103.8619999904</v>
+      </c>
+      <c r="E173" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G173" s="16"/>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B174" s="6">
+        <v>45</v>
+      </c>
+      <c r="C174" s="7">
+        <v>7511872.2877000002</v>
+      </c>
+      <c r="D174" s="7">
+        <v>4693098.3461999996</v>
+      </c>
+      <c r="E174" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G174" s="16"/>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B175" s="6">
+        <v>46</v>
+      </c>
+      <c r="C175" s="7">
+        <v>7511854.8661000002</v>
+      </c>
+      <c r="D175" s="7">
+        <v>4693105.8019999899</v>
+      </c>
+      <c r="E175" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G175" s="16"/>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B176" s="6">
+        <v>47</v>
+      </c>
+      <c r="C176" s="7">
+        <v>7511857.2265999904</v>
+      </c>
+      <c r="D176" s="7">
+        <v>4693111.3176999995</v>
+      </c>
+      <c r="E176" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G176" s="16"/>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B177" s="6">
+        <v>48</v>
+      </c>
+      <c r="C177" s="7">
+        <v>7511856.9507999904</v>
+      </c>
+      <c r="D177" s="7">
+        <v>4693111.43569999</v>
+      </c>
+      <c r="E177" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G177" s="16"/>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B178" s="6">
+        <v>49</v>
+      </c>
+      <c r="C178" s="7">
+        <v>7511859.1149000004</v>
+      </c>
+      <c r="D178" s="7">
+        <v>4693116.4924999904</v>
+      </c>
+      <c r="E178" s="7">
+        <v>629.07700000000011</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G178" s="16"/>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B179" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C179" s="5">
+        <v>7511869.1087999996</v>
+      </c>
+      <c r="D179" s="5">
+        <v>4693143.5547000002</v>
+      </c>
+      <c r="E179" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G179" s="16"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B180" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="5">
+        <v>7511858.3772</v>
+      </c>
+      <c r="D180" s="5">
+        <v>4693118.5031000003</v>
+      </c>
+      <c r="E180" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" s="17"/>
     </row>
   </sheetData>
   <sortState ref="B1:D21">
     <sortCondition ref="B1"/>
   </sortState>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="G130:G180"/>
     <mergeCell ref="F3:F10"/>
     <mergeCell ref="E3:E10"/>
     <mergeCell ref="G13:G20"/>

--- a/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
+++ b/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="17">
   <si>
     <t>Nr</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Kati 2</t>
+  </si>
+  <si>
+    <t>Kati 3</t>
   </si>
 </sst>
 </file>
@@ -195,6 +198,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -212,15 +224,6 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -502,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J180"/>
+  <dimension ref="B2:J233"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="J165" sqref="J165"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="K192" sqref="K192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,10 +545,10 @@
       <c r="D3" s="3">
         <v>4693165.9556</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="15">
         <v>620.17700000000002</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -559,8 +562,8 @@
       <c r="D4" s="3">
         <v>4693157.3587999903</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
@@ -572,8 +575,8 @@
       <c r="D5" s="3">
         <v>4693146.0508999899</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="10"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
@@ -585,8 +588,8 @@
       <c r="D6" s="3">
         <v>4693148.5689000003</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
@@ -598,8 +601,8 @@
       <c r="D7" s="3">
         <v>4693099.5273000002</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="10"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
@@ -611,8 +614,8 @@
       <c r="D8" s="3">
         <v>4693105.6059999997</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="10"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
@@ -624,8 +627,8 @@
       <c r="D9" s="3">
         <v>4693154.4177999897</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -637,8 +640,8 @@
       <c r="D10" s="3">
         <v>4693157.7015000004</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="11"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -676,7 +679,7 @@
       <c r="F13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="9" t="s">
         <v>9</v>
       </c>
     </row>
@@ -696,7 +699,7 @@
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="16"/>
+      <c r="G14" s="10"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
@@ -714,7 +717,7 @@
       <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="16"/>
+      <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
@@ -732,7 +735,7 @@
       <c r="F16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="16"/>
+      <c r="G16" s="10"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
@@ -750,7 +753,7 @@
       <c r="F17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
@@ -768,7 +771,7 @@
       <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="10"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
@@ -786,7 +789,7 @@
       <c r="F19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="16"/>
+      <c r="G19" s="10"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
@@ -804,7 +807,7 @@
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="17"/>
+      <c r="G20" s="11"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
@@ -842,7 +845,7 @@
       <c r="F23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -862,7 +865,7 @@
       <c r="F24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="16"/>
+      <c r="G24" s="10"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
@@ -880,7 +883,7 @@
       <c r="F25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="16"/>
+      <c r="G25" s="10"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
@@ -898,7 +901,7 @@
       <c r="F26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="16"/>
+      <c r="G26" s="10"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
@@ -916,7 +919,7 @@
       <c r="F27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="16"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
@@ -934,7 +937,7 @@
       <c r="F28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="16"/>
+      <c r="G28" s="10"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
@@ -952,7 +955,7 @@
       <c r="F29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="16"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
@@ -970,7 +973,7 @@
       <c r="F30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="16"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="6">
@@ -988,7 +991,7 @@
       <c r="F31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="16"/>
+      <c r="G31" s="10"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
@@ -1006,7 +1009,7 @@
       <c r="F32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="16"/>
+      <c r="G32" s="10"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
@@ -1024,7 +1027,7 @@
       <c r="F33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="16"/>
+      <c r="G33" s="10"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
@@ -1042,7 +1045,7 @@
       <c r="F34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="16"/>
+      <c r="G34" s="10"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="6">
@@ -1060,7 +1063,7 @@
       <c r="F35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="16"/>
+      <c r="G35" s="10"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
@@ -1078,7 +1081,7 @@
       <c r="F36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="16"/>
+      <c r="G36" s="10"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="6">
@@ -1096,7 +1099,7 @@
       <c r="F37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="16"/>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
@@ -1114,7 +1117,7 @@
       <c r="F38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="16"/>
+      <c r="G38" s="10"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
@@ -1132,7 +1135,7 @@
       <c r="F39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="16"/>
+      <c r="G39" s="10"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="6">
@@ -1150,7 +1153,7 @@
       <c r="F40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="16"/>
+      <c r="G40" s="10"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
@@ -1168,7 +1171,7 @@
       <c r="F41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="16"/>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="6">
@@ -1186,7 +1189,7 @@
       <c r="F42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="16"/>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
@@ -1204,7 +1207,7 @@
       <c r="F43" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="16"/>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="6">
@@ -1222,7 +1225,7 @@
       <c r="F44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="16"/>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="6">
@@ -1240,7 +1243,7 @@
       <c r="F45" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="16"/>
+      <c r="G45" s="10"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="6">
@@ -1258,7 +1261,7 @@
       <c r="F46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="16"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="6">
@@ -1276,7 +1279,7 @@
       <c r="F47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="16"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="6">
@@ -1294,7 +1297,7 @@
       <c r="F48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="16"/>
+      <c r="G48" s="10"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="6">
@@ -1312,7 +1315,7 @@
       <c r="F49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="16"/>
+      <c r="G49" s="10"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="6">
@@ -1330,7 +1333,7 @@
       <c r="F50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="16"/>
+      <c r="G50" s="10"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="6">
@@ -1348,7 +1351,7 @@
       <c r="F51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="16"/>
+      <c r="G51" s="10"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="6">
@@ -1366,7 +1369,7 @@
       <c r="F52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="16"/>
+      <c r="G52" s="10"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="6">
@@ -1384,7 +1387,7 @@
       <c r="F53" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="16"/>
+      <c r="G53" s="10"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="6">
@@ -1402,7 +1405,7 @@
       <c r="F54" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="16"/>
+      <c r="G54" s="10"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="6">
@@ -1420,7 +1423,7 @@
       <c r="F55" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="16"/>
+      <c r="G55" s="10"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="6">
@@ -1438,7 +1441,7 @@
       <c r="F56" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="16"/>
+      <c r="G56" s="10"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="6">
@@ -1456,7 +1459,7 @@
       <c r="F57" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="16"/>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="6">
@@ -1474,7 +1477,7 @@
       <c r="F58" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="16"/>
+      <c r="G58" s="10"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="6">
@@ -1492,7 +1495,7 @@
       <c r="F59" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="16"/>
+      <c r="G59" s="10"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="6">
@@ -1510,7 +1513,7 @@
       <c r="F60" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="16"/>
+      <c r="G60" s="10"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="6">
@@ -1528,7 +1531,7 @@
       <c r="F61" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="16"/>
+      <c r="G61" s="10"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="6">
@@ -1546,7 +1549,7 @@
       <c r="F62" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="16"/>
+      <c r="G62" s="10"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="6">
@@ -1564,7 +1567,7 @@
       <c r="F63" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G63" s="16"/>
+      <c r="G63" s="10"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="6">
@@ -1582,7 +1585,7 @@
       <c r="F64" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="16"/>
+      <c r="G64" s="10"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="6">
@@ -1600,7 +1603,7 @@
       <c r="F65" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="16"/>
+      <c r="G65" s="10"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="6">
@@ -1618,7 +1621,7 @@
       <c r="F66" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="16"/>
+      <c r="G66" s="10"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="6">
@@ -1636,7 +1639,7 @@
       <c r="F67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="16"/>
+      <c r="G67" s="10"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="6">
@@ -1654,7 +1657,7 @@
       <c r="F68" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="16"/>
+      <c r="G68" s="10"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="6">
@@ -1672,7 +1675,7 @@
       <c r="F69" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G69" s="16"/>
+      <c r="G69" s="10"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="6">
@@ -1690,7 +1693,7 @@
       <c r="F70" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="16"/>
+      <c r="G70" s="10"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="6">
@@ -1708,7 +1711,7 @@
       <c r="F71" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G71" s="16"/>
+      <c r="G71" s="10"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
@@ -1726,7 +1729,7 @@
       <c r="F72" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G72" s="16"/>
+      <c r="G72" s="10"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
@@ -1744,7 +1747,7 @@
       <c r="F73" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="17"/>
+      <c r="G73" s="11"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
@@ -1782,7 +1785,7 @@
       <c r="F76" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G76" s="15" t="s">
+      <c r="G76" s="9" t="s">
         <v>14</v>
       </c>
       <c r="I76" s="8"/>
@@ -1803,7 +1806,7 @@
       <c r="F77" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="16"/>
+      <c r="G77" s="10"/>
       <c r="I77" s="8"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -1822,7 +1825,7 @@
       <c r="F78" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G78" s="16"/>
+      <c r="G78" s="10"/>
       <c r="I78" s="8"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
@@ -1841,7 +1844,7 @@
       <c r="F79" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G79" s="16"/>
+      <c r="G79" s="10"/>
       <c r="I79" s="8"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
@@ -1860,7 +1863,7 @@
       <c r="F80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G80" s="16"/>
+      <c r="G80" s="10"/>
       <c r="I80" s="8"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
@@ -1879,7 +1882,7 @@
       <c r="F81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="16"/>
+      <c r="G81" s="10"/>
       <c r="I81" s="8"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -1898,7 +1901,7 @@
       <c r="F82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G82" s="16"/>
+      <c r="G82" s="10"/>
       <c r="I82" s="8"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
@@ -1917,7 +1920,7 @@
       <c r="F83" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="16"/>
+      <c r="G83" s="10"/>
       <c r="I83" s="8"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
@@ -1936,7 +1939,7 @@
       <c r="F84" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G84" s="16"/>
+      <c r="G84" s="10"/>
       <c r="I84" s="8"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
@@ -1955,7 +1958,7 @@
       <c r="F85" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G85" s="16"/>
+      <c r="G85" s="10"/>
       <c r="I85" s="8"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
@@ -1974,7 +1977,7 @@
       <c r="F86" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G86" s="16"/>
+      <c r="G86" s="10"/>
       <c r="I86" s="8"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
@@ -1993,7 +1996,7 @@
       <c r="F87" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="16"/>
+      <c r="G87" s="10"/>
       <c r="I87" s="8"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
@@ -2012,7 +2015,7 @@
       <c r="F88" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G88" s="16"/>
+      <c r="G88" s="10"/>
       <c r="I88" s="8"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
@@ -2031,7 +2034,7 @@
       <c r="F89" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="16"/>
+      <c r="G89" s="10"/>
       <c r="I89" s="8"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
@@ -2050,7 +2053,7 @@
       <c r="F90" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G90" s="16"/>
+      <c r="G90" s="10"/>
       <c r="I90" s="8"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
@@ -2069,7 +2072,7 @@
       <c r="F91" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="16"/>
+      <c r="G91" s="10"/>
       <c r="I91" s="8"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
@@ -2088,7 +2091,7 @@
       <c r="F92" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G92" s="16"/>
+      <c r="G92" s="10"/>
       <c r="I92" s="8"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
@@ -2107,7 +2110,7 @@
       <c r="F93" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="16"/>
+      <c r="G93" s="10"/>
       <c r="I93" s="8"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
@@ -2126,7 +2129,7 @@
       <c r="F94" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="16"/>
+      <c r="G94" s="10"/>
       <c r="I94" s="8"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
@@ -2145,7 +2148,7 @@
       <c r="F95" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G95" s="16"/>
+      <c r="G95" s="10"/>
       <c r="I95" s="8"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
@@ -2164,7 +2167,7 @@
       <c r="F96" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="16"/>
+      <c r="G96" s="10"/>
       <c r="I96" s="8"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
@@ -2183,7 +2186,7 @@
       <c r="F97" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G97" s="16"/>
+      <c r="G97" s="10"/>
       <c r="I97" s="8"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
@@ -2202,7 +2205,7 @@
       <c r="F98" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G98" s="16"/>
+      <c r="G98" s="10"/>
       <c r="I98" s="8"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
@@ -2221,7 +2224,7 @@
       <c r="F99" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="16"/>
+      <c r="G99" s="10"/>
       <c r="I99" s="8"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
@@ -2240,7 +2243,7 @@
       <c r="F100" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="16"/>
+      <c r="G100" s="10"/>
       <c r="I100" s="8"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
@@ -2259,7 +2262,7 @@
       <c r="F101" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="16"/>
+      <c r="G101" s="10"/>
       <c r="I101" s="8"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
@@ -2278,7 +2281,7 @@
       <c r="F102" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="16"/>
+      <c r="G102" s="10"/>
       <c r="I102" s="8"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
@@ -2297,7 +2300,7 @@
       <c r="F103" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G103" s="16"/>
+      <c r="G103" s="10"/>
       <c r="I103" s="8"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
@@ -2316,7 +2319,7 @@
       <c r="F104" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G104" s="16"/>
+      <c r="G104" s="10"/>
       <c r="I104" s="8"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
@@ -2335,7 +2338,7 @@
       <c r="F105" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G105" s="16"/>
+      <c r="G105" s="10"/>
       <c r="I105" s="8"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
@@ -2354,7 +2357,7 @@
       <c r="F106" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G106" s="16"/>
+      <c r="G106" s="10"/>
       <c r="I106" s="8"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
@@ -2373,7 +2376,7 @@
       <c r="F107" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G107" s="16"/>
+      <c r="G107" s="10"/>
       <c r="I107" s="8"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
@@ -2392,7 +2395,7 @@
       <c r="F108" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G108" s="16"/>
+      <c r="G108" s="10"/>
       <c r="I108" s="8"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
@@ -2411,7 +2414,7 @@
       <c r="F109" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G109" s="16"/>
+      <c r="G109" s="10"/>
       <c r="I109" s="8"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
@@ -2430,7 +2433,7 @@
       <c r="F110" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G110" s="16"/>
+      <c r="G110" s="10"/>
       <c r="I110" s="8"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
@@ -2449,7 +2452,7 @@
       <c r="F111" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G111" s="16"/>
+      <c r="G111" s="10"/>
       <c r="I111" s="8"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
@@ -2468,7 +2471,7 @@
       <c r="F112" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G112" s="16"/>
+      <c r="G112" s="10"/>
       <c r="I112" s="8"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
@@ -2487,7 +2490,7 @@
       <c r="F113" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G113" s="16"/>
+      <c r="G113" s="10"/>
       <c r="I113" s="8"/>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
@@ -2506,7 +2509,7 @@
       <c r="F114" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G114" s="16"/>
+      <c r="G114" s="10"/>
       <c r="I114" s="8"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
@@ -2525,7 +2528,7 @@
       <c r="F115" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G115" s="16"/>
+      <c r="G115" s="10"/>
       <c r="I115" s="8"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
@@ -2544,7 +2547,7 @@
       <c r="F116" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G116" s="16"/>
+      <c r="G116" s="10"/>
       <c r="I116" s="8"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
@@ -2563,7 +2566,7 @@
       <c r="F117" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G117" s="16"/>
+      <c r="G117" s="10"/>
       <c r="I117" s="8"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
@@ -2582,7 +2585,7 @@
       <c r="F118" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G118" s="16"/>
+      <c r="G118" s="10"/>
       <c r="I118" s="8"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
@@ -2601,7 +2604,7 @@
       <c r="F119" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G119" s="16"/>
+      <c r="G119" s="10"/>
       <c r="I119" s="8"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
@@ -2620,7 +2623,7 @@
       <c r="F120" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G120" s="16"/>
+      <c r="G120" s="10"/>
       <c r="I120" s="8"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
@@ -2639,7 +2642,7 @@
       <c r="F121" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G121" s="16"/>
+      <c r="G121" s="10"/>
       <c r="I121" s="8"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
@@ -2658,7 +2661,7 @@
       <c r="F122" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G122" s="16"/>
+      <c r="G122" s="10"/>
       <c r="I122" s="8"/>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
@@ -2677,7 +2680,7 @@
       <c r="F123" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G123" s="16"/>
+      <c r="G123" s="10"/>
       <c r="I123" s="8"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
@@ -2696,7 +2699,7 @@
       <c r="F124" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G124" s="16"/>
+      <c r="G124" s="10"/>
       <c r="I124" s="8"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
@@ -2715,7 +2718,7 @@
       <c r="F125" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G125" s="16"/>
+      <c r="G125" s="10"/>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" s="4" t="s">
@@ -2733,7 +2736,7 @@
       <c r="F126" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G126" s="17"/>
+      <c r="G126" s="11"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
@@ -2771,7 +2774,7 @@
       <c r="F130" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G130" s="15" t="s">
+      <c r="G130" s="9" t="s">
         <v>15</v>
       </c>
       <c r="J130" s="8"/>
@@ -2792,7 +2795,7 @@
       <c r="F131" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G131" s="16"/>
+      <c r="G131" s="10"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" s="4">
@@ -2810,7 +2813,7 @@
       <c r="F132" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G132" s="16"/>
+      <c r="G132" s="10"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" s="4">
@@ -2828,7 +2831,7 @@
       <c r="F133" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G133" s="16"/>
+      <c r="G133" s="10"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" s="4">
@@ -2846,7 +2849,7 @@
       <c r="F134" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G134" s="16"/>
+      <c r="G134" s="10"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135" s="4">
@@ -2864,7 +2867,7 @@
       <c r="F135" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G135" s="16"/>
+      <c r="G135" s="10"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" s="4">
@@ -2882,7 +2885,7 @@
       <c r="F136" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G136" s="16"/>
+      <c r="G136" s="10"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137" s="4">
@@ -2900,7 +2903,7 @@
       <c r="F137" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G137" s="16"/>
+      <c r="G137" s="10"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" s="6">
@@ -2918,7 +2921,7 @@
       <c r="F138" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G138" s="16"/>
+      <c r="G138" s="10"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" s="6">
@@ -2936,7 +2939,7 @@
       <c r="F139" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G139" s="16"/>
+      <c r="G139" s="10"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" s="6">
@@ -2954,7 +2957,7 @@
       <c r="F140" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G140" s="16"/>
+      <c r="G140" s="10"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" s="6">
@@ -2972,7 +2975,7 @@
       <c r="F141" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G141" s="16"/>
+      <c r="G141" s="10"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="6">
@@ -2990,7 +2993,7 @@
       <c r="F142" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G142" s="16"/>
+      <c r="G142" s="10"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" s="6">
@@ -3008,7 +3011,7 @@
       <c r="F143" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G143" s="16"/>
+      <c r="G143" s="10"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" s="6">
@@ -3026,7 +3029,7 @@
       <c r="F144" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G144" s="16"/>
+      <c r="G144" s="10"/>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="6">
@@ -3044,7 +3047,7 @@
       <c r="F145" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G145" s="16"/>
+      <c r="G145" s="10"/>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="6">
@@ -3062,7 +3065,7 @@
       <c r="F146" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G146" s="16"/>
+      <c r="G146" s="10"/>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="6">
@@ -3080,7 +3083,7 @@
       <c r="F147" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G147" s="16"/>
+      <c r="G147" s="10"/>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" s="6">
@@ -3098,7 +3101,7 @@
       <c r="F148" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G148" s="16"/>
+      <c r="G148" s="10"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="6">
@@ -3116,7 +3119,7 @@
       <c r="F149" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G149" s="16"/>
+      <c r="G149" s="10"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" s="6">
@@ -3134,7 +3137,7 @@
       <c r="F150" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G150" s="16"/>
+      <c r="G150" s="10"/>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" s="6">
@@ -3152,7 +3155,7 @@
       <c r="F151" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G151" s="16"/>
+      <c r="G151" s="10"/>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" s="6">
@@ -3170,7 +3173,7 @@
       <c r="F152" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G152" s="16"/>
+      <c r="G152" s="10"/>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" s="6">
@@ -3188,7 +3191,7 @@
       <c r="F153" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G153" s="16"/>
+      <c r="G153" s="10"/>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154" s="6">
@@ -3206,7 +3209,7 @@
       <c r="F154" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G154" s="16"/>
+      <c r="G154" s="10"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B155" s="6">
@@ -3224,7 +3227,7 @@
       <c r="F155" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G155" s="16"/>
+      <c r="G155" s="10"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" s="6">
@@ -3242,7 +3245,7 @@
       <c r="F156" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G156" s="16"/>
+      <c r="G156" s="10"/>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="6">
@@ -3260,7 +3263,7 @@
       <c r="F157" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G157" s="16"/>
+      <c r="G157" s="10"/>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="6">
@@ -3278,7 +3281,7 @@
       <c r="F158" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G158" s="16"/>
+      <c r="G158" s="10"/>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" s="6">
@@ -3296,7 +3299,7 @@
       <c r="F159" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G159" s="16"/>
+      <c r="G159" s="10"/>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160" s="6">
@@ -3314,7 +3317,7 @@
       <c r="F160" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G160" s="16"/>
+      <c r="G160" s="10"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B161" s="6">
@@ -3332,7 +3335,7 @@
       <c r="F161" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G161" s="16"/>
+      <c r="G161" s="10"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="6">
@@ -3350,7 +3353,7 @@
       <c r="F162" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G162" s="16"/>
+      <c r="G162" s="10"/>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" s="6">
@@ -3368,7 +3371,7 @@
       <c r="F163" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G163" s="16"/>
+      <c r="G163" s="10"/>
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" s="6">
@@ -3386,7 +3389,7 @@
       <c r="F164" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G164" s="16"/>
+      <c r="G164" s="10"/>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165" s="6">
@@ -3404,7 +3407,7 @@
       <c r="F165" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G165" s="16"/>
+      <c r="G165" s="10"/>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166" s="6">
@@ -3422,7 +3425,7 @@
       <c r="F166" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G166" s="16"/>
+      <c r="G166" s="10"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" s="6">
@@ -3440,7 +3443,7 @@
       <c r="F167" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G167" s="16"/>
+      <c r="G167" s="10"/>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168" s="6">
@@ -3458,7 +3461,7 @@
       <c r="F168" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G168" s="16"/>
+      <c r="G168" s="10"/>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B169" s="6">
@@ -3476,7 +3479,7 @@
       <c r="F169" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G169" s="16"/>
+      <c r="G169" s="10"/>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" s="6">
@@ -3494,7 +3497,7 @@
       <c r="F170" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G170" s="16"/>
+      <c r="G170" s="10"/>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171" s="6">
@@ -3512,7 +3515,7 @@
       <c r="F171" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G171" s="16"/>
+      <c r="G171" s="10"/>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" s="6">
@@ -3530,7 +3533,7 @@
       <c r="F172" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G172" s="16"/>
+      <c r="G172" s="10"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" s="6">
@@ -3548,7 +3551,7 @@
       <c r="F173" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G173" s="16"/>
+      <c r="G173" s="10"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174" s="6">
@@ -3566,7 +3569,7 @@
       <c r="F174" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G174" s="16"/>
+      <c r="G174" s="10"/>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B175" s="6">
@@ -3584,7 +3587,7 @@
       <c r="F175" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G175" s="16"/>
+      <c r="G175" s="10"/>
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176" s="6">
@@ -3602,9 +3605,9 @@
       <c r="F176" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G176" s="16"/>
-    </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G176" s="10"/>
+    </row>
+    <row r="177" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B177" s="6">
         <v>48</v>
       </c>
@@ -3620,9 +3623,9 @@
       <c r="F177" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G177" s="16"/>
-    </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G177" s="10"/>
+    </row>
+    <row r="178" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B178" s="6">
         <v>49</v>
       </c>
@@ -3638,9 +3641,9 @@
       <c r="F178" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G178" s="16"/>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G178" s="10"/>
+    </row>
+    <row r="179" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B179" s="4" t="s">
         <v>11</v>
       </c>
@@ -3656,9 +3659,9 @@
       <c r="F179" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G179" s="16"/>
-    </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G179" s="10"/>
+    </row>
+    <row r="180" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B180" s="4" t="s">
         <v>13</v>
       </c>
@@ -3674,13 +3677,955 @@
       <c r="F180" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G180" s="17"/>
+      <c r="G180" s="11"/>
+    </row>
+    <row r="182" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B182" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B183" s="4">
+        <v>1</v>
+      </c>
+      <c r="C183" s="5">
+        <v>7511863.3491000002</v>
+      </c>
+      <c r="D183" s="5">
+        <v>4693125.8782000002</v>
+      </c>
+      <c r="E183" s="5">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F183" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G183" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J183" s="8"/>
+    </row>
+    <row r="184" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B184" s="4">
+        <v>2</v>
+      </c>
+      <c r="C184" s="5">
+        <v>7511865.0015000002</v>
+      </c>
+      <c r="D184" s="5">
+        <v>4693129.7394999899</v>
+      </c>
+      <c r="E184" s="5">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G184" s="10"/>
+    </row>
+    <row r="185" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B185" s="4">
+        <v>3</v>
+      </c>
+      <c r="C185" s="5">
+        <v>7511866.4725000001</v>
+      </c>
+      <c r="D185" s="5">
+        <v>4693129.1098999903</v>
+      </c>
+      <c r="E185" s="5">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G185" s="10"/>
+    </row>
+    <row r="186" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B186" s="4">
+        <v>4</v>
+      </c>
+      <c r="C186" s="5">
+        <v>7511868.6166000003</v>
+      </c>
+      <c r="D186" s="5">
+        <v>4693134.1200999999</v>
+      </c>
+      <c r="E186" s="5">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G186" s="10"/>
+    </row>
+    <row r="187" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B187" s="4">
+        <v>5</v>
+      </c>
+      <c r="C187" s="5">
+        <v>7511883.3492000001</v>
+      </c>
+      <c r="D187" s="5">
+        <v>4693128.00589999</v>
+      </c>
+      <c r="E187" s="5">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G187" s="10"/>
+    </row>
+    <row r="188" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B188" s="4">
+        <v>6</v>
+      </c>
+      <c r="C188" s="5">
+        <v>7511881.0574000003</v>
+      </c>
+      <c r="D188" s="5">
+        <v>4693122.65059999</v>
+      </c>
+      <c r="E188" s="5">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G188" s="10"/>
+    </row>
+    <row r="189" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B189" s="4">
+        <v>7</v>
+      </c>
+      <c r="C189" s="5">
+        <v>7511882.5284000002</v>
+      </c>
+      <c r="D189" s="5">
+        <v>4693122.0210999902</v>
+      </c>
+      <c r="E189" s="5">
+        <v>632.02700000000004</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G189" s="10"/>
+    </row>
+    <row r="190" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B190" s="4">
+        <v>8</v>
+      </c>
+      <c r="C190" s="5">
+        <v>7511880.9545999896</v>
+      </c>
+      <c r="D190" s="5">
+        <v>4693118.3436999898</v>
+      </c>
+      <c r="E190" s="5">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G190" s="10"/>
+    </row>
+    <row r="191" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B191" s="6">
+        <v>9</v>
+      </c>
+      <c r="C191" s="7">
+        <v>7511859.8503</v>
+      </c>
+      <c r="D191" s="7">
+        <v>4693116.1777999904</v>
+      </c>
+      <c r="E191" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G191" s="10"/>
+    </row>
+    <row r="192" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B192" s="6">
+        <v>10</v>
+      </c>
+      <c r="C192" s="7">
+        <v>7511861.0700000003</v>
+      </c>
+      <c r="D192" s="7">
+        <v>4693119.02779999</v>
+      </c>
+      <c r="E192" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G192" s="10"/>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B193" s="6">
+        <v>11</v>
+      </c>
+      <c r="C193" s="7">
+        <v>7511860.8860999905</v>
+      </c>
+      <c r="D193" s="7">
+        <v>4693119.1064999904</v>
+      </c>
+      <c r="E193" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G193" s="10"/>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B194" s="6">
+        <v>12</v>
+      </c>
+      <c r="C194" s="7">
+        <v>7511860.9845000003</v>
+      </c>
+      <c r="D194" s="7">
+        <v>4693119.3362999996</v>
+      </c>
+      <c r="E194" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G194" s="10"/>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195" s="6">
+        <v>13</v>
+      </c>
+      <c r="C195" s="7">
+        <v>7511860.6168</v>
+      </c>
+      <c r="D195" s="7">
+        <v>4693119.4936999902</v>
+      </c>
+      <c r="E195" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G195" s="10"/>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B196" s="6">
+        <v>14</v>
+      </c>
+      <c r="C196" s="7">
+        <v>7511861.6672999896</v>
+      </c>
+      <c r="D196" s="7">
+        <v>4693121.9483000003</v>
+      </c>
+      <c r="E196" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G196" s="10"/>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B197" s="6">
+        <v>15</v>
+      </c>
+      <c r="C197" s="7">
+        <v>7511862.0350000001</v>
+      </c>
+      <c r="D197" s="7">
+        <v>4693121.79099999</v>
+      </c>
+      <c r="E197" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G197" s="10"/>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B198" s="6">
+        <v>16</v>
+      </c>
+      <c r="C198" s="7">
+        <v>7511863.6796000004</v>
+      </c>
+      <c r="D198" s="7">
+        <v>4693125.6338</v>
+      </c>
+      <c r="E198" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G198" s="10"/>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B199" s="6">
+        <v>17</v>
+      </c>
+      <c r="C199" s="7">
+        <v>7511880.9173999904</v>
+      </c>
+      <c r="D199" s="7">
+        <v>4693118.2567999903</v>
+      </c>
+      <c r="E199" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G199" s="10"/>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B200" s="6">
+        <v>18</v>
+      </c>
+      <c r="C200" s="7">
+        <v>7511878.7315999903</v>
+      </c>
+      <c r="D200" s="7">
+        <v>4693113.1493999902</v>
+      </c>
+      <c r="E200" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G200" s="10"/>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B201" s="6">
+        <v>19</v>
+      </c>
+      <c r="C201" s="7">
+        <v>7511878.3914999897</v>
+      </c>
+      <c r="D201" s="7">
+        <v>4693113.2949999897</v>
+      </c>
+      <c r="E201" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G201" s="10"/>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B202" s="6">
+        <v>20</v>
+      </c>
+      <c r="C202" s="7">
+        <v>7511876.5522999903</v>
+      </c>
+      <c r="D202" s="7">
+        <v>4693108.9973999998</v>
+      </c>
+      <c r="E202" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G202" s="10"/>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B203" s="6">
+        <v>21</v>
+      </c>
+      <c r="C203" s="7">
+        <v>7511870.5888999896</v>
+      </c>
+      <c r="D203" s="7">
+        <v>4693141.2703</v>
+      </c>
+      <c r="E203" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G203" s="10"/>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B204" s="6">
+        <v>22</v>
+      </c>
+      <c r="C204" s="7">
+        <v>7511867.1457000002</v>
+      </c>
+      <c r="D204" s="7">
+        <v>4693134.7495999997</v>
+      </c>
+      <c r="E204" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G204" s="10"/>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B205" s="6">
+        <v>23</v>
+      </c>
+      <c r="C205" s="7">
+        <v>7511868.3261000002</v>
+      </c>
+      <c r="D205" s="7">
+        <v>4693137.5078999903</v>
+      </c>
+      <c r="E205" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G205" s="10"/>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B206" s="6">
+        <v>24</v>
+      </c>
+      <c r="C206" s="7">
+        <v>7511868.6709000003</v>
+      </c>
+      <c r="D206" s="7">
+        <v>4693137.3603999997</v>
+      </c>
+      <c r="E206" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G206" s="10"/>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B207" s="6">
+        <v>25</v>
+      </c>
+      <c r="C207" s="7">
+        <v>7511870.3821</v>
+      </c>
+      <c r="D207" s="7">
+        <v>4693141.3587999903</v>
+      </c>
+      <c r="E207" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G207" s="10"/>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B208" s="6">
+        <v>26</v>
+      </c>
+      <c r="C208" s="7">
+        <v>7511871.8479000004</v>
+      </c>
+      <c r="D208" s="7">
+        <v>4693144.2122</v>
+      </c>
+      <c r="E208" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G208" s="10"/>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B209" s="6">
+        <v>27</v>
+      </c>
+      <c r="C209" s="7">
+        <v>7511886.6259000003</v>
+      </c>
+      <c r="D209" s="7">
+        <v>4693132.6124</v>
+      </c>
+      <c r="E209" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G209" s="10"/>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B210" s="6">
+        <v>28</v>
+      </c>
+      <c r="C210" s="7">
+        <v>7511886.9935999904</v>
+      </c>
+      <c r="D210" s="7">
+        <v>4693132.4550000001</v>
+      </c>
+      <c r="E210" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G210" s="10"/>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B211" s="6">
+        <v>29</v>
+      </c>
+      <c r="C211" s="7">
+        <v>7511885.6558999904</v>
+      </c>
+      <c r="D211" s="7">
+        <v>4693129.3291999903</v>
+      </c>
+      <c r="E211" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G211" s="10"/>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B212" s="6">
+        <v>30</v>
+      </c>
+      <c r="C212" s="7">
+        <v>7511884.1849999903</v>
+      </c>
+      <c r="D212" s="7">
+        <v>4693129.9586999901</v>
+      </c>
+      <c r="E212" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G212" s="10"/>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B213" s="6">
+        <v>31</v>
+      </c>
+      <c r="C213" s="7">
+        <v>7511871.9463</v>
+      </c>
+      <c r="D213" s="7">
+        <v>4693144.4420999903</v>
+      </c>
+      <c r="E213" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G213" s="10"/>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B214" s="6">
+        <v>32</v>
+      </c>
+      <c r="C214" s="7">
+        <v>7511871.2107999902</v>
+      </c>
+      <c r="D214" s="7">
+        <v>4693144.7567999903</v>
+      </c>
+      <c r="E214" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G214" s="10"/>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B215" s="6">
+        <v>33</v>
+      </c>
+      <c r="C215" s="7">
+        <v>7511873.3158999896</v>
+      </c>
+      <c r="D215" s="7">
+        <v>4693149.6756999902</v>
+      </c>
+      <c r="E215" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G215" s="10"/>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B216" s="6">
+        <v>34</v>
+      </c>
+      <c r="C216" s="7">
+        <v>7511873.5916999904</v>
+      </c>
+      <c r="D216" s="7">
+        <v>4693149.5576999998</v>
+      </c>
+      <c r="E216" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G216" s="10"/>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B217" s="6">
+        <v>35</v>
+      </c>
+      <c r="C217" s="7">
+        <v>7511875.9522000002</v>
+      </c>
+      <c r="D217" s="7">
+        <v>4693155.0734000001</v>
+      </c>
+      <c r="E217" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G217" s="10"/>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B218" s="6">
+        <v>36</v>
+      </c>
+      <c r="C218" s="7">
+        <v>7511893.3739</v>
+      </c>
+      <c r="D218" s="7">
+        <v>4693147.6175999902</v>
+      </c>
+      <c r="E218" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G218" s="10"/>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B219" s="6">
+        <v>37</v>
+      </c>
+      <c r="C219" s="7">
+        <v>7511891.0133999903</v>
+      </c>
+      <c r="D219" s="7">
+        <v>4693142.1019000001</v>
+      </c>
+      <c r="E219" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G219" s="10"/>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B220" s="6">
+        <v>38</v>
+      </c>
+      <c r="C220" s="7">
+        <v>7511891.2892000005</v>
+      </c>
+      <c r="D220" s="7">
+        <v>4693141.9838999901</v>
+      </c>
+      <c r="E220" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G220" s="10"/>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B221" s="6">
+        <v>39</v>
+      </c>
+      <c r="C221" s="7">
+        <v>7511889.1841000002</v>
+      </c>
+      <c r="D221" s="7">
+        <v>4693137.0649999902</v>
+      </c>
+      <c r="E221" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G221" s="10"/>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B222" s="6">
+        <v>40</v>
+      </c>
+      <c r="C222" s="7">
+        <v>7511888.6325000003</v>
+      </c>
+      <c r="D222" s="7">
+        <v>4693137.3010999998</v>
+      </c>
+      <c r="E222" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G222" s="10"/>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B223" s="6">
+        <v>41</v>
+      </c>
+      <c r="C223" s="7">
+        <v>7511876.5050999904</v>
+      </c>
+      <c r="D223" s="7">
+        <v>4693108.8870999897</v>
+      </c>
+      <c r="E223" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G223" s="10"/>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B224" s="6">
+        <v>42</v>
+      </c>
+      <c r="C224" s="7">
+        <v>7511877.0290999897</v>
+      </c>
+      <c r="D224" s="7">
+        <v>4693108.6627999898</v>
+      </c>
+      <c r="E224" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G224" s="10"/>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B225" s="6">
+        <v>43</v>
+      </c>
+      <c r="C225" s="7">
+        <v>7511874.9239999903</v>
+      </c>
+      <c r="D225" s="7">
+        <v>4693103.7438999899</v>
+      </c>
+      <c r="E225" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G225" s="10"/>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B226" s="6">
+        <v>44</v>
+      </c>
+      <c r="C226" s="7">
+        <v>7511874.6481999904</v>
+      </c>
+      <c r="D226" s="7">
+        <v>4693103.8619999904</v>
+      </c>
+      <c r="E226" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G226" s="10"/>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B227" s="6">
+        <v>45</v>
+      </c>
+      <c r="C227" s="7">
+        <v>7511872.2877000002</v>
+      </c>
+      <c r="D227" s="7">
+        <v>4693098.3461999996</v>
+      </c>
+      <c r="E227" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G227" s="10"/>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B228" s="6">
+        <v>46</v>
+      </c>
+      <c r="C228" s="7">
+        <v>7511854.8661000002</v>
+      </c>
+      <c r="D228" s="7">
+        <v>4693105.8019999899</v>
+      </c>
+      <c r="E228" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G228" s="10"/>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B229" s="6">
+        <v>47</v>
+      </c>
+      <c r="C229" s="7">
+        <v>7511857.2265999904</v>
+      </c>
+      <c r="D229" s="7">
+        <v>4693111.3176999995</v>
+      </c>
+      <c r="E229" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G229" s="10"/>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B230" s="6">
+        <v>48</v>
+      </c>
+      <c r="C230" s="7">
+        <v>7511856.9507999904</v>
+      </c>
+      <c r="D230" s="7">
+        <v>4693111.43569999</v>
+      </c>
+      <c r="E230" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G230" s="10"/>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B231" s="6">
+        <v>49</v>
+      </c>
+      <c r="C231" s="7">
+        <v>7511859.1149000004</v>
+      </c>
+      <c r="D231" s="7">
+        <v>4693116.4924999904</v>
+      </c>
+      <c r="E231" s="7">
+        <v>632.02700000000016</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G231" s="10"/>
+    </row>
+    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C232" s="5">
+        <v>7511869.1087999996</v>
+      </c>
+      <c r="D232" s="5">
+        <v>4693143.5547000002</v>
+      </c>
+      <c r="E232" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F232" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G232" s="10"/>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B233" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C233" s="5">
+        <v>7511858.3772</v>
+      </c>
+      <c r="D233" s="5">
+        <v>4693118.5031000003</v>
+      </c>
+      <c r="E233" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G233" s="11"/>
     </row>
   </sheetData>
   <sortState ref="B1:D21">
     <sortCondition ref="B1"/>
   </sortState>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="G183:G233"/>
     <mergeCell ref="G130:G180"/>
     <mergeCell ref="F3:F10"/>
     <mergeCell ref="E3:E10"/>

--- a/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
+++ b/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="18">
   <si>
     <t>Nr</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Kati 3</t>
+  </si>
+  <si>
+    <t>Kati 4</t>
   </si>
 </sst>
 </file>
@@ -505,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J233"/>
+  <dimension ref="B2:J286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="K192" sqref="K192"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="J249" sqref="J249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4458,7 +4461,7 @@
       </c>
       <c r="G224" s="10"/>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B225" s="6">
         <v>43</v>
       </c>
@@ -4476,7 +4479,7 @@
       </c>
       <c r="G225" s="10"/>
     </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B226" s="6">
         <v>44</v>
       </c>
@@ -4494,7 +4497,7 @@
       </c>
       <c r="G226" s="10"/>
     </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227" s="6">
         <v>45</v>
       </c>
@@ -4512,7 +4515,7 @@
       </c>
       <c r="G227" s="10"/>
     </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B228" s="6">
         <v>46</v>
       </c>
@@ -4530,7 +4533,7 @@
       </c>
       <c r="G228" s="10"/>
     </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B229" s="6">
         <v>47</v>
       </c>
@@ -4548,7 +4551,7 @@
       </c>
       <c r="G229" s="10"/>
     </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B230" s="6">
         <v>48</v>
       </c>
@@ -4566,7 +4569,7 @@
       </c>
       <c r="G230" s="10"/>
     </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B231" s="6">
         <v>49</v>
       </c>
@@ -4584,7 +4587,7 @@
       </c>
       <c r="G231" s="10"/>
     </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B232" s="4" t="s">
         <v>11</v>
       </c>
@@ -4602,7 +4605,7 @@
       </c>
       <c r="G232" s="10"/>
     </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B233" s="4" t="s">
         <v>13</v>
       </c>
@@ -4619,12 +4622,954 @@
         <v>12</v>
       </c>
       <c r="G233" s="11"/>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B235" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B236" s="4">
+        <v>1</v>
+      </c>
+      <c r="C236" s="5">
+        <v>7511863.3491000002</v>
+      </c>
+      <c r="D236" s="5">
+        <v>4693125.8782000002</v>
+      </c>
+      <c r="E236" s="5">
+        <v>634.97699999999998</v>
+      </c>
+      <c r="F236" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G236" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I236" s="8"/>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B237" s="4">
+        <v>2</v>
+      </c>
+      <c r="C237" s="5">
+        <v>7511865.0015000002</v>
+      </c>
+      <c r="D237" s="5">
+        <v>4693129.7394999899</v>
+      </c>
+      <c r="E237" s="5">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F237" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G237" s="10"/>
+    </row>
+    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B238" s="4">
+        <v>3</v>
+      </c>
+      <c r="C238" s="5">
+        <v>7511866.4725000001</v>
+      </c>
+      <c r="D238" s="5">
+        <v>4693129.1098999903</v>
+      </c>
+      <c r="E238" s="5">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F238" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G238" s="10"/>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B239" s="4">
+        <v>4</v>
+      </c>
+      <c r="C239" s="5">
+        <v>7511868.6166000003</v>
+      </c>
+      <c r="D239" s="5">
+        <v>4693134.1200999999</v>
+      </c>
+      <c r="E239" s="5">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F239" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G239" s="10"/>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B240" s="4">
+        <v>5</v>
+      </c>
+      <c r="C240" s="5">
+        <v>7511883.3492000001</v>
+      </c>
+      <c r="D240" s="5">
+        <v>4693128.00589999</v>
+      </c>
+      <c r="E240" s="5">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G240" s="10"/>
+    </row>
+    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B241" s="4">
+        <v>6</v>
+      </c>
+      <c r="C241" s="5">
+        <v>7511881.0574000003</v>
+      </c>
+      <c r="D241" s="5">
+        <v>4693122.65059999</v>
+      </c>
+      <c r="E241" s="5">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G241" s="10"/>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B242" s="4">
+        <v>7</v>
+      </c>
+      <c r="C242" s="5">
+        <v>7511882.5284000002</v>
+      </c>
+      <c r="D242" s="5">
+        <v>4693122.0210999902</v>
+      </c>
+      <c r="E242" s="5">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G242" s="10"/>
+    </row>
+    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B243" s="4">
+        <v>8</v>
+      </c>
+      <c r="C243" s="5">
+        <v>7511880.9545999896</v>
+      </c>
+      <c r="D243" s="5">
+        <v>4693118.3436999898</v>
+      </c>
+      <c r="E243" s="5">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G243" s="10"/>
+    </row>
+    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B244" s="6">
+        <v>9</v>
+      </c>
+      <c r="C244" s="7">
+        <v>7511859.8503</v>
+      </c>
+      <c r="D244" s="7">
+        <v>4693116.1777999904</v>
+      </c>
+      <c r="E244" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G244" s="10"/>
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B245" s="6">
+        <v>10</v>
+      </c>
+      <c r="C245" s="7">
+        <v>7511861.0700000003</v>
+      </c>
+      <c r="D245" s="7">
+        <v>4693119.02779999</v>
+      </c>
+      <c r="E245" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G245" s="10"/>
+    </row>
+    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B246" s="6">
+        <v>11</v>
+      </c>
+      <c r="C246" s="7">
+        <v>7511860.8860999905</v>
+      </c>
+      <c r="D246" s="7">
+        <v>4693119.1064999904</v>
+      </c>
+      <c r="E246" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G246" s="10"/>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B247" s="6">
+        <v>12</v>
+      </c>
+      <c r="C247" s="7">
+        <v>7511860.9845000003</v>
+      </c>
+      <c r="D247" s="7">
+        <v>4693119.3362999996</v>
+      </c>
+      <c r="E247" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G247" s="10"/>
+    </row>
+    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B248" s="6">
+        <v>13</v>
+      </c>
+      <c r="C248" s="7">
+        <v>7511860.6168</v>
+      </c>
+      <c r="D248" s="7">
+        <v>4693119.4936999902</v>
+      </c>
+      <c r="E248" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G248" s="10"/>
+    </row>
+    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B249" s="6">
+        <v>14</v>
+      </c>
+      <c r="C249" s="7">
+        <v>7511861.6672999896</v>
+      </c>
+      <c r="D249" s="7">
+        <v>4693121.9483000003</v>
+      </c>
+      <c r="E249" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G249" s="10"/>
+    </row>
+    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B250" s="6">
+        <v>15</v>
+      </c>
+      <c r="C250" s="7">
+        <v>7511862.0350000001</v>
+      </c>
+      <c r="D250" s="7">
+        <v>4693121.79099999</v>
+      </c>
+      <c r="E250" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G250" s="10"/>
+    </row>
+    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B251" s="6">
+        <v>16</v>
+      </c>
+      <c r="C251" s="7">
+        <v>7511863.6796000004</v>
+      </c>
+      <c r="D251" s="7">
+        <v>4693125.6338</v>
+      </c>
+      <c r="E251" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G251" s="10"/>
+    </row>
+    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B252" s="6">
+        <v>17</v>
+      </c>
+      <c r="C252" s="7">
+        <v>7511880.9173999904</v>
+      </c>
+      <c r="D252" s="7">
+        <v>4693118.2567999903</v>
+      </c>
+      <c r="E252" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G252" s="10"/>
+    </row>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B253" s="6">
+        <v>18</v>
+      </c>
+      <c r="C253" s="7">
+        <v>7511878.7315999903</v>
+      </c>
+      <c r="D253" s="7">
+        <v>4693113.1493999902</v>
+      </c>
+      <c r="E253" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G253" s="10"/>
+    </row>
+    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B254" s="6">
+        <v>19</v>
+      </c>
+      <c r="C254" s="7">
+        <v>7511878.3914999897</v>
+      </c>
+      <c r="D254" s="7">
+        <v>4693113.2949999897</v>
+      </c>
+      <c r="E254" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G254" s="10"/>
+    </row>
+    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B255" s="6">
+        <v>20</v>
+      </c>
+      <c r="C255" s="7">
+        <v>7511876.5522999903</v>
+      </c>
+      <c r="D255" s="7">
+        <v>4693108.9973999998</v>
+      </c>
+      <c r="E255" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G255" s="10"/>
+    </row>
+    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B256" s="6">
+        <v>21</v>
+      </c>
+      <c r="C256" s="7">
+        <v>7511870.5888999896</v>
+      </c>
+      <c r="D256" s="7">
+        <v>4693141.2703</v>
+      </c>
+      <c r="E256" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G256" s="10"/>
+    </row>
+    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B257" s="6">
+        <v>22</v>
+      </c>
+      <c r="C257" s="7">
+        <v>7511867.1457000002</v>
+      </c>
+      <c r="D257" s="7">
+        <v>4693134.7495999997</v>
+      </c>
+      <c r="E257" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G257" s="10"/>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B258" s="6">
+        <v>23</v>
+      </c>
+      <c r="C258" s="7">
+        <v>7511868.3261000002</v>
+      </c>
+      <c r="D258" s="7">
+        <v>4693137.5078999903</v>
+      </c>
+      <c r="E258" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G258" s="10"/>
+    </row>
+    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B259" s="6">
+        <v>24</v>
+      </c>
+      <c r="C259" s="7">
+        <v>7511868.6709000003</v>
+      </c>
+      <c r="D259" s="7">
+        <v>4693137.3603999997</v>
+      </c>
+      <c r="E259" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G259" s="10"/>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B260" s="6">
+        <v>25</v>
+      </c>
+      <c r="C260" s="7">
+        <v>7511870.3821</v>
+      </c>
+      <c r="D260" s="7">
+        <v>4693141.3587999903</v>
+      </c>
+      <c r="E260" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G260" s="10"/>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B261" s="6">
+        <v>26</v>
+      </c>
+      <c r="C261" s="7">
+        <v>7511871.8479000004</v>
+      </c>
+      <c r="D261" s="7">
+        <v>4693144.2122</v>
+      </c>
+      <c r="E261" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G261" s="10"/>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B262" s="6">
+        <v>27</v>
+      </c>
+      <c r="C262" s="7">
+        <v>7511886.6259000003</v>
+      </c>
+      <c r="D262" s="7">
+        <v>4693132.6124</v>
+      </c>
+      <c r="E262" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G262" s="10"/>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B263" s="6">
+        <v>28</v>
+      </c>
+      <c r="C263" s="7">
+        <v>7511886.9935999904</v>
+      </c>
+      <c r="D263" s="7">
+        <v>4693132.4550000001</v>
+      </c>
+      <c r="E263" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G263" s="10"/>
+    </row>
+    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B264" s="6">
+        <v>29</v>
+      </c>
+      <c r="C264" s="7">
+        <v>7511885.6558999904</v>
+      </c>
+      <c r="D264" s="7">
+        <v>4693129.3291999903</v>
+      </c>
+      <c r="E264" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G264" s="10"/>
+    </row>
+    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B265" s="6">
+        <v>30</v>
+      </c>
+      <c r="C265" s="7">
+        <v>7511884.1849999903</v>
+      </c>
+      <c r="D265" s="7">
+        <v>4693129.9586999901</v>
+      </c>
+      <c r="E265" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G265" s="10"/>
+    </row>
+    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B266" s="6">
+        <v>31</v>
+      </c>
+      <c r="C266" s="7">
+        <v>7511871.9463</v>
+      </c>
+      <c r="D266" s="7">
+        <v>4693144.4420999903</v>
+      </c>
+      <c r="E266" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G266" s="10"/>
+    </row>
+    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B267" s="6">
+        <v>32</v>
+      </c>
+      <c r="C267" s="7">
+        <v>7511871.2107999902</v>
+      </c>
+      <c r="D267" s="7">
+        <v>4693144.7567999903</v>
+      </c>
+      <c r="E267" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G267" s="10"/>
+    </row>
+    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B268" s="6">
+        <v>33</v>
+      </c>
+      <c r="C268" s="7">
+        <v>7511873.3158999896</v>
+      </c>
+      <c r="D268" s="7">
+        <v>4693149.6756999902</v>
+      </c>
+      <c r="E268" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G268" s="10"/>
+    </row>
+    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B269" s="6">
+        <v>34</v>
+      </c>
+      <c r="C269" s="7">
+        <v>7511873.5916999904</v>
+      </c>
+      <c r="D269" s="7">
+        <v>4693149.5576999998</v>
+      </c>
+      <c r="E269" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G269" s="10"/>
+    </row>
+    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B270" s="6">
+        <v>35</v>
+      </c>
+      <c r="C270" s="7">
+        <v>7511875.9522000002</v>
+      </c>
+      <c r="D270" s="7">
+        <v>4693155.0734000001</v>
+      </c>
+      <c r="E270" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G270" s="10"/>
+    </row>
+    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B271" s="6">
+        <v>36</v>
+      </c>
+      <c r="C271" s="7">
+        <v>7511893.3739</v>
+      </c>
+      <c r="D271" s="7">
+        <v>4693147.6175999902</v>
+      </c>
+      <c r="E271" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G271" s="10"/>
+    </row>
+    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B272" s="6">
+        <v>37</v>
+      </c>
+      <c r="C272" s="7">
+        <v>7511891.0133999903</v>
+      </c>
+      <c r="D272" s="7">
+        <v>4693142.1019000001</v>
+      </c>
+      <c r="E272" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G272" s="10"/>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B273" s="6">
+        <v>38</v>
+      </c>
+      <c r="C273" s="7">
+        <v>7511891.2892000005</v>
+      </c>
+      <c r="D273" s="7">
+        <v>4693141.9838999901</v>
+      </c>
+      <c r="E273" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G273" s="10"/>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B274" s="6">
+        <v>39</v>
+      </c>
+      <c r="C274" s="7">
+        <v>7511889.1841000002</v>
+      </c>
+      <c r="D274" s="7">
+        <v>4693137.0649999902</v>
+      </c>
+      <c r="E274" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G274" s="10"/>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B275" s="6">
+        <v>40</v>
+      </c>
+      <c r="C275" s="7">
+        <v>7511888.6325000003</v>
+      </c>
+      <c r="D275" s="7">
+        <v>4693137.3010999998</v>
+      </c>
+      <c r="E275" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G275" s="10"/>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B276" s="6">
+        <v>41</v>
+      </c>
+      <c r="C276" s="7">
+        <v>7511876.5050999904</v>
+      </c>
+      <c r="D276" s="7">
+        <v>4693108.8870999897</v>
+      </c>
+      <c r="E276" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G276" s="10"/>
+    </row>
+    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B277" s="6">
+        <v>42</v>
+      </c>
+      <c r="C277" s="7">
+        <v>7511877.0290999897</v>
+      </c>
+      <c r="D277" s="7">
+        <v>4693108.6627999898</v>
+      </c>
+      <c r="E277" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G277" s="10"/>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B278" s="6">
+        <v>43</v>
+      </c>
+      <c r="C278" s="7">
+        <v>7511874.9239999903</v>
+      </c>
+      <c r="D278" s="7">
+        <v>4693103.7438999899</v>
+      </c>
+      <c r="E278" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F278" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G278" s="10"/>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B279" s="6">
+        <v>44</v>
+      </c>
+      <c r="C279" s="7">
+        <v>7511874.6481999904</v>
+      </c>
+      <c r="D279" s="7">
+        <v>4693103.8619999904</v>
+      </c>
+      <c r="E279" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F279" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G279" s="10"/>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B280" s="6">
+        <v>45</v>
+      </c>
+      <c r="C280" s="7">
+        <v>7511872.2877000002</v>
+      </c>
+      <c r="D280" s="7">
+        <v>4693098.3461999996</v>
+      </c>
+      <c r="E280" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G280" s="10"/>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B281" s="6">
+        <v>46</v>
+      </c>
+      <c r="C281" s="7">
+        <v>7511854.8661000002</v>
+      </c>
+      <c r="D281" s="7">
+        <v>4693105.8019999899</v>
+      </c>
+      <c r="E281" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F281" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G281" s="10"/>
+    </row>
+    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B282" s="6">
+        <v>47</v>
+      </c>
+      <c r="C282" s="7">
+        <v>7511857.2265999904</v>
+      </c>
+      <c r="D282" s="7">
+        <v>4693111.3176999995</v>
+      </c>
+      <c r="E282" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G282" s="10"/>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B283" s="6">
+        <v>48</v>
+      </c>
+      <c r="C283" s="7">
+        <v>7511856.9507999904</v>
+      </c>
+      <c r="D283" s="7">
+        <v>4693111.43569999</v>
+      </c>
+      <c r="E283" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F283" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G283" s="10"/>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B284" s="6">
+        <v>49</v>
+      </c>
+      <c r="C284" s="7">
+        <v>7511859.1149000004</v>
+      </c>
+      <c r="D284" s="7">
+        <v>4693116.4924999904</v>
+      </c>
+      <c r="E284" s="7">
+        <v>634.9770000000002</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G284" s="10"/>
+    </row>
+    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B285" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C285" s="5">
+        <v>7511869.1087999996</v>
+      </c>
+      <c r="D285" s="5">
+        <v>4693143.5547000002</v>
+      </c>
+      <c r="E285" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F285" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G285" s="10"/>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B286" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C286" s="5">
+        <v>7511858.3772</v>
+      </c>
+      <c r="D286" s="5">
+        <v>4693118.5031000003</v>
+      </c>
+      <c r="E286" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F286" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G286" s="11"/>
     </row>
   </sheetData>
   <sortState ref="B1:D21">
     <sortCondition ref="B1"/>
   </sortState>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="G236:G286"/>
     <mergeCell ref="G183:G233"/>
     <mergeCell ref="G130:G180"/>
     <mergeCell ref="F3:F10"/>

--- a/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
+++ b/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="19">
   <si>
     <t>Nr</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Kati 4</t>
+  </si>
+  <si>
+    <t>Kati 5</t>
   </si>
 </sst>
 </file>
@@ -508,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J286"/>
+  <dimension ref="B2:J339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
-      <selection activeCell="J249" sqref="J249"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="E319" sqref="E319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5564,11 +5567,953 @@
       </c>
       <c r="G286" s="11"/>
     </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B288" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B289" s="4">
+        <v>1</v>
+      </c>
+      <c r="C289" s="5">
+        <v>7511863.3491000002</v>
+      </c>
+      <c r="D289" s="5">
+        <v>4693125.8782000002</v>
+      </c>
+      <c r="E289" s="5">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F289" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G289" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I289" s="8"/>
+    </row>
+    <row r="290" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B290" s="4">
+        <v>2</v>
+      </c>
+      <c r="C290" s="5">
+        <v>7511865.0015000002</v>
+      </c>
+      <c r="D290" s="5">
+        <v>4693129.7394999899</v>
+      </c>
+      <c r="E290" s="5">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F290" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G290" s="10"/>
+    </row>
+    <row r="291" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B291" s="4">
+        <v>3</v>
+      </c>
+      <c r="C291" s="5">
+        <v>7511866.4725000001</v>
+      </c>
+      <c r="D291" s="5">
+        <v>4693129.1098999903</v>
+      </c>
+      <c r="E291" s="5">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F291" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G291" s="10"/>
+    </row>
+    <row r="292" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B292" s="4">
+        <v>4</v>
+      </c>
+      <c r="C292" s="5">
+        <v>7511868.6166000003</v>
+      </c>
+      <c r="D292" s="5">
+        <v>4693134.1200999999</v>
+      </c>
+      <c r="E292" s="5">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F292" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G292" s="10"/>
+    </row>
+    <row r="293" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B293" s="4">
+        <v>5</v>
+      </c>
+      <c r="C293" s="5">
+        <v>7511883.3492000001</v>
+      </c>
+      <c r="D293" s="5">
+        <v>4693128.00589999</v>
+      </c>
+      <c r="E293" s="5">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F293" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G293" s="10"/>
+    </row>
+    <row r="294" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B294" s="4">
+        <v>6</v>
+      </c>
+      <c r="C294" s="5">
+        <v>7511881.0574000003</v>
+      </c>
+      <c r="D294" s="5">
+        <v>4693122.65059999</v>
+      </c>
+      <c r="E294" s="5">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F294" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G294" s="10"/>
+    </row>
+    <row r="295" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B295" s="4">
+        <v>7</v>
+      </c>
+      <c r="C295" s="5">
+        <v>7511882.5284000002</v>
+      </c>
+      <c r="D295" s="5">
+        <v>4693122.0210999902</v>
+      </c>
+      <c r="E295" s="5">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F295" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G295" s="10"/>
+    </row>
+    <row r="296" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B296" s="4">
+        <v>8</v>
+      </c>
+      <c r="C296" s="5">
+        <v>7511880.9545999896</v>
+      </c>
+      <c r="D296" s="5">
+        <v>4693118.3436999898</v>
+      </c>
+      <c r="E296" s="5">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F296" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G296" s="10"/>
+    </row>
+    <row r="297" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B297" s="6">
+        <v>9</v>
+      </c>
+      <c r="C297" s="7">
+        <v>7511859.8503</v>
+      </c>
+      <c r="D297" s="7">
+        <v>4693116.1777999904</v>
+      </c>
+      <c r="E297" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F297" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G297" s="10"/>
+    </row>
+    <row r="298" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B298" s="6">
+        <v>10</v>
+      </c>
+      <c r="C298" s="7">
+        <v>7511861.0700000003</v>
+      </c>
+      <c r="D298" s="7">
+        <v>4693119.02779999</v>
+      </c>
+      <c r="E298" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F298" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G298" s="10"/>
+    </row>
+    <row r="299" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B299" s="6">
+        <v>11</v>
+      </c>
+      <c r="C299" s="7">
+        <v>7511860.8860999905</v>
+      </c>
+      <c r="D299" s="7">
+        <v>4693119.1064999904</v>
+      </c>
+      <c r="E299" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F299" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G299" s="10"/>
+    </row>
+    <row r="300" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B300" s="6">
+        <v>12</v>
+      </c>
+      <c r="C300" s="7">
+        <v>7511860.9845000003</v>
+      </c>
+      <c r="D300" s="7">
+        <v>4693119.3362999996</v>
+      </c>
+      <c r="E300" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F300" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G300" s="10"/>
+    </row>
+    <row r="301" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B301" s="6">
+        <v>13</v>
+      </c>
+      <c r="C301" s="7">
+        <v>7511860.6168</v>
+      </c>
+      <c r="D301" s="7">
+        <v>4693119.4936999902</v>
+      </c>
+      <c r="E301" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F301" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G301" s="10"/>
+    </row>
+    <row r="302" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B302" s="6">
+        <v>14</v>
+      </c>
+      <c r="C302" s="7">
+        <v>7511861.6672999896</v>
+      </c>
+      <c r="D302" s="7">
+        <v>4693121.9483000003</v>
+      </c>
+      <c r="E302" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F302" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G302" s="10"/>
+    </row>
+    <row r="303" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B303" s="6">
+        <v>15</v>
+      </c>
+      <c r="C303" s="7">
+        <v>7511862.0350000001</v>
+      </c>
+      <c r="D303" s="7">
+        <v>4693121.79099999</v>
+      </c>
+      <c r="E303" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F303" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G303" s="10"/>
+    </row>
+    <row r="304" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B304" s="6">
+        <v>16</v>
+      </c>
+      <c r="C304" s="7">
+        <v>7511863.6796000004</v>
+      </c>
+      <c r="D304" s="7">
+        <v>4693125.6338</v>
+      </c>
+      <c r="E304" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F304" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G304" s="10"/>
+    </row>
+    <row r="305" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B305" s="6">
+        <v>17</v>
+      </c>
+      <c r="C305" s="7">
+        <v>7511880.9173999904</v>
+      </c>
+      <c r="D305" s="7">
+        <v>4693118.2567999903</v>
+      </c>
+      <c r="E305" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F305" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G305" s="10"/>
+    </row>
+    <row r="306" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B306" s="6">
+        <v>18</v>
+      </c>
+      <c r="C306" s="7">
+        <v>7511878.7315999903</v>
+      </c>
+      <c r="D306" s="7">
+        <v>4693113.1493999902</v>
+      </c>
+      <c r="E306" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F306" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G306" s="10"/>
+    </row>
+    <row r="307" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B307" s="6">
+        <v>19</v>
+      </c>
+      <c r="C307" s="7">
+        <v>7511878.3914999897</v>
+      </c>
+      <c r="D307" s="7">
+        <v>4693113.2949999897</v>
+      </c>
+      <c r="E307" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F307" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G307" s="10"/>
+    </row>
+    <row r="308" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B308" s="6">
+        <v>20</v>
+      </c>
+      <c r="C308" s="7">
+        <v>7511876.5522999903</v>
+      </c>
+      <c r="D308" s="7">
+        <v>4693108.9973999998</v>
+      </c>
+      <c r="E308" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F308" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G308" s="10"/>
+    </row>
+    <row r="309" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B309" s="6">
+        <v>21</v>
+      </c>
+      <c r="C309" s="7">
+        <v>7511870.5888999896</v>
+      </c>
+      <c r="D309" s="7">
+        <v>4693141.2703</v>
+      </c>
+      <c r="E309" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F309" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G309" s="10"/>
+    </row>
+    <row r="310" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B310" s="6">
+        <v>22</v>
+      </c>
+      <c r="C310" s="7">
+        <v>7511867.1457000002</v>
+      </c>
+      <c r="D310" s="7">
+        <v>4693134.7495999997</v>
+      </c>
+      <c r="E310" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F310" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G310" s="10"/>
+    </row>
+    <row r="311" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B311" s="6">
+        <v>23</v>
+      </c>
+      <c r="C311" s="7">
+        <v>7511868.3261000002</v>
+      </c>
+      <c r="D311" s="7">
+        <v>4693137.5078999903</v>
+      </c>
+      <c r="E311" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F311" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G311" s="10"/>
+    </row>
+    <row r="312" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B312" s="6">
+        <v>24</v>
+      </c>
+      <c r="C312" s="7">
+        <v>7511868.6709000003</v>
+      </c>
+      <c r="D312" s="7">
+        <v>4693137.3603999997</v>
+      </c>
+      <c r="E312" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F312" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G312" s="10"/>
+    </row>
+    <row r="313" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B313" s="6">
+        <v>25</v>
+      </c>
+      <c r="C313" s="7">
+        <v>7511870.3821</v>
+      </c>
+      <c r="D313" s="7">
+        <v>4693141.3587999903</v>
+      </c>
+      <c r="E313" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F313" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G313" s="10"/>
+    </row>
+    <row r="314" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B314" s="6">
+        <v>26</v>
+      </c>
+      <c r="C314" s="7">
+        <v>7511871.8479000004</v>
+      </c>
+      <c r="D314" s="7">
+        <v>4693144.2122</v>
+      </c>
+      <c r="E314" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F314" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G314" s="10"/>
+    </row>
+    <row r="315" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B315" s="6">
+        <v>27</v>
+      </c>
+      <c r="C315" s="7">
+        <v>7511886.6259000003</v>
+      </c>
+      <c r="D315" s="7">
+        <v>4693132.6124</v>
+      </c>
+      <c r="E315" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F315" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G315" s="10"/>
+    </row>
+    <row r="316" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B316" s="6">
+        <v>28</v>
+      </c>
+      <c r="C316" s="7">
+        <v>7511886.9935999904</v>
+      </c>
+      <c r="D316" s="7">
+        <v>4693132.4550000001</v>
+      </c>
+      <c r="E316" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F316" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G316" s="10"/>
+    </row>
+    <row r="317" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B317" s="6">
+        <v>29</v>
+      </c>
+      <c r="C317" s="7">
+        <v>7511885.6558999904</v>
+      </c>
+      <c r="D317" s="7">
+        <v>4693129.3291999903</v>
+      </c>
+      <c r="E317" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F317" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G317" s="10"/>
+    </row>
+    <row r="318" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B318" s="6">
+        <v>30</v>
+      </c>
+      <c r="C318" s="7">
+        <v>7511884.1849999903</v>
+      </c>
+      <c r="D318" s="7">
+        <v>4693129.9586999901</v>
+      </c>
+      <c r="E318" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F318" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G318" s="10"/>
+    </row>
+    <row r="319" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B319" s="6">
+        <v>31</v>
+      </c>
+      <c r="C319" s="7">
+        <v>7511871.9463</v>
+      </c>
+      <c r="D319" s="7">
+        <v>4693144.4420999903</v>
+      </c>
+      <c r="E319" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F319" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G319" s="10"/>
+    </row>
+    <row r="320" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B320" s="6">
+        <v>32</v>
+      </c>
+      <c r="C320" s="7">
+        <v>7511871.2107999902</v>
+      </c>
+      <c r="D320" s="7">
+        <v>4693144.7567999903</v>
+      </c>
+      <c r="E320" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F320" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G320" s="10"/>
+    </row>
+    <row r="321" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B321" s="6">
+        <v>33</v>
+      </c>
+      <c r="C321" s="7">
+        <v>7511873.3158999896</v>
+      </c>
+      <c r="D321" s="7">
+        <v>4693149.6756999902</v>
+      </c>
+      <c r="E321" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F321" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G321" s="10"/>
+    </row>
+    <row r="322" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B322" s="6">
+        <v>34</v>
+      </c>
+      <c r="C322" s="7">
+        <v>7511873.5916999904</v>
+      </c>
+      <c r="D322" s="7">
+        <v>4693149.5576999998</v>
+      </c>
+      <c r="E322" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F322" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G322" s="10"/>
+    </row>
+    <row r="323" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B323" s="6">
+        <v>35</v>
+      </c>
+      <c r="C323" s="7">
+        <v>7511875.9522000002</v>
+      </c>
+      <c r="D323" s="7">
+        <v>4693155.0734000001</v>
+      </c>
+      <c r="E323" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F323" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G323" s="10"/>
+    </row>
+    <row r="324" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B324" s="6">
+        <v>36</v>
+      </c>
+      <c r="C324" s="7">
+        <v>7511893.3739</v>
+      </c>
+      <c r="D324" s="7">
+        <v>4693147.6175999902</v>
+      </c>
+      <c r="E324" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F324" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G324" s="10"/>
+    </row>
+    <row r="325" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B325" s="6">
+        <v>37</v>
+      </c>
+      <c r="C325" s="7">
+        <v>7511891.0133999903</v>
+      </c>
+      <c r="D325" s="7">
+        <v>4693142.1019000001</v>
+      </c>
+      <c r="E325" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F325" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G325" s="10"/>
+    </row>
+    <row r="326" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B326" s="6">
+        <v>38</v>
+      </c>
+      <c r="C326" s="7">
+        <v>7511891.2892000005</v>
+      </c>
+      <c r="D326" s="7">
+        <v>4693141.9838999901</v>
+      </c>
+      <c r="E326" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F326" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G326" s="10"/>
+    </row>
+    <row r="327" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B327" s="6">
+        <v>39</v>
+      </c>
+      <c r="C327" s="7">
+        <v>7511889.1841000002</v>
+      </c>
+      <c r="D327" s="7">
+        <v>4693137.0649999902</v>
+      </c>
+      <c r="E327" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F327" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G327" s="10"/>
+    </row>
+    <row r="328" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B328" s="6">
+        <v>40</v>
+      </c>
+      <c r="C328" s="7">
+        <v>7511888.6325000003</v>
+      </c>
+      <c r="D328" s="7">
+        <v>4693137.3010999998</v>
+      </c>
+      <c r="E328" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F328" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G328" s="10"/>
+    </row>
+    <row r="329" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B329" s="6">
+        <v>41</v>
+      </c>
+      <c r="C329" s="7">
+        <v>7511876.5050999904</v>
+      </c>
+      <c r="D329" s="7">
+        <v>4693108.8870999897</v>
+      </c>
+      <c r="E329" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F329" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G329" s="10"/>
+    </row>
+    <row r="330" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B330" s="6">
+        <v>42</v>
+      </c>
+      <c r="C330" s="7">
+        <v>7511877.0290999897</v>
+      </c>
+      <c r="D330" s="7">
+        <v>4693108.6627999898</v>
+      </c>
+      <c r="E330" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F330" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G330" s="10"/>
+    </row>
+    <row r="331" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B331" s="6">
+        <v>43</v>
+      </c>
+      <c r="C331" s="7">
+        <v>7511874.9239999903</v>
+      </c>
+      <c r="D331" s="7">
+        <v>4693103.7438999899</v>
+      </c>
+      <c r="E331" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F331" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G331" s="10"/>
+    </row>
+    <row r="332" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B332" s="6">
+        <v>44</v>
+      </c>
+      <c r="C332" s="7">
+        <v>7511874.6481999904</v>
+      </c>
+      <c r="D332" s="7">
+        <v>4693103.8619999904</v>
+      </c>
+      <c r="E332" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F332" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G332" s="10"/>
+    </row>
+    <row r="333" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B333" s="6">
+        <v>45</v>
+      </c>
+      <c r="C333" s="7">
+        <v>7511872.2877000002</v>
+      </c>
+      <c r="D333" s="7">
+        <v>4693098.3461999996</v>
+      </c>
+      <c r="E333" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F333" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G333" s="10"/>
+    </row>
+    <row r="334" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B334" s="6">
+        <v>46</v>
+      </c>
+      <c r="C334" s="7">
+        <v>7511854.8661000002</v>
+      </c>
+      <c r="D334" s="7">
+        <v>4693105.8019999899</v>
+      </c>
+      <c r="E334" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F334" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G334" s="10"/>
+    </row>
+    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B335" s="6">
+        <v>47</v>
+      </c>
+      <c r="C335" s="7">
+        <v>7511857.2265999904</v>
+      </c>
+      <c r="D335" s="7">
+        <v>4693111.3176999995</v>
+      </c>
+      <c r="E335" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F335" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G335" s="10"/>
+    </row>
+    <row r="336" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B336" s="6">
+        <v>48</v>
+      </c>
+      <c r="C336" s="7">
+        <v>7511856.9507999904</v>
+      </c>
+      <c r="D336" s="7">
+        <v>4693111.43569999</v>
+      </c>
+      <c r="E336" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F336" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G336" s="10"/>
+    </row>
+    <row r="337" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B337" s="6">
+        <v>49</v>
+      </c>
+      <c r="C337" s="7">
+        <v>7511859.1149000004</v>
+      </c>
+      <c r="D337" s="7">
+        <v>4693116.4924999904</v>
+      </c>
+      <c r="E337" s="7">
+        <v>637.92700000000002</v>
+      </c>
+      <c r="F337" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G337" s="10"/>
+    </row>
+    <row r="338" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B338" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C338" s="5">
+        <v>7511869.1087999996</v>
+      </c>
+      <c r="D338" s="5">
+        <v>4693143.5547000002</v>
+      </c>
+      <c r="E338" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F338" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G338" s="10"/>
+    </row>
+    <row r="339" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B339" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C339" s="5">
+        <v>7511858.3772</v>
+      </c>
+      <c r="D339" s="5">
+        <v>4693118.5031000003</v>
+      </c>
+      <c r="E339" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F339" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G339" s="11"/>
+    </row>
   </sheetData>
   <sortState ref="B1:D21">
     <sortCondition ref="B1"/>
   </sortState>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="G289:G339"/>
     <mergeCell ref="G236:G286"/>
     <mergeCell ref="G183:G233"/>
     <mergeCell ref="G130:G180"/>

--- a/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
+++ b/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="20">
   <si>
     <t>Nr</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Kati 5</t>
+  </si>
+  <si>
+    <t>Kati 6</t>
   </si>
 </sst>
 </file>
@@ -511,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J339"/>
+  <dimension ref="B2:J392"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="E319" sqref="E319"/>
+    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
+      <selection activeCell="I341" sqref="I341"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6454,7 +6457,7 @@
       </c>
       <c r="G336" s="10"/>
     </row>
-    <row r="337" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B337" s="6">
         <v>49</v>
       </c>
@@ -6472,7 +6475,7 @@
       </c>
       <c r="G337" s="10"/>
     </row>
-    <row r="338" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B338" s="4" t="s">
         <v>11</v>
       </c>
@@ -6490,7 +6493,7 @@
       </c>
       <c r="G338" s="10"/>
     </row>
-    <row r="339" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B339" s="4" t="s">
         <v>13</v>
       </c>
@@ -6507,21 +6510,963 @@
         <v>12</v>
       </c>
       <c r="G339" s="11"/>
+    </row>
+    <row r="341" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B341" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E341" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F341" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I341" s="8"/>
+    </row>
+    <row r="342" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B342" s="4">
+        <v>1</v>
+      </c>
+      <c r="C342" s="5">
+        <v>7511863.3491000002</v>
+      </c>
+      <c r="D342" s="5">
+        <v>4693125.8782000002</v>
+      </c>
+      <c r="E342" s="5">
+        <v>640.87700000000007</v>
+      </c>
+      <c r="F342" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G342" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="343" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B343" s="4">
+        <v>2</v>
+      </c>
+      <c r="C343" s="5">
+        <v>7511865.0015000002</v>
+      </c>
+      <c r="D343" s="5">
+        <v>4693129.7394999899</v>
+      </c>
+      <c r="E343" s="5">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F343" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G343" s="10"/>
+    </row>
+    <row r="344" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B344" s="4">
+        <v>3</v>
+      </c>
+      <c r="C344" s="5">
+        <v>7511866.4725000001</v>
+      </c>
+      <c r="D344" s="5">
+        <v>4693129.1098999903</v>
+      </c>
+      <c r="E344" s="5">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F344" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G344" s="10"/>
+    </row>
+    <row r="345" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B345" s="4">
+        <v>4</v>
+      </c>
+      <c r="C345" s="5">
+        <v>7511868.6166000003</v>
+      </c>
+      <c r="D345" s="5">
+        <v>4693134.1200999999</v>
+      </c>
+      <c r="E345" s="5">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F345" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G345" s="10"/>
+    </row>
+    <row r="346" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B346" s="4">
+        <v>5</v>
+      </c>
+      <c r="C346" s="5">
+        <v>7511883.3492000001</v>
+      </c>
+      <c r="D346" s="5">
+        <v>4693128.00589999</v>
+      </c>
+      <c r="E346" s="5">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F346" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G346" s="10"/>
+    </row>
+    <row r="347" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B347" s="4">
+        <v>6</v>
+      </c>
+      <c r="C347" s="5">
+        <v>7511881.0574000003</v>
+      </c>
+      <c r="D347" s="5">
+        <v>4693122.65059999</v>
+      </c>
+      <c r="E347" s="5">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F347" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G347" s="10"/>
+    </row>
+    <row r="348" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B348" s="4">
+        <v>7</v>
+      </c>
+      <c r="C348" s="5">
+        <v>7511882.5284000002</v>
+      </c>
+      <c r="D348" s="5">
+        <v>4693122.0210999902</v>
+      </c>
+      <c r="E348" s="5">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F348" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G348" s="10"/>
+    </row>
+    <row r="349" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B349" s="4">
+        <v>8</v>
+      </c>
+      <c r="C349" s="5">
+        <v>7511880.9545999896</v>
+      </c>
+      <c r="D349" s="5">
+        <v>4693118.3436999898</v>
+      </c>
+      <c r="E349" s="5">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F349" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G349" s="10"/>
+    </row>
+    <row r="350" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B350" s="6">
+        <v>9</v>
+      </c>
+      <c r="C350" s="7">
+        <v>7511859.8503</v>
+      </c>
+      <c r="D350" s="7">
+        <v>4693116.1777999904</v>
+      </c>
+      <c r="E350" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F350" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G350" s="10"/>
+    </row>
+    <row r="351" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B351" s="6">
+        <v>10</v>
+      </c>
+      <c r="C351" s="7">
+        <v>7511861.0700000003</v>
+      </c>
+      <c r="D351" s="7">
+        <v>4693119.02779999</v>
+      </c>
+      <c r="E351" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F351" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G351" s="10"/>
+    </row>
+    <row r="352" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B352" s="6">
+        <v>11</v>
+      </c>
+      <c r="C352" s="7">
+        <v>7511860.8860999905</v>
+      </c>
+      <c r="D352" s="7">
+        <v>4693119.1064999904</v>
+      </c>
+      <c r="E352" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F352" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G352" s="10"/>
+    </row>
+    <row r="353" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B353" s="6">
+        <v>12</v>
+      </c>
+      <c r="C353" s="7">
+        <v>7511860.9845000003</v>
+      </c>
+      <c r="D353" s="7">
+        <v>4693119.3362999996</v>
+      </c>
+      <c r="E353" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F353" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G353" s="10"/>
+    </row>
+    <row r="354" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B354" s="6">
+        <v>13</v>
+      </c>
+      <c r="C354" s="7">
+        <v>7511860.6168</v>
+      </c>
+      <c r="D354" s="7">
+        <v>4693119.4936999902</v>
+      </c>
+      <c r="E354" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F354" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G354" s="10"/>
+    </row>
+    <row r="355" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B355" s="6">
+        <v>14</v>
+      </c>
+      <c r="C355" s="7">
+        <v>7511861.6672999896</v>
+      </c>
+      <c r="D355" s="7">
+        <v>4693121.9483000003</v>
+      </c>
+      <c r="E355" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F355" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G355" s="10"/>
+    </row>
+    <row r="356" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B356" s="6">
+        <v>15</v>
+      </c>
+      <c r="C356" s="7">
+        <v>7511862.0350000001</v>
+      </c>
+      <c r="D356" s="7">
+        <v>4693121.79099999</v>
+      </c>
+      <c r="E356" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F356" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G356" s="10"/>
+    </row>
+    <row r="357" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B357" s="6">
+        <v>16</v>
+      </c>
+      <c r="C357" s="7">
+        <v>7511863.6796000004</v>
+      </c>
+      <c r="D357" s="7">
+        <v>4693125.6338</v>
+      </c>
+      <c r="E357" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F357" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G357" s="10"/>
+    </row>
+    <row r="358" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B358" s="6">
+        <v>17</v>
+      </c>
+      <c r="C358" s="7">
+        <v>7511880.9173999904</v>
+      </c>
+      <c r="D358" s="7">
+        <v>4693118.2567999903</v>
+      </c>
+      <c r="E358" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G358" s="10"/>
+    </row>
+    <row r="359" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B359" s="6">
+        <v>18</v>
+      </c>
+      <c r="C359" s="7">
+        <v>7511878.7315999903</v>
+      </c>
+      <c r="D359" s="7">
+        <v>4693113.1493999902</v>
+      </c>
+      <c r="E359" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F359" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G359" s="10"/>
+    </row>
+    <row r="360" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B360" s="6">
+        <v>19</v>
+      </c>
+      <c r="C360" s="7">
+        <v>7511878.3914999897</v>
+      </c>
+      <c r="D360" s="7">
+        <v>4693113.2949999897</v>
+      </c>
+      <c r="E360" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F360" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G360" s="10"/>
+    </row>
+    <row r="361" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B361" s="6">
+        <v>20</v>
+      </c>
+      <c r="C361" s="7">
+        <v>7511876.5522999903</v>
+      </c>
+      <c r="D361" s="7">
+        <v>4693108.9973999998</v>
+      </c>
+      <c r="E361" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F361" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G361" s="10"/>
+    </row>
+    <row r="362" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B362" s="6">
+        <v>21</v>
+      </c>
+      <c r="C362" s="7">
+        <v>7511870.5888999896</v>
+      </c>
+      <c r="D362" s="7">
+        <v>4693141.2703</v>
+      </c>
+      <c r="E362" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F362" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G362" s="10"/>
+    </row>
+    <row r="363" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B363" s="6">
+        <v>22</v>
+      </c>
+      <c r="C363" s="7">
+        <v>7511867.1457000002</v>
+      </c>
+      <c r="D363" s="7">
+        <v>4693134.7495999997</v>
+      </c>
+      <c r="E363" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F363" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G363" s="10"/>
+    </row>
+    <row r="364" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B364" s="6">
+        <v>23</v>
+      </c>
+      <c r="C364" s="7">
+        <v>7511868.3261000002</v>
+      </c>
+      <c r="D364" s="7">
+        <v>4693137.5078999903</v>
+      </c>
+      <c r="E364" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F364" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G364" s="10"/>
+    </row>
+    <row r="365" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B365" s="6">
+        <v>24</v>
+      </c>
+      <c r="C365" s="7">
+        <v>7511868.6709000003</v>
+      </c>
+      <c r="D365" s="7">
+        <v>4693137.3603999997</v>
+      </c>
+      <c r="E365" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F365" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G365" s="10"/>
+    </row>
+    <row r="366" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B366" s="6">
+        <v>25</v>
+      </c>
+      <c r="C366" s="7">
+        <v>7511870.3821</v>
+      </c>
+      <c r="D366" s="7">
+        <v>4693141.3587999903</v>
+      </c>
+      <c r="E366" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G366" s="10"/>
+    </row>
+    <row r="367" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B367" s="6">
+        <v>26</v>
+      </c>
+      <c r="C367" s="7">
+        <v>7511871.8479000004</v>
+      </c>
+      <c r="D367" s="7">
+        <v>4693144.2122</v>
+      </c>
+      <c r="E367" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F367" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G367" s="10"/>
+    </row>
+    <row r="368" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B368" s="6">
+        <v>27</v>
+      </c>
+      <c r="C368" s="7">
+        <v>7511886.6259000003</v>
+      </c>
+      <c r="D368" s="7">
+        <v>4693132.6124</v>
+      </c>
+      <c r="E368" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F368" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G368" s="10"/>
+    </row>
+    <row r="369" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B369" s="6">
+        <v>28</v>
+      </c>
+      <c r="C369" s="7">
+        <v>7511886.9935999904</v>
+      </c>
+      <c r="D369" s="7">
+        <v>4693132.4550000001</v>
+      </c>
+      <c r="E369" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F369" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G369" s="10"/>
+    </row>
+    <row r="370" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B370" s="6">
+        <v>29</v>
+      </c>
+      <c r="C370" s="7">
+        <v>7511885.6558999904</v>
+      </c>
+      <c r="D370" s="7">
+        <v>4693129.3291999903</v>
+      </c>
+      <c r="E370" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F370" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G370" s="10"/>
+    </row>
+    <row r="371" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B371" s="6">
+        <v>30</v>
+      </c>
+      <c r="C371" s="7">
+        <v>7511884.1849999903</v>
+      </c>
+      <c r="D371" s="7">
+        <v>4693129.9586999901</v>
+      </c>
+      <c r="E371" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F371" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G371" s="10"/>
+    </row>
+    <row r="372" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B372" s="6">
+        <v>31</v>
+      </c>
+      <c r="C372" s="7">
+        <v>7511871.9463</v>
+      </c>
+      <c r="D372" s="7">
+        <v>4693144.4420999903</v>
+      </c>
+      <c r="E372" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F372" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G372" s="10"/>
+    </row>
+    <row r="373" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B373" s="6">
+        <v>32</v>
+      </c>
+      <c r="C373" s="7">
+        <v>7511871.2107999902</v>
+      </c>
+      <c r="D373" s="7">
+        <v>4693144.7567999903</v>
+      </c>
+      <c r="E373" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F373" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G373" s="10"/>
+    </row>
+    <row r="374" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B374" s="6">
+        <v>33</v>
+      </c>
+      <c r="C374" s="7">
+        <v>7511873.3158999896</v>
+      </c>
+      <c r="D374" s="7">
+        <v>4693149.6756999902</v>
+      </c>
+      <c r="E374" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F374" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G374" s="10"/>
+    </row>
+    <row r="375" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B375" s="6">
+        <v>34</v>
+      </c>
+      <c r="C375" s="7">
+        <v>7511873.5916999904</v>
+      </c>
+      <c r="D375" s="7">
+        <v>4693149.5576999998</v>
+      </c>
+      <c r="E375" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F375" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G375" s="10"/>
+    </row>
+    <row r="376" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B376" s="6">
+        <v>35</v>
+      </c>
+      <c r="C376" s="7">
+        <v>7511875.9522000002</v>
+      </c>
+      <c r="D376" s="7">
+        <v>4693155.0734000001</v>
+      </c>
+      <c r="E376" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F376" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G376" s="10"/>
+    </row>
+    <row r="377" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B377" s="6">
+        <v>36</v>
+      </c>
+      <c r="C377" s="7">
+        <v>7511893.3739</v>
+      </c>
+      <c r="D377" s="7">
+        <v>4693147.6175999902</v>
+      </c>
+      <c r="E377" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F377" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G377" s="10"/>
+    </row>
+    <row r="378" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B378" s="6">
+        <v>37</v>
+      </c>
+      <c r="C378" s="7">
+        <v>7511891.0133999903</v>
+      </c>
+      <c r="D378" s="7">
+        <v>4693142.1019000001</v>
+      </c>
+      <c r="E378" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F378" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G378" s="10"/>
+    </row>
+    <row r="379" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B379" s="6">
+        <v>38</v>
+      </c>
+      <c r="C379" s="7">
+        <v>7511891.2892000005</v>
+      </c>
+      <c r="D379" s="7">
+        <v>4693141.9838999901</v>
+      </c>
+      <c r="E379" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F379" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G379" s="10"/>
+    </row>
+    <row r="380" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B380" s="6">
+        <v>39</v>
+      </c>
+      <c r="C380" s="7">
+        <v>7511889.1841000002</v>
+      </c>
+      <c r="D380" s="7">
+        <v>4693137.0649999902</v>
+      </c>
+      <c r="E380" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F380" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G380" s="10"/>
+    </row>
+    <row r="381" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B381" s="6">
+        <v>40</v>
+      </c>
+      <c r="C381" s="7">
+        <v>7511888.6325000003</v>
+      </c>
+      <c r="D381" s="7">
+        <v>4693137.3010999998</v>
+      </c>
+      <c r="E381" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F381" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G381" s="10"/>
+    </row>
+    <row r="382" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B382" s="6">
+        <v>41</v>
+      </c>
+      <c r="C382" s="7">
+        <v>7511876.5050999904</v>
+      </c>
+      <c r="D382" s="7">
+        <v>4693108.8870999897</v>
+      </c>
+      <c r="E382" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F382" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G382" s="10"/>
+    </row>
+    <row r="383" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B383" s="6">
+        <v>42</v>
+      </c>
+      <c r="C383" s="7">
+        <v>7511877.0290999897</v>
+      </c>
+      <c r="D383" s="7">
+        <v>4693108.6627999898</v>
+      </c>
+      <c r="E383" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F383" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G383" s="10"/>
+    </row>
+    <row r="384" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B384" s="6">
+        <v>43</v>
+      </c>
+      <c r="C384" s="7">
+        <v>7511874.9239999903</v>
+      </c>
+      <c r="D384" s="7">
+        <v>4693103.7438999899</v>
+      </c>
+      <c r="E384" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F384" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G384" s="10"/>
+    </row>
+    <row r="385" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B385" s="6">
+        <v>44</v>
+      </c>
+      <c r="C385" s="7">
+        <v>7511874.6481999904</v>
+      </c>
+      <c r="D385" s="7">
+        <v>4693103.8619999904</v>
+      </c>
+      <c r="E385" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F385" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G385" s="10"/>
+    </row>
+    <row r="386" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B386" s="6">
+        <v>45</v>
+      </c>
+      <c r="C386" s="7">
+        <v>7511872.2877000002</v>
+      </c>
+      <c r="D386" s="7">
+        <v>4693098.3461999996</v>
+      </c>
+      <c r="E386" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F386" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G386" s="10"/>
+    </row>
+    <row r="387" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B387" s="6">
+        <v>46</v>
+      </c>
+      <c r="C387" s="7">
+        <v>7511854.8661000002</v>
+      </c>
+      <c r="D387" s="7">
+        <v>4693105.8019999899</v>
+      </c>
+      <c r="E387" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F387" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G387" s="10"/>
+    </row>
+    <row r="388" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B388" s="6">
+        <v>47</v>
+      </c>
+      <c r="C388" s="7">
+        <v>7511857.2265999904</v>
+      </c>
+      <c r="D388" s="7">
+        <v>4693111.3176999995</v>
+      </c>
+      <c r="E388" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F388" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G388" s="10"/>
+    </row>
+    <row r="389" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B389" s="6">
+        <v>48</v>
+      </c>
+      <c r="C389" s="7">
+        <v>7511856.9507999904</v>
+      </c>
+      <c r="D389" s="7">
+        <v>4693111.43569999</v>
+      </c>
+      <c r="E389" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F389" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G389" s="10"/>
+    </row>
+    <row r="390" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B390" s="6">
+        <v>49</v>
+      </c>
+      <c r="C390" s="7">
+        <v>7511859.1149000004</v>
+      </c>
+      <c r="D390" s="7">
+        <v>4693116.4924999904</v>
+      </c>
+      <c r="E390" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F390" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G390" s="10"/>
+    </row>
+    <row r="391" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B391" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C391" s="5">
+        <v>7511869.1087999996</v>
+      </c>
+      <c r="D391" s="5">
+        <v>4693143.5547000002</v>
+      </c>
+      <c r="E391" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F391" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G391" s="10"/>
+    </row>
+    <row r="392" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B392" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C392" s="5">
+        <v>7511858.3772</v>
+      </c>
+      <c r="D392" s="5">
+        <v>4693118.5031000003</v>
+      </c>
+      <c r="E392" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F392" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G392" s="11"/>
     </row>
   </sheetData>
   <sortState ref="B1:D21">
     <sortCondition ref="B1"/>
   </sortState>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="E3:E10"/>
+    <mergeCell ref="G13:G20"/>
+    <mergeCell ref="G23:G73"/>
+    <mergeCell ref="G76:G126"/>
+    <mergeCell ref="G342:G392"/>
     <mergeCell ref="G289:G339"/>
     <mergeCell ref="G236:G286"/>
     <mergeCell ref="G183:G233"/>
     <mergeCell ref="G130:G180"/>
     <mergeCell ref="F3:F10"/>
-    <mergeCell ref="E3:E10"/>
-    <mergeCell ref="G13:G20"/>
-    <mergeCell ref="G23:G73"/>
-    <mergeCell ref="G76:G126"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
+++ b/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="21">
   <si>
     <t>Nr</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Kati 6</t>
+  </si>
+  <si>
+    <t>Kati 7</t>
   </si>
 </sst>
 </file>
@@ -514,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J392"/>
+  <dimension ref="B2:J446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="I341" sqref="I341"/>
+    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="I396" sqref="I396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7308,7 +7311,7 @@
       </c>
       <c r="G384" s="10"/>
     </row>
-    <row r="385" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B385" s="6">
         <v>44</v>
       </c>
@@ -7326,7 +7329,7 @@
       </c>
       <c r="G385" s="10"/>
     </row>
-    <row r="386" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B386" s="6">
         <v>45</v>
       </c>
@@ -7344,7 +7347,7 @@
       </c>
       <c r="G386" s="10"/>
     </row>
-    <row r="387" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B387" s="6">
         <v>46</v>
       </c>
@@ -7362,7 +7365,7 @@
       </c>
       <c r="G387" s="10"/>
     </row>
-    <row r="388" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B388" s="6">
         <v>47</v>
       </c>
@@ -7380,7 +7383,7 @@
       </c>
       <c r="G388" s="10"/>
     </row>
-    <row r="389" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B389" s="6">
         <v>48</v>
       </c>
@@ -7398,7 +7401,7 @@
       </c>
       <c r="G389" s="10"/>
     </row>
-    <row r="390" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B390" s="6">
         <v>49</v>
       </c>
@@ -7416,7 +7419,7 @@
       </c>
       <c r="G390" s="10"/>
     </row>
-    <row r="391" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B391" s="4" t="s">
         <v>11</v>
       </c>
@@ -7434,7 +7437,7 @@
       </c>
       <c r="G391" s="10"/>
     </row>
-    <row r="392" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B392" s="4" t="s">
         <v>13</v>
       </c>
@@ -7451,12 +7454,954 @@
         <v>12</v>
       </c>
       <c r="G392" s="11"/>
+    </row>
+    <row r="395" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B395" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C395" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E395" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F395" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G395" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="396" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B396" s="4">
+        <v>1</v>
+      </c>
+      <c r="C396" s="5">
+        <v>7511863.3491000002</v>
+      </c>
+      <c r="D396" s="5">
+        <v>4693125.8782000002</v>
+      </c>
+      <c r="E396" s="5">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F396" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G396" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I396" s="8"/>
+    </row>
+    <row r="397" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B397" s="4">
+        <v>2</v>
+      </c>
+      <c r="C397" s="5">
+        <v>7511865.0015000002</v>
+      </c>
+      <c r="D397" s="5">
+        <v>4693129.7394999899</v>
+      </c>
+      <c r="E397" s="5">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F397" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G397" s="10"/>
+    </row>
+    <row r="398" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B398" s="4">
+        <v>3</v>
+      </c>
+      <c r="C398" s="5">
+        <v>7511866.4725000001</v>
+      </c>
+      <c r="D398" s="5">
+        <v>4693129.1098999903</v>
+      </c>
+      <c r="E398" s="5">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F398" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G398" s="10"/>
+    </row>
+    <row r="399" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B399" s="4">
+        <v>4</v>
+      </c>
+      <c r="C399" s="5">
+        <v>7511868.6166000003</v>
+      </c>
+      <c r="D399" s="5">
+        <v>4693134.1200999999</v>
+      </c>
+      <c r="E399" s="5">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F399" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G399" s="10"/>
+    </row>
+    <row r="400" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B400" s="4">
+        <v>5</v>
+      </c>
+      <c r="C400" s="5">
+        <v>7511883.3492000001</v>
+      </c>
+      <c r="D400" s="5">
+        <v>4693128.00589999</v>
+      </c>
+      <c r="E400" s="5">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F400" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G400" s="10"/>
+    </row>
+    <row r="401" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B401" s="4">
+        <v>6</v>
+      </c>
+      <c r="C401" s="5">
+        <v>7511881.0574000003</v>
+      </c>
+      <c r="D401" s="5">
+        <v>4693122.65059999</v>
+      </c>
+      <c r="E401" s="5">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F401" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G401" s="10"/>
+    </row>
+    <row r="402" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B402" s="4">
+        <v>7</v>
+      </c>
+      <c r="C402" s="5">
+        <v>7511882.5284000002</v>
+      </c>
+      <c r="D402" s="5">
+        <v>4693122.0210999902</v>
+      </c>
+      <c r="E402" s="5">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F402" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G402" s="10"/>
+    </row>
+    <row r="403" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B403" s="4">
+        <v>8</v>
+      </c>
+      <c r="C403" s="5">
+        <v>7511880.9545999896</v>
+      </c>
+      <c r="D403" s="5">
+        <v>4693118.3436999898</v>
+      </c>
+      <c r="E403" s="5">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F403" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G403" s="10"/>
+    </row>
+    <row r="404" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B404" s="6">
+        <v>9</v>
+      </c>
+      <c r="C404" s="7">
+        <v>7511859.8503</v>
+      </c>
+      <c r="D404" s="7">
+        <v>4693116.1777999904</v>
+      </c>
+      <c r="E404" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F404" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G404" s="10"/>
+    </row>
+    <row r="405" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B405" s="6">
+        <v>10</v>
+      </c>
+      <c r="C405" s="7">
+        <v>7511861.0700000003</v>
+      </c>
+      <c r="D405" s="7">
+        <v>4693119.02779999</v>
+      </c>
+      <c r="E405" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F405" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G405" s="10"/>
+    </row>
+    <row r="406" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B406" s="6">
+        <v>11</v>
+      </c>
+      <c r="C406" s="7">
+        <v>7511860.8860999905</v>
+      </c>
+      <c r="D406" s="7">
+        <v>4693119.1064999904</v>
+      </c>
+      <c r="E406" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F406" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G406" s="10"/>
+    </row>
+    <row r="407" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B407" s="6">
+        <v>12</v>
+      </c>
+      <c r="C407" s="7">
+        <v>7511860.9845000003</v>
+      </c>
+      <c r="D407" s="7">
+        <v>4693119.3362999996</v>
+      </c>
+      <c r="E407" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F407" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G407" s="10"/>
+    </row>
+    <row r="408" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B408" s="6">
+        <v>13</v>
+      </c>
+      <c r="C408" s="7">
+        <v>7511860.6168</v>
+      </c>
+      <c r="D408" s="7">
+        <v>4693119.4936999902</v>
+      </c>
+      <c r="E408" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F408" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G408" s="10"/>
+    </row>
+    <row r="409" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B409" s="6">
+        <v>14</v>
+      </c>
+      <c r="C409" s="7">
+        <v>7511861.6672999896</v>
+      </c>
+      <c r="D409" s="7">
+        <v>4693121.9483000003</v>
+      </c>
+      <c r="E409" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F409" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G409" s="10"/>
+    </row>
+    <row r="410" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B410" s="6">
+        <v>15</v>
+      </c>
+      <c r="C410" s="7">
+        <v>7511862.0350000001</v>
+      </c>
+      <c r="D410" s="7">
+        <v>4693121.79099999</v>
+      </c>
+      <c r="E410" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F410" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G410" s="10"/>
+    </row>
+    <row r="411" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B411" s="6">
+        <v>16</v>
+      </c>
+      <c r="C411" s="7">
+        <v>7511863.6796000004</v>
+      </c>
+      <c r="D411" s="7">
+        <v>4693125.6338</v>
+      </c>
+      <c r="E411" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F411" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G411" s="10"/>
+    </row>
+    <row r="412" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B412" s="6">
+        <v>17</v>
+      </c>
+      <c r="C412" s="7">
+        <v>7511880.9173999904</v>
+      </c>
+      <c r="D412" s="7">
+        <v>4693118.2567999903</v>
+      </c>
+      <c r="E412" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F412" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G412" s="10"/>
+    </row>
+    <row r="413" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B413" s="6">
+        <v>18</v>
+      </c>
+      <c r="C413" s="7">
+        <v>7511878.7315999903</v>
+      </c>
+      <c r="D413" s="7">
+        <v>4693113.1493999902</v>
+      </c>
+      <c r="E413" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F413" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G413" s="10"/>
+    </row>
+    <row r="414" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B414" s="6">
+        <v>19</v>
+      </c>
+      <c r="C414" s="7">
+        <v>7511878.3914999897</v>
+      </c>
+      <c r="D414" s="7">
+        <v>4693113.2949999897</v>
+      </c>
+      <c r="E414" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F414" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G414" s="10"/>
+    </row>
+    <row r="415" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B415" s="6">
+        <v>20</v>
+      </c>
+      <c r="C415" s="7">
+        <v>7511876.5522999903</v>
+      </c>
+      <c r="D415" s="7">
+        <v>4693108.9973999998</v>
+      </c>
+      <c r="E415" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F415" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G415" s="10"/>
+    </row>
+    <row r="416" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B416" s="6">
+        <v>21</v>
+      </c>
+      <c r="C416" s="7">
+        <v>7511870.5888999896</v>
+      </c>
+      <c r="D416" s="7">
+        <v>4693141.2703</v>
+      </c>
+      <c r="E416" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F416" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G416" s="10"/>
+    </row>
+    <row r="417" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B417" s="6">
+        <v>22</v>
+      </c>
+      <c r="C417" s="7">
+        <v>7511867.1457000002</v>
+      </c>
+      <c r="D417" s="7">
+        <v>4693134.7495999997</v>
+      </c>
+      <c r="E417" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F417" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G417" s="10"/>
+    </row>
+    <row r="418" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B418" s="6">
+        <v>23</v>
+      </c>
+      <c r="C418" s="7">
+        <v>7511868.3261000002</v>
+      </c>
+      <c r="D418" s="7">
+        <v>4693137.5078999903</v>
+      </c>
+      <c r="E418" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F418" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G418" s="10"/>
+    </row>
+    <row r="419" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B419" s="6">
+        <v>24</v>
+      </c>
+      <c r="C419" s="7">
+        <v>7511868.6709000003</v>
+      </c>
+      <c r="D419" s="7">
+        <v>4693137.3603999997</v>
+      </c>
+      <c r="E419" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F419" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G419" s="10"/>
+    </row>
+    <row r="420" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B420" s="6">
+        <v>25</v>
+      </c>
+      <c r="C420" s="7">
+        <v>7511870.3821</v>
+      </c>
+      <c r="D420" s="7">
+        <v>4693141.3587999903</v>
+      </c>
+      <c r="E420" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F420" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G420" s="10"/>
+    </row>
+    <row r="421" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B421" s="6">
+        <v>26</v>
+      </c>
+      <c r="C421" s="7">
+        <v>7511871.8479000004</v>
+      </c>
+      <c r="D421" s="7">
+        <v>4693144.2122</v>
+      </c>
+      <c r="E421" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F421" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G421" s="10"/>
+    </row>
+    <row r="422" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B422" s="6">
+        <v>27</v>
+      </c>
+      <c r="C422" s="7">
+        <v>7511886.6259000003</v>
+      </c>
+      <c r="D422" s="7">
+        <v>4693132.6124</v>
+      </c>
+      <c r="E422" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F422" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G422" s="10"/>
+    </row>
+    <row r="423" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B423" s="6">
+        <v>28</v>
+      </c>
+      <c r="C423" s="7">
+        <v>7511886.9935999904</v>
+      </c>
+      <c r="D423" s="7">
+        <v>4693132.4550000001</v>
+      </c>
+      <c r="E423" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F423" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G423" s="10"/>
+    </row>
+    <row r="424" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B424" s="6">
+        <v>29</v>
+      </c>
+      <c r="C424" s="7">
+        <v>7511885.6558999904</v>
+      </c>
+      <c r="D424" s="7">
+        <v>4693129.3291999903</v>
+      </c>
+      <c r="E424" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F424" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G424" s="10"/>
+    </row>
+    <row r="425" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B425" s="6">
+        <v>30</v>
+      </c>
+      <c r="C425" s="7">
+        <v>7511884.1849999903</v>
+      </c>
+      <c r="D425" s="7">
+        <v>4693129.9586999901</v>
+      </c>
+      <c r="E425" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F425" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G425" s="10"/>
+    </row>
+    <row r="426" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B426" s="6">
+        <v>31</v>
+      </c>
+      <c r="C426" s="7">
+        <v>7511871.9463</v>
+      </c>
+      <c r="D426" s="7">
+        <v>4693144.4420999903</v>
+      </c>
+      <c r="E426" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F426" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G426" s="10"/>
+    </row>
+    <row r="427" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B427" s="6">
+        <v>32</v>
+      </c>
+      <c r="C427" s="7">
+        <v>7511871.2107999902</v>
+      </c>
+      <c r="D427" s="7">
+        <v>4693144.7567999903</v>
+      </c>
+      <c r="E427" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F427" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G427" s="10"/>
+    </row>
+    <row r="428" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B428" s="6">
+        <v>33</v>
+      </c>
+      <c r="C428" s="7">
+        <v>7511873.3158999896</v>
+      </c>
+      <c r="D428" s="7">
+        <v>4693149.6756999902</v>
+      </c>
+      <c r="E428" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F428" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G428" s="10"/>
+    </row>
+    <row r="429" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B429" s="6">
+        <v>34</v>
+      </c>
+      <c r="C429" s="7">
+        <v>7511873.5916999904</v>
+      </c>
+      <c r="D429" s="7">
+        <v>4693149.5576999998</v>
+      </c>
+      <c r="E429" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F429" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G429" s="10"/>
+    </row>
+    <row r="430" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B430" s="6">
+        <v>35</v>
+      </c>
+      <c r="C430" s="7">
+        <v>7511875.9522000002</v>
+      </c>
+      <c r="D430" s="7">
+        <v>4693155.0734000001</v>
+      </c>
+      <c r="E430" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F430" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G430" s="10"/>
+    </row>
+    <row r="431" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B431" s="6">
+        <v>36</v>
+      </c>
+      <c r="C431" s="7">
+        <v>7511893.3739</v>
+      </c>
+      <c r="D431" s="7">
+        <v>4693147.6175999902</v>
+      </c>
+      <c r="E431" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F431" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G431" s="10"/>
+    </row>
+    <row r="432" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B432" s="6">
+        <v>37</v>
+      </c>
+      <c r="C432" s="7">
+        <v>7511891.0133999903</v>
+      </c>
+      <c r="D432" s="7">
+        <v>4693142.1019000001</v>
+      </c>
+      <c r="E432" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F432" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G432" s="10"/>
+    </row>
+    <row r="433" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B433" s="6">
+        <v>38</v>
+      </c>
+      <c r="C433" s="7">
+        <v>7511891.2892000005</v>
+      </c>
+      <c r="D433" s="7">
+        <v>4693141.9838999901</v>
+      </c>
+      <c r="E433" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F433" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G433" s="10"/>
+    </row>
+    <row r="434" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B434" s="6">
+        <v>39</v>
+      </c>
+      <c r="C434" s="7">
+        <v>7511889.1841000002</v>
+      </c>
+      <c r="D434" s="7">
+        <v>4693137.0649999902</v>
+      </c>
+      <c r="E434" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F434" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G434" s="10"/>
+    </row>
+    <row r="435" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B435" s="6">
+        <v>40</v>
+      </c>
+      <c r="C435" s="7">
+        <v>7511888.6325000003</v>
+      </c>
+      <c r="D435" s="7">
+        <v>4693137.3010999998</v>
+      </c>
+      <c r="E435" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F435" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G435" s="10"/>
+    </row>
+    <row r="436" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B436" s="6">
+        <v>41</v>
+      </c>
+      <c r="C436" s="7">
+        <v>7511876.5050999904</v>
+      </c>
+      <c r="D436" s="7">
+        <v>4693108.8870999897</v>
+      </c>
+      <c r="E436" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F436" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G436" s="10"/>
+    </row>
+    <row r="437" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B437" s="6">
+        <v>42</v>
+      </c>
+      <c r="C437" s="7">
+        <v>7511877.0290999897</v>
+      </c>
+      <c r="D437" s="7">
+        <v>4693108.6627999898</v>
+      </c>
+      <c r="E437" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F437" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G437" s="10"/>
+    </row>
+    <row r="438" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B438" s="6">
+        <v>43</v>
+      </c>
+      <c r="C438" s="7">
+        <v>7511874.9239999903</v>
+      </c>
+      <c r="D438" s="7">
+        <v>4693103.7438999899</v>
+      </c>
+      <c r="E438" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F438" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G438" s="10"/>
+    </row>
+    <row r="439" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B439" s="6">
+        <v>44</v>
+      </c>
+      <c r="C439" s="7">
+        <v>7511874.6481999904</v>
+      </c>
+      <c r="D439" s="7">
+        <v>4693103.8619999904</v>
+      </c>
+      <c r="E439" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F439" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G439" s="10"/>
+    </row>
+    <row r="440" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B440" s="6">
+        <v>45</v>
+      </c>
+      <c r="C440" s="7">
+        <v>7511872.2877000002</v>
+      </c>
+      <c r="D440" s="7">
+        <v>4693098.3461999996</v>
+      </c>
+      <c r="E440" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F440" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G440" s="10"/>
+    </row>
+    <row r="441" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B441" s="6">
+        <v>46</v>
+      </c>
+      <c r="C441" s="7">
+        <v>7511854.8661000002</v>
+      </c>
+      <c r="D441" s="7">
+        <v>4693105.8019999899</v>
+      </c>
+      <c r="E441" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F441" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G441" s="10"/>
+    </row>
+    <row r="442" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B442" s="6">
+        <v>47</v>
+      </c>
+      <c r="C442" s="7">
+        <v>7511857.2265999904</v>
+      </c>
+      <c r="D442" s="7">
+        <v>4693111.3176999995</v>
+      </c>
+      <c r="E442" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F442" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G442" s="10"/>
+    </row>
+    <row r="443" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B443" s="6">
+        <v>48</v>
+      </c>
+      <c r="C443" s="7">
+        <v>7511856.9507999904</v>
+      </c>
+      <c r="D443" s="7">
+        <v>4693111.43569999</v>
+      </c>
+      <c r="E443" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F443" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G443" s="10"/>
+    </row>
+    <row r="444" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B444" s="6">
+        <v>49</v>
+      </c>
+      <c r="C444" s="7">
+        <v>7511859.1149000004</v>
+      </c>
+      <c r="D444" s="7">
+        <v>4693116.4924999904</v>
+      </c>
+      <c r="E444" s="7">
+        <v>643.82700000000011</v>
+      </c>
+      <c r="F444" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G444" s="10"/>
+    </row>
+    <row r="445" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B445" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C445" s="5">
+        <v>7511869.1087999996</v>
+      </c>
+      <c r="D445" s="5">
+        <v>4693143.5547000002</v>
+      </c>
+      <c r="E445" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F445" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G445" s="10"/>
+    </row>
+    <row r="446" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B446" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C446" s="5">
+        <v>7511858.3772</v>
+      </c>
+      <c r="D446" s="5">
+        <v>4693118.5031000003</v>
+      </c>
+      <c r="E446" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F446" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G446" s="11"/>
     </row>
   </sheetData>
   <sortState ref="B1:D21">
     <sortCondition ref="B1"/>
   </sortState>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="G396:G446"/>
     <mergeCell ref="E3:E10"/>
     <mergeCell ref="G13:G20"/>
     <mergeCell ref="G23:G73"/>

--- a/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
+++ b/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="23">
   <si>
     <t>Nr</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>Kati 7</t>
+  </si>
+  <si>
+    <t>Kati 8</t>
+  </si>
+  <si>
+    <t>Kati 9</t>
   </si>
 </sst>
 </file>
@@ -517,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J446"/>
+  <dimension ref="B2:J552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="I396" sqref="I396"/>
+    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
+      <selection activeCell="I502" sqref="I502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7486,7 +7492,7 @@
         <v>4693125.8782000002</v>
       </c>
       <c r="E396" s="5">
-        <v>643.82700000000011</v>
+        <v>646.77700000000004</v>
       </c>
       <c r="F396" s="4" t="s">
         <v>8</v>
@@ -7507,7 +7513,7 @@
         <v>4693129.7394999899</v>
       </c>
       <c r="E397" s="5">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F397" s="4" t="s">
         <v>8</v>
@@ -7525,7 +7531,7 @@
         <v>4693129.1098999903</v>
       </c>
       <c r="E398" s="5">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F398" s="4" t="s">
         <v>8</v>
@@ -7543,7 +7549,7 @@
         <v>4693134.1200999999</v>
       </c>
       <c r="E399" s="5">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F399" s="4" t="s">
         <v>8</v>
@@ -7561,7 +7567,7 @@
         <v>4693128.00589999</v>
       </c>
       <c r="E400" s="5">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F400" s="4" t="s">
         <v>8</v>
@@ -7579,7 +7585,7 @@
         <v>4693122.65059999</v>
       </c>
       <c r="E401" s="5">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F401" s="4" t="s">
         <v>8</v>
@@ -7597,7 +7603,7 @@
         <v>4693122.0210999902</v>
       </c>
       <c r="E402" s="5">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F402" s="4" t="s">
         <v>8</v>
@@ -7615,7 +7621,7 @@
         <v>4693118.3436999898</v>
       </c>
       <c r="E403" s="5">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F403" s="5" t="s">
         <v>8</v>
@@ -7633,7 +7639,7 @@
         <v>4693116.1777999904</v>
       </c>
       <c r="E404" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F404" s="5" t="s">
         <v>8</v>
@@ -7651,7 +7657,7 @@
         <v>4693119.02779999</v>
       </c>
       <c r="E405" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F405" s="5" t="s">
         <v>8</v>
@@ -7669,7 +7675,7 @@
         <v>4693119.1064999904</v>
       </c>
       <c r="E406" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F406" s="5" t="s">
         <v>8</v>
@@ -7687,7 +7693,7 @@
         <v>4693119.3362999996</v>
       </c>
       <c r="E407" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F407" s="5" t="s">
         <v>8</v>
@@ -7705,7 +7711,7 @@
         <v>4693119.4936999902</v>
       </c>
       <c r="E408" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F408" s="5" t="s">
         <v>8</v>
@@ -7723,7 +7729,7 @@
         <v>4693121.9483000003</v>
       </c>
       <c r="E409" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F409" s="5" t="s">
         <v>8</v>
@@ -7741,7 +7747,7 @@
         <v>4693121.79099999</v>
       </c>
       <c r="E410" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F410" s="5" t="s">
         <v>8</v>
@@ -7759,7 +7765,7 @@
         <v>4693125.6338</v>
       </c>
       <c r="E411" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F411" s="5" t="s">
         <v>8</v>
@@ -7777,7 +7783,7 @@
         <v>4693118.2567999903</v>
       </c>
       <c r="E412" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F412" s="5" t="s">
         <v>8</v>
@@ -7795,7 +7801,7 @@
         <v>4693113.1493999902</v>
       </c>
       <c r="E413" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F413" s="5" t="s">
         <v>8</v>
@@ -7813,7 +7819,7 @@
         <v>4693113.2949999897</v>
       </c>
       <c r="E414" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F414" s="5" t="s">
         <v>8</v>
@@ -7831,7 +7837,7 @@
         <v>4693108.9973999998</v>
       </c>
       <c r="E415" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F415" s="5" t="s">
         <v>8</v>
@@ -7849,7 +7855,7 @@
         <v>4693141.2703</v>
       </c>
       <c r="E416" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F416" s="5" t="s">
         <v>8</v>
@@ -7867,7 +7873,7 @@
         <v>4693134.7495999997</v>
       </c>
       <c r="E417" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F417" s="5" t="s">
         <v>8</v>
@@ -7885,7 +7891,7 @@
         <v>4693137.5078999903</v>
       </c>
       <c r="E418" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F418" s="5" t="s">
         <v>8</v>
@@ -7903,7 +7909,7 @@
         <v>4693137.3603999997</v>
       </c>
       <c r="E419" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F419" s="5" t="s">
         <v>8</v>
@@ -7921,7 +7927,7 @@
         <v>4693141.3587999903</v>
       </c>
       <c r="E420" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F420" s="5" t="s">
         <v>8</v>
@@ -7939,7 +7945,7 @@
         <v>4693144.2122</v>
       </c>
       <c r="E421" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F421" s="5" t="s">
         <v>8</v>
@@ -7957,7 +7963,7 @@
         <v>4693132.6124</v>
       </c>
       <c r="E422" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F422" s="5" t="s">
         <v>8</v>
@@ -7975,7 +7981,7 @@
         <v>4693132.4550000001</v>
       </c>
       <c r="E423" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F423" s="5" t="s">
         <v>8</v>
@@ -7993,7 +7999,7 @@
         <v>4693129.3291999903</v>
       </c>
       <c r="E424" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F424" s="5" t="s">
         <v>8</v>
@@ -8011,7 +8017,7 @@
         <v>4693129.9586999901</v>
       </c>
       <c r="E425" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F425" s="5" t="s">
         <v>8</v>
@@ -8029,7 +8035,7 @@
         <v>4693144.4420999903</v>
       </c>
       <c r="E426" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F426" s="5" t="s">
         <v>8</v>
@@ -8047,7 +8053,7 @@
         <v>4693144.7567999903</v>
       </c>
       <c r="E427" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F427" s="5" t="s">
         <v>8</v>
@@ -8065,7 +8071,7 @@
         <v>4693149.6756999902</v>
       </c>
       <c r="E428" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F428" s="5" t="s">
         <v>8</v>
@@ -8083,7 +8089,7 @@
         <v>4693149.5576999998</v>
       </c>
       <c r="E429" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F429" s="5" t="s">
         <v>8</v>
@@ -8101,7 +8107,7 @@
         <v>4693155.0734000001</v>
       </c>
       <c r="E430" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F430" s="5" t="s">
         <v>8</v>
@@ -8119,7 +8125,7 @@
         <v>4693147.6175999902</v>
       </c>
       <c r="E431" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F431" s="5" t="s">
         <v>8</v>
@@ -8137,7 +8143,7 @@
         <v>4693142.1019000001</v>
       </c>
       <c r="E432" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F432" s="5" t="s">
         <v>8</v>
@@ -8155,7 +8161,7 @@
         <v>4693141.9838999901</v>
       </c>
       <c r="E433" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F433" s="5" t="s">
         <v>8</v>
@@ -8173,7 +8179,7 @@
         <v>4693137.0649999902</v>
       </c>
       <c r="E434" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F434" s="5" t="s">
         <v>8</v>
@@ -8191,7 +8197,7 @@
         <v>4693137.3010999998</v>
       </c>
       <c r="E435" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F435" s="5" t="s">
         <v>8</v>
@@ -8209,7 +8215,7 @@
         <v>4693108.8870999897</v>
       </c>
       <c r="E436" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F436" s="5" t="s">
         <v>8</v>
@@ -8227,7 +8233,7 @@
         <v>4693108.6627999898</v>
       </c>
       <c r="E437" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F437" s="5" t="s">
         <v>8</v>
@@ -8245,7 +8251,7 @@
         <v>4693103.7438999899</v>
       </c>
       <c r="E438" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F438" s="5" t="s">
         <v>8</v>
@@ -8263,7 +8269,7 @@
         <v>4693103.8619999904</v>
       </c>
       <c r="E439" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F439" s="5" t="s">
         <v>8</v>
@@ -8281,7 +8287,7 @@
         <v>4693098.3461999996</v>
       </c>
       <c r="E440" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F440" s="5" t="s">
         <v>8</v>
@@ -8299,7 +8305,7 @@
         <v>4693105.8019999899</v>
       </c>
       <c r="E441" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F441" s="5" t="s">
         <v>8</v>
@@ -8317,7 +8323,7 @@
         <v>4693111.3176999995</v>
       </c>
       <c r="E442" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F442" s="5" t="s">
         <v>8</v>
@@ -8335,7 +8341,7 @@
         <v>4693111.43569999</v>
       </c>
       <c r="E443" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F443" s="5" t="s">
         <v>8</v>
@@ -8353,7 +8359,7 @@
         <v>4693116.4924999904</v>
       </c>
       <c r="E444" s="7">
-        <v>643.82700000000011</v>
+        <v>646.77700000000016</v>
       </c>
       <c r="F444" s="5" t="s">
         <v>8</v>
@@ -8395,13 +8401,1897 @@
         <v>12</v>
       </c>
       <c r="G446" s="11"/>
+    </row>
+    <row r="448" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B448" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C448" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E448" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F448" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G448" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B449" s="4">
+        <v>1</v>
+      </c>
+      <c r="C449" s="5">
+        <v>7511863.3491000002</v>
+      </c>
+      <c r="D449" s="5">
+        <v>4693125.8782000002</v>
+      </c>
+      <c r="E449" s="5">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F449" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G449" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I449" s="8"/>
+    </row>
+    <row r="450" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B450" s="4">
+        <v>2</v>
+      </c>
+      <c r="C450" s="5">
+        <v>7511865.0015000002</v>
+      </c>
+      <c r="D450" s="5">
+        <v>4693129.7394999899</v>
+      </c>
+      <c r="E450" s="5">
+        <v>649.72699999999998</v>
+      </c>
+      <c r="F450" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G450" s="10"/>
+    </row>
+    <row r="451" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B451" s="4">
+        <v>3</v>
+      </c>
+      <c r="C451" s="5">
+        <v>7511866.4725000001</v>
+      </c>
+      <c r="D451" s="5">
+        <v>4693129.1098999903</v>
+      </c>
+      <c r="E451" s="5">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F451" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G451" s="10"/>
+    </row>
+    <row r="452" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B452" s="4">
+        <v>4</v>
+      </c>
+      <c r="C452" s="5">
+        <v>7511868.6166000003</v>
+      </c>
+      <c r="D452" s="5">
+        <v>4693134.1200999999</v>
+      </c>
+      <c r="E452" s="5">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F452" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G452" s="10"/>
+    </row>
+    <row r="453" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B453" s="4">
+        <v>5</v>
+      </c>
+      <c r="C453" s="5">
+        <v>7511883.3492000001</v>
+      </c>
+      <c r="D453" s="5">
+        <v>4693128.00589999</v>
+      </c>
+      <c r="E453" s="5">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F453" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G453" s="10"/>
+    </row>
+    <row r="454" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B454" s="4">
+        <v>6</v>
+      </c>
+      <c r="C454" s="5">
+        <v>7511881.0574000003</v>
+      </c>
+      <c r="D454" s="5">
+        <v>4693122.65059999</v>
+      </c>
+      <c r="E454" s="5">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F454" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G454" s="10"/>
+    </row>
+    <row r="455" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B455" s="4">
+        <v>7</v>
+      </c>
+      <c r="C455" s="5">
+        <v>7511882.5284000002</v>
+      </c>
+      <c r="D455" s="5">
+        <v>4693122.0210999902</v>
+      </c>
+      <c r="E455" s="5">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F455" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G455" s="10"/>
+    </row>
+    <row r="456" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B456" s="4">
+        <v>8</v>
+      </c>
+      <c r="C456" s="5">
+        <v>7511880.9545999896</v>
+      </c>
+      <c r="D456" s="5">
+        <v>4693118.3436999898</v>
+      </c>
+      <c r="E456" s="5">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F456" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G456" s="10"/>
+    </row>
+    <row r="457" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B457" s="6">
+        <v>9</v>
+      </c>
+      <c r="C457" s="7">
+        <v>7511859.8503</v>
+      </c>
+      <c r="D457" s="7">
+        <v>4693116.1777999904</v>
+      </c>
+      <c r="E457" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F457" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G457" s="10"/>
+    </row>
+    <row r="458" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B458" s="6">
+        <v>10</v>
+      </c>
+      <c r="C458" s="7">
+        <v>7511861.0700000003</v>
+      </c>
+      <c r="D458" s="7">
+        <v>4693119.02779999</v>
+      </c>
+      <c r="E458" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F458" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G458" s="10"/>
+    </row>
+    <row r="459" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B459" s="6">
+        <v>11</v>
+      </c>
+      <c r="C459" s="7">
+        <v>7511860.8860999905</v>
+      </c>
+      <c r="D459" s="7">
+        <v>4693119.1064999904</v>
+      </c>
+      <c r="E459" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F459" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G459" s="10"/>
+    </row>
+    <row r="460" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B460" s="6">
+        <v>12</v>
+      </c>
+      <c r="C460" s="7">
+        <v>7511860.9845000003</v>
+      </c>
+      <c r="D460" s="7">
+        <v>4693119.3362999996</v>
+      </c>
+      <c r="E460" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F460" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G460" s="10"/>
+    </row>
+    <row r="461" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B461" s="6">
+        <v>13</v>
+      </c>
+      <c r="C461" s="7">
+        <v>7511860.6168</v>
+      </c>
+      <c r="D461" s="7">
+        <v>4693119.4936999902</v>
+      </c>
+      <c r="E461" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F461" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G461" s="10"/>
+    </row>
+    <row r="462" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B462" s="6">
+        <v>14</v>
+      </c>
+      <c r="C462" s="7">
+        <v>7511861.6672999896</v>
+      </c>
+      <c r="D462" s="7">
+        <v>4693121.9483000003</v>
+      </c>
+      <c r="E462" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F462" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G462" s="10"/>
+    </row>
+    <row r="463" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B463" s="6">
+        <v>15</v>
+      </c>
+      <c r="C463" s="7">
+        <v>7511862.0350000001</v>
+      </c>
+      <c r="D463" s="7">
+        <v>4693121.79099999</v>
+      </c>
+      <c r="E463" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F463" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G463" s="10"/>
+    </row>
+    <row r="464" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B464" s="6">
+        <v>16</v>
+      </c>
+      <c r="C464" s="7">
+        <v>7511863.6796000004</v>
+      </c>
+      <c r="D464" s="7">
+        <v>4693125.6338</v>
+      </c>
+      <c r="E464" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F464" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G464" s="10"/>
+    </row>
+    <row r="465" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B465" s="6">
+        <v>17</v>
+      </c>
+      <c r="C465" s="7">
+        <v>7511880.9173999904</v>
+      </c>
+      <c r="D465" s="7">
+        <v>4693118.2567999903</v>
+      </c>
+      <c r="E465" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F465" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G465" s="10"/>
+    </row>
+    <row r="466" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B466" s="6">
+        <v>18</v>
+      </c>
+      <c r="C466" s="7">
+        <v>7511878.7315999903</v>
+      </c>
+      <c r="D466" s="7">
+        <v>4693113.1493999902</v>
+      </c>
+      <c r="E466" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F466" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G466" s="10"/>
+    </row>
+    <row r="467" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B467" s="6">
+        <v>19</v>
+      </c>
+      <c r="C467" s="7">
+        <v>7511878.3914999897</v>
+      </c>
+      <c r="D467" s="7">
+        <v>4693113.2949999897</v>
+      </c>
+      <c r="E467" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F467" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G467" s="10"/>
+    </row>
+    <row r="468" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B468" s="6">
+        <v>20</v>
+      </c>
+      <c r="C468" s="7">
+        <v>7511876.5522999903</v>
+      </c>
+      <c r="D468" s="7">
+        <v>4693108.9973999998</v>
+      </c>
+      <c r="E468" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F468" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G468" s="10"/>
+    </row>
+    <row r="469" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B469" s="6">
+        <v>21</v>
+      </c>
+      <c r="C469" s="7">
+        <v>7511870.5888999896</v>
+      </c>
+      <c r="D469" s="7">
+        <v>4693141.2703</v>
+      </c>
+      <c r="E469" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F469" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G469" s="10"/>
+    </row>
+    <row r="470" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B470" s="6">
+        <v>22</v>
+      </c>
+      <c r="C470" s="7">
+        <v>7511867.1457000002</v>
+      </c>
+      <c r="D470" s="7">
+        <v>4693134.7495999997</v>
+      </c>
+      <c r="E470" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F470" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G470" s="10"/>
+    </row>
+    <row r="471" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B471" s="6">
+        <v>23</v>
+      </c>
+      <c r="C471" s="7">
+        <v>7511868.3261000002</v>
+      </c>
+      <c r="D471" s="7">
+        <v>4693137.5078999903</v>
+      </c>
+      <c r="E471" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F471" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G471" s="10"/>
+    </row>
+    <row r="472" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B472" s="6">
+        <v>24</v>
+      </c>
+      <c r="C472" s="7">
+        <v>7511868.6709000003</v>
+      </c>
+      <c r="D472" s="7">
+        <v>4693137.3603999997</v>
+      </c>
+      <c r="E472" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F472" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G472" s="10"/>
+    </row>
+    <row r="473" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B473" s="6">
+        <v>25</v>
+      </c>
+      <c r="C473" s="7">
+        <v>7511870.3821</v>
+      </c>
+      <c r="D473" s="7">
+        <v>4693141.3587999903</v>
+      </c>
+      <c r="E473" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F473" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G473" s="10"/>
+    </row>
+    <row r="474" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B474" s="6">
+        <v>26</v>
+      </c>
+      <c r="C474" s="7">
+        <v>7511871.8479000004</v>
+      </c>
+      <c r="D474" s="7">
+        <v>4693144.2122</v>
+      </c>
+      <c r="E474" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F474" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G474" s="10"/>
+    </row>
+    <row r="475" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B475" s="6">
+        <v>27</v>
+      </c>
+      <c r="C475" s="7">
+        <v>7511886.6259000003</v>
+      </c>
+      <c r="D475" s="7">
+        <v>4693132.6124</v>
+      </c>
+      <c r="E475" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F475" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G475" s="10"/>
+    </row>
+    <row r="476" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B476" s="6">
+        <v>28</v>
+      </c>
+      <c r="C476" s="7">
+        <v>7511886.9935999904</v>
+      </c>
+      <c r="D476" s="7">
+        <v>4693132.4550000001</v>
+      </c>
+      <c r="E476" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F476" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G476" s="10"/>
+    </row>
+    <row r="477" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B477" s="6">
+        <v>29</v>
+      </c>
+      <c r="C477" s="7">
+        <v>7511885.6558999904</v>
+      </c>
+      <c r="D477" s="7">
+        <v>4693129.3291999903</v>
+      </c>
+      <c r="E477" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F477" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G477" s="10"/>
+    </row>
+    <row r="478" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B478" s="6">
+        <v>30</v>
+      </c>
+      <c r="C478" s="7">
+        <v>7511884.1849999903</v>
+      </c>
+      <c r="D478" s="7">
+        <v>4693129.9586999901</v>
+      </c>
+      <c r="E478" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F478" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G478" s="10"/>
+    </row>
+    <row r="479" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B479" s="6">
+        <v>31</v>
+      </c>
+      <c r="C479" s="7">
+        <v>7511871.9463</v>
+      </c>
+      <c r="D479" s="7">
+        <v>4693144.4420999903</v>
+      </c>
+      <c r="E479" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F479" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G479" s="10"/>
+    </row>
+    <row r="480" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B480" s="6">
+        <v>32</v>
+      </c>
+      <c r="C480" s="7">
+        <v>7511871.2107999902</v>
+      </c>
+      <c r="D480" s="7">
+        <v>4693144.7567999903</v>
+      </c>
+      <c r="E480" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F480" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G480" s="10"/>
+    </row>
+    <row r="481" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B481" s="6">
+        <v>33</v>
+      </c>
+      <c r="C481" s="7">
+        <v>7511873.3158999896</v>
+      </c>
+      <c r="D481" s="7">
+        <v>4693149.6756999902</v>
+      </c>
+      <c r="E481" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F481" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G481" s="10"/>
+    </row>
+    <row r="482" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B482" s="6">
+        <v>34</v>
+      </c>
+      <c r="C482" s="7">
+        <v>7511873.5916999904</v>
+      </c>
+      <c r="D482" s="7">
+        <v>4693149.5576999998</v>
+      </c>
+      <c r="E482" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F482" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G482" s="10"/>
+    </row>
+    <row r="483" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B483" s="6">
+        <v>35</v>
+      </c>
+      <c r="C483" s="7">
+        <v>7511875.9522000002</v>
+      </c>
+      <c r="D483" s="7">
+        <v>4693155.0734000001</v>
+      </c>
+      <c r="E483" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F483" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G483" s="10"/>
+    </row>
+    <row r="484" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B484" s="6">
+        <v>36</v>
+      </c>
+      <c r="C484" s="7">
+        <v>7511893.3739</v>
+      </c>
+      <c r="D484" s="7">
+        <v>4693147.6175999902</v>
+      </c>
+      <c r="E484" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F484" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G484" s="10"/>
+    </row>
+    <row r="485" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B485" s="6">
+        <v>37</v>
+      </c>
+      <c r="C485" s="7">
+        <v>7511891.0133999903</v>
+      </c>
+      <c r="D485" s="7">
+        <v>4693142.1019000001</v>
+      </c>
+      <c r="E485" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F485" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G485" s="10"/>
+    </row>
+    <row r="486" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B486" s="6">
+        <v>38</v>
+      </c>
+      <c r="C486" s="7">
+        <v>7511891.2892000005</v>
+      </c>
+      <c r="D486" s="7">
+        <v>4693141.9838999901</v>
+      </c>
+      <c r="E486" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F486" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G486" s="10"/>
+    </row>
+    <row r="487" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B487" s="6">
+        <v>39</v>
+      </c>
+      <c r="C487" s="7">
+        <v>7511889.1841000002</v>
+      </c>
+      <c r="D487" s="7">
+        <v>4693137.0649999902</v>
+      </c>
+      <c r="E487" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F487" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G487" s="10"/>
+    </row>
+    <row r="488" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B488" s="6">
+        <v>40</v>
+      </c>
+      <c r="C488" s="7">
+        <v>7511888.6325000003</v>
+      </c>
+      <c r="D488" s="7">
+        <v>4693137.3010999998</v>
+      </c>
+      <c r="E488" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F488" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G488" s="10"/>
+    </row>
+    <row r="489" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B489" s="6">
+        <v>41</v>
+      </c>
+      <c r="C489" s="7">
+        <v>7511876.5050999904</v>
+      </c>
+      <c r="D489" s="7">
+        <v>4693108.8870999897</v>
+      </c>
+      <c r="E489" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F489" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G489" s="10"/>
+    </row>
+    <row r="490" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B490" s="6">
+        <v>42</v>
+      </c>
+      <c r="C490" s="7">
+        <v>7511877.0290999897</v>
+      </c>
+      <c r="D490" s="7">
+        <v>4693108.6627999898</v>
+      </c>
+      <c r="E490" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F490" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G490" s="10"/>
+    </row>
+    <row r="491" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B491" s="6">
+        <v>43</v>
+      </c>
+      <c r="C491" s="7">
+        <v>7511874.9239999903</v>
+      </c>
+      <c r="D491" s="7">
+        <v>4693103.7438999899</v>
+      </c>
+      <c r="E491" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F491" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G491" s="10"/>
+    </row>
+    <row r="492" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B492" s="6">
+        <v>44</v>
+      </c>
+      <c r="C492" s="7">
+        <v>7511874.6481999904</v>
+      </c>
+      <c r="D492" s="7">
+        <v>4693103.8619999904</v>
+      </c>
+      <c r="E492" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F492" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G492" s="10"/>
+    </row>
+    <row r="493" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B493" s="6">
+        <v>45</v>
+      </c>
+      <c r="C493" s="7">
+        <v>7511872.2877000002</v>
+      </c>
+      <c r="D493" s="7">
+        <v>4693098.3461999996</v>
+      </c>
+      <c r="E493" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F493" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G493" s="10"/>
+    </row>
+    <row r="494" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B494" s="6">
+        <v>46</v>
+      </c>
+      <c r="C494" s="7">
+        <v>7511854.8661000002</v>
+      </c>
+      <c r="D494" s="7">
+        <v>4693105.8019999899</v>
+      </c>
+      <c r="E494" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F494" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G494" s="10"/>
+    </row>
+    <row r="495" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B495" s="6">
+        <v>47</v>
+      </c>
+      <c r="C495" s="7">
+        <v>7511857.2265999904</v>
+      </c>
+      <c r="D495" s="7">
+        <v>4693111.3176999995</v>
+      </c>
+      <c r="E495" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F495" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G495" s="10"/>
+    </row>
+    <row r="496" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B496" s="6">
+        <v>48</v>
+      </c>
+      <c r="C496" s="7">
+        <v>7511856.9507999904</v>
+      </c>
+      <c r="D496" s="7">
+        <v>4693111.43569999</v>
+      </c>
+      <c r="E496" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F496" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G496" s="10"/>
+    </row>
+    <row r="497" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B497" s="6">
+        <v>49</v>
+      </c>
+      <c r="C497" s="7">
+        <v>7511859.1149000004</v>
+      </c>
+      <c r="D497" s="7">
+        <v>4693116.4924999904</v>
+      </c>
+      <c r="E497" s="7">
+        <v>649.72700000000009</v>
+      </c>
+      <c r="F497" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G497" s="10"/>
+    </row>
+    <row r="498" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B498" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C498" s="5">
+        <v>7511869.1087999996</v>
+      </c>
+      <c r="D498" s="5">
+        <v>4693143.5547000002</v>
+      </c>
+      <c r="E498" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F498" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G498" s="10"/>
+    </row>
+    <row r="499" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B499" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C499" s="5">
+        <v>7511858.3772</v>
+      </c>
+      <c r="D499" s="5">
+        <v>4693118.5031000003</v>
+      </c>
+      <c r="E499" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F499" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G499" s="11"/>
+    </row>
+    <row r="501" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B501" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F501" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G501" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B502" s="4">
+        <v>1</v>
+      </c>
+      <c r="C502" s="5">
+        <v>7511863.3491000002</v>
+      </c>
+      <c r="D502" s="5">
+        <v>4693125.8782000002</v>
+      </c>
+      <c r="E502" s="5">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F502" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G502" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I502" s="8"/>
+    </row>
+    <row r="503" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B503" s="4">
+        <v>2</v>
+      </c>
+      <c r="C503" s="5">
+        <v>7511865.0015000002</v>
+      </c>
+      <c r="D503" s="5">
+        <v>4693129.7394999899</v>
+      </c>
+      <c r="E503" s="5">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F503" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G503" s="10"/>
+    </row>
+    <row r="504" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B504" s="4">
+        <v>3</v>
+      </c>
+      <c r="C504" s="5">
+        <v>7511866.4725000001</v>
+      </c>
+      <c r="D504" s="5">
+        <v>4693129.1098999903</v>
+      </c>
+      <c r="E504" s="5">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F504" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G504" s="10"/>
+    </row>
+    <row r="505" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B505" s="4">
+        <v>4</v>
+      </c>
+      <c r="C505" s="5">
+        <v>7511868.6166000003</v>
+      </c>
+      <c r="D505" s="5">
+        <v>4693134.1200999999</v>
+      </c>
+      <c r="E505" s="5">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F505" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G505" s="10"/>
+    </row>
+    <row r="506" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B506" s="4">
+        <v>5</v>
+      </c>
+      <c r="C506" s="5">
+        <v>7511883.3492000001</v>
+      </c>
+      <c r="D506" s="5">
+        <v>4693128.00589999</v>
+      </c>
+      <c r="E506" s="5">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F506" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G506" s="10"/>
+    </row>
+    <row r="507" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B507" s="4">
+        <v>6</v>
+      </c>
+      <c r="C507" s="5">
+        <v>7511881.0574000003</v>
+      </c>
+      <c r="D507" s="5">
+        <v>4693122.65059999</v>
+      </c>
+      <c r="E507" s="5">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F507" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G507" s="10"/>
+    </row>
+    <row r="508" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B508" s="4">
+        <v>7</v>
+      </c>
+      <c r="C508" s="5">
+        <v>7511882.5284000002</v>
+      </c>
+      <c r="D508" s="5">
+        <v>4693122.0210999902</v>
+      </c>
+      <c r="E508" s="5">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F508" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G508" s="10"/>
+    </row>
+    <row r="509" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B509" s="4">
+        <v>8</v>
+      </c>
+      <c r="C509" s="5">
+        <v>7511880.9545999896</v>
+      </c>
+      <c r="D509" s="5">
+        <v>4693118.3436999898</v>
+      </c>
+      <c r="E509" s="5">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F509" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G509" s="10"/>
+    </row>
+    <row r="510" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B510" s="6">
+        <v>9</v>
+      </c>
+      <c r="C510" s="7">
+        <v>7511859.8503</v>
+      </c>
+      <c r="D510" s="7">
+        <v>4693116.1777999904</v>
+      </c>
+      <c r="E510" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F510" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G510" s="10"/>
+    </row>
+    <row r="511" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B511" s="6">
+        <v>10</v>
+      </c>
+      <c r="C511" s="7">
+        <v>7511861.0700000003</v>
+      </c>
+      <c r="D511" s="7">
+        <v>4693119.02779999</v>
+      </c>
+      <c r="E511" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F511" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G511" s="10"/>
+    </row>
+    <row r="512" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B512" s="6">
+        <v>11</v>
+      </c>
+      <c r="C512" s="7">
+        <v>7511860.8860999905</v>
+      </c>
+      <c r="D512" s="7">
+        <v>4693119.1064999904</v>
+      </c>
+      <c r="E512" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F512" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G512" s="10"/>
+    </row>
+    <row r="513" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B513" s="6">
+        <v>12</v>
+      </c>
+      <c r="C513" s="7">
+        <v>7511860.9845000003</v>
+      </c>
+      <c r="D513" s="7">
+        <v>4693119.3362999996</v>
+      </c>
+      <c r="E513" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F513" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G513" s="10"/>
+    </row>
+    <row r="514" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B514" s="6">
+        <v>13</v>
+      </c>
+      <c r="C514" s="7">
+        <v>7511860.6168</v>
+      </c>
+      <c r="D514" s="7">
+        <v>4693119.4936999902</v>
+      </c>
+      <c r="E514" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F514" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G514" s="10"/>
+    </row>
+    <row r="515" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B515" s="6">
+        <v>14</v>
+      </c>
+      <c r="C515" s="7">
+        <v>7511861.6672999896</v>
+      </c>
+      <c r="D515" s="7">
+        <v>4693121.9483000003</v>
+      </c>
+      <c r="E515" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F515" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G515" s="10"/>
+    </row>
+    <row r="516" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B516" s="6">
+        <v>15</v>
+      </c>
+      <c r="C516" s="7">
+        <v>7511862.0350000001</v>
+      </c>
+      <c r="D516" s="7">
+        <v>4693121.79099999</v>
+      </c>
+      <c r="E516" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F516" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G516" s="10"/>
+    </row>
+    <row r="517" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B517" s="6">
+        <v>16</v>
+      </c>
+      <c r="C517" s="7">
+        <v>7511863.6796000004</v>
+      </c>
+      <c r="D517" s="7">
+        <v>4693125.6338</v>
+      </c>
+      <c r="E517" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F517" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G517" s="10"/>
+    </row>
+    <row r="518" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B518" s="6">
+        <v>17</v>
+      </c>
+      <c r="C518" s="7">
+        <v>7511880.9173999904</v>
+      </c>
+      <c r="D518" s="7">
+        <v>4693118.2567999903</v>
+      </c>
+      <c r="E518" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F518" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G518" s="10"/>
+    </row>
+    <row r="519" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B519" s="6">
+        <v>18</v>
+      </c>
+      <c r="C519" s="7">
+        <v>7511878.7315999903</v>
+      </c>
+      <c r="D519" s="7">
+        <v>4693113.1493999902</v>
+      </c>
+      <c r="E519" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F519" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G519" s="10"/>
+    </row>
+    <row r="520" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B520" s="6">
+        <v>19</v>
+      </c>
+      <c r="C520" s="7">
+        <v>7511878.3914999897</v>
+      </c>
+      <c r="D520" s="7">
+        <v>4693113.2949999897</v>
+      </c>
+      <c r="E520" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F520" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G520" s="10"/>
+    </row>
+    <row r="521" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B521" s="6">
+        <v>20</v>
+      </c>
+      <c r="C521" s="7">
+        <v>7511876.5522999903</v>
+      </c>
+      <c r="D521" s="7">
+        <v>4693108.9973999998</v>
+      </c>
+      <c r="E521" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F521" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G521" s="10"/>
+    </row>
+    <row r="522" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B522" s="6">
+        <v>21</v>
+      </c>
+      <c r="C522" s="7">
+        <v>7511870.5888999896</v>
+      </c>
+      <c r="D522" s="7">
+        <v>4693141.2703</v>
+      </c>
+      <c r="E522" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F522" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G522" s="10"/>
+    </row>
+    <row r="523" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B523" s="6">
+        <v>22</v>
+      </c>
+      <c r="C523" s="7">
+        <v>7511867.1457000002</v>
+      </c>
+      <c r="D523" s="7">
+        <v>4693134.7495999997</v>
+      </c>
+      <c r="E523" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F523" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G523" s="10"/>
+    </row>
+    <row r="524" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B524" s="6">
+        <v>23</v>
+      </c>
+      <c r="C524" s="7">
+        <v>7511868.3261000002</v>
+      </c>
+      <c r="D524" s="7">
+        <v>4693137.5078999903</v>
+      </c>
+      <c r="E524" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F524" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G524" s="10"/>
+    </row>
+    <row r="525" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B525" s="6">
+        <v>24</v>
+      </c>
+      <c r="C525" s="7">
+        <v>7511868.6709000003</v>
+      </c>
+      <c r="D525" s="7">
+        <v>4693137.3603999997</v>
+      </c>
+      <c r="E525" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F525" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G525" s="10"/>
+    </row>
+    <row r="526" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B526" s="6">
+        <v>25</v>
+      </c>
+      <c r="C526" s="7">
+        <v>7511870.3821</v>
+      </c>
+      <c r="D526" s="7">
+        <v>4693141.3587999903</v>
+      </c>
+      <c r="E526" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F526" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G526" s="10"/>
+    </row>
+    <row r="527" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B527" s="6">
+        <v>26</v>
+      </c>
+      <c r="C527" s="7">
+        <v>7511871.8479000004</v>
+      </c>
+      <c r="D527" s="7">
+        <v>4693144.2122</v>
+      </c>
+      <c r="E527" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F527" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G527" s="10"/>
+    </row>
+    <row r="528" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B528" s="6">
+        <v>27</v>
+      </c>
+      <c r="C528" s="7">
+        <v>7511886.6259000003</v>
+      </c>
+      <c r="D528" s="7">
+        <v>4693132.6124</v>
+      </c>
+      <c r="E528" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F528" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G528" s="10"/>
+    </row>
+    <row r="529" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B529" s="6">
+        <v>28</v>
+      </c>
+      <c r="C529" s="7">
+        <v>7511886.9935999904</v>
+      </c>
+      <c r="D529" s="7">
+        <v>4693132.4550000001</v>
+      </c>
+      <c r="E529" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F529" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G529" s="10"/>
+    </row>
+    <row r="530" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B530" s="6">
+        <v>29</v>
+      </c>
+      <c r="C530" s="7">
+        <v>7511885.6558999904</v>
+      </c>
+      <c r="D530" s="7">
+        <v>4693129.3291999903</v>
+      </c>
+      <c r="E530" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F530" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G530" s="10"/>
+    </row>
+    <row r="531" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B531" s="6">
+        <v>30</v>
+      </c>
+      <c r="C531" s="7">
+        <v>7511884.1849999903</v>
+      </c>
+      <c r="D531" s="7">
+        <v>4693129.9586999901</v>
+      </c>
+      <c r="E531" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F531" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G531" s="10"/>
+    </row>
+    <row r="532" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B532" s="6">
+        <v>31</v>
+      </c>
+      <c r="C532" s="7">
+        <v>7511871.9463</v>
+      </c>
+      <c r="D532" s="7">
+        <v>4693144.4420999903</v>
+      </c>
+      <c r="E532" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F532" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G532" s="10"/>
+    </row>
+    <row r="533" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B533" s="6">
+        <v>32</v>
+      </c>
+      <c r="C533" s="7">
+        <v>7511871.2107999902</v>
+      </c>
+      <c r="D533" s="7">
+        <v>4693144.7567999903</v>
+      </c>
+      <c r="E533" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F533" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G533" s="10"/>
+    </row>
+    <row r="534" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B534" s="6">
+        <v>33</v>
+      </c>
+      <c r="C534" s="7">
+        <v>7511873.3158999896</v>
+      </c>
+      <c r="D534" s="7">
+        <v>4693149.6756999902</v>
+      </c>
+      <c r="E534" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F534" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G534" s="10"/>
+    </row>
+    <row r="535" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B535" s="6">
+        <v>34</v>
+      </c>
+      <c r="C535" s="7">
+        <v>7511873.5916999904</v>
+      </c>
+      <c r="D535" s="7">
+        <v>4693149.5576999998</v>
+      </c>
+      <c r="E535" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F535" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G535" s="10"/>
+    </row>
+    <row r="536" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B536" s="6">
+        <v>35</v>
+      </c>
+      <c r="C536" s="7">
+        <v>7511875.9522000002</v>
+      </c>
+      <c r="D536" s="7">
+        <v>4693155.0734000001</v>
+      </c>
+      <c r="E536" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F536" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G536" s="10"/>
+    </row>
+    <row r="537" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B537" s="6">
+        <v>36</v>
+      </c>
+      <c r="C537" s="7">
+        <v>7511893.3739</v>
+      </c>
+      <c r="D537" s="7">
+        <v>4693147.6175999902</v>
+      </c>
+      <c r="E537" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F537" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G537" s="10"/>
+    </row>
+    <row r="538" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B538" s="6">
+        <v>37</v>
+      </c>
+      <c r="C538" s="7">
+        <v>7511891.0133999903</v>
+      </c>
+      <c r="D538" s="7">
+        <v>4693142.1019000001</v>
+      </c>
+      <c r="E538" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F538" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G538" s="10"/>
+    </row>
+    <row r="539" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B539" s="6">
+        <v>38</v>
+      </c>
+      <c r="C539" s="7">
+        <v>7511891.2892000005</v>
+      </c>
+      <c r="D539" s="7">
+        <v>4693141.9838999901</v>
+      </c>
+      <c r="E539" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F539" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G539" s="10"/>
+    </row>
+    <row r="540" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B540" s="6">
+        <v>39</v>
+      </c>
+      <c r="C540" s="7">
+        <v>7511889.1841000002</v>
+      </c>
+      <c r="D540" s="7">
+        <v>4693137.0649999902</v>
+      </c>
+      <c r="E540" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F540" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G540" s="10"/>
+    </row>
+    <row r="541" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B541" s="6">
+        <v>40</v>
+      </c>
+      <c r="C541" s="7">
+        <v>7511888.6325000003</v>
+      </c>
+      <c r="D541" s="7">
+        <v>4693137.3010999998</v>
+      </c>
+      <c r="E541" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F541" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G541" s="10"/>
+    </row>
+    <row r="542" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B542" s="6">
+        <v>41</v>
+      </c>
+      <c r="C542" s="7">
+        <v>7511876.5050999904</v>
+      </c>
+      <c r="D542" s="7">
+        <v>4693108.8870999897</v>
+      </c>
+      <c r="E542" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F542" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G542" s="10"/>
+    </row>
+    <row r="543" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B543" s="6">
+        <v>42</v>
+      </c>
+      <c r="C543" s="7">
+        <v>7511877.0290999897</v>
+      </c>
+      <c r="D543" s="7">
+        <v>4693108.6627999898</v>
+      </c>
+      <c r="E543" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F543" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G543" s="10"/>
+    </row>
+    <row r="544" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B544" s="6">
+        <v>43</v>
+      </c>
+      <c r="C544" s="7">
+        <v>7511874.9239999903</v>
+      </c>
+      <c r="D544" s="7">
+        <v>4693103.7438999899</v>
+      </c>
+      <c r="E544" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F544" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G544" s="10"/>
+    </row>
+    <row r="545" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B545" s="6">
+        <v>44</v>
+      </c>
+      <c r="C545" s="7">
+        <v>7511874.6481999904</v>
+      </c>
+      <c r="D545" s="7">
+        <v>4693103.8619999904</v>
+      </c>
+      <c r="E545" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F545" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G545" s="10"/>
+    </row>
+    <row r="546" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B546" s="6">
+        <v>45</v>
+      </c>
+      <c r="C546" s="7">
+        <v>7511872.2877000002</v>
+      </c>
+      <c r="D546" s="7">
+        <v>4693098.3461999996</v>
+      </c>
+      <c r="E546" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F546" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G546" s="10"/>
+    </row>
+    <row r="547" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B547" s="6">
+        <v>46</v>
+      </c>
+      <c r="C547" s="7">
+        <v>7511854.8661000002</v>
+      </c>
+      <c r="D547" s="7">
+        <v>4693105.8019999899</v>
+      </c>
+      <c r="E547" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F547" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G547" s="10"/>
+    </row>
+    <row r="548" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B548" s="6">
+        <v>47</v>
+      </c>
+      <c r="C548" s="7">
+        <v>7511857.2265999904</v>
+      </c>
+      <c r="D548" s="7">
+        <v>4693111.3176999995</v>
+      </c>
+      <c r="E548" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F548" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G548" s="10"/>
+    </row>
+    <row r="549" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B549" s="6">
+        <v>48</v>
+      </c>
+      <c r="C549" s="7">
+        <v>7511856.9507999904</v>
+      </c>
+      <c r="D549" s="7">
+        <v>4693111.43569999</v>
+      </c>
+      <c r="E549" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F549" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G549" s="10"/>
+    </row>
+    <row r="550" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B550" s="6">
+        <v>49</v>
+      </c>
+      <c r="C550" s="7">
+        <v>7511859.1149000004</v>
+      </c>
+      <c r="D550" s="7">
+        <v>4693116.4924999904</v>
+      </c>
+      <c r="E550" s="7">
+        <v>652.67700000000013</v>
+      </c>
+      <c r="F550" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G550" s="10"/>
+    </row>
+    <row r="551" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B551" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C551" s="5">
+        <v>7511869.1087999996</v>
+      </c>
+      <c r="D551" s="5">
+        <v>4693143.5547000002</v>
+      </c>
+      <c r="E551" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F551" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G551" s="10"/>
+    </row>
+    <row r="552" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B552" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C552" s="5">
+        <v>7511858.3772</v>
+      </c>
+      <c r="D552" s="5">
+        <v>4693118.5031000003</v>
+      </c>
+      <c r="E552" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F552" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G552" s="11"/>
     </row>
   </sheetData>
   <sortState ref="B1:D21">
     <sortCondition ref="B1"/>
   </sortState>
-  <mergeCells count="11">
+  <mergeCells count="13">
     <mergeCell ref="G396:G446"/>
+    <mergeCell ref="G449:G499"/>
+    <mergeCell ref="G502:G552"/>
     <mergeCell ref="E3:E10"/>
     <mergeCell ref="G13:G20"/>
     <mergeCell ref="G23:G73"/>

--- a/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
+++ b/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A488" workbookViewId="0">
-      <selection activeCell="I502" sqref="I502"/>
+    <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
+      <selection activeCell="I503" sqref="I503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9395,7 +9395,7 @@
         <v>4693129.7394999899</v>
       </c>
       <c r="E503" s="5">
-        <v>652.67700000000013</v>
+        <v>652.67700000000002</v>
       </c>
       <c r="F503" s="4" t="s">
         <v>8</v>

--- a/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
+++ b/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="24">
   <si>
     <t>Nr</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Kati 9</t>
+  </si>
+  <si>
+    <t>Kati 10</t>
   </si>
 </sst>
 </file>
@@ -196,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,6 +228,15 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -234,14 +246,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J552"/>
+  <dimension ref="B2:J593"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A494" workbookViewId="0">
-      <selection activeCell="I503" sqref="I503"/>
+    <sheetView tabSelected="1" topLeftCell="A567" workbookViewId="0">
+      <selection activeCell="F581" sqref="B555:G593"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,10 +569,10 @@
       <c r="D3" s="3">
         <v>4693165.9556</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>620.17700000000002</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -580,8 +586,8 @@
       <c r="D4" s="3">
         <v>4693157.3587999903</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
@@ -593,8 +599,8 @@
       <c r="D5" s="3">
         <v>4693146.0508999899</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
@@ -606,8 +612,8 @@
       <c r="D6" s="3">
         <v>4693148.5689000003</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
@@ -619,8 +625,8 @@
       <c r="D7" s="3">
         <v>4693099.5273000002</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
@@ -632,8 +638,8 @@
       <c r="D8" s="3">
         <v>4693105.6059999997</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
@@ -645,8 +651,8 @@
       <c r="D9" s="3">
         <v>4693154.4177999897</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -658,8 +664,8 @@
       <c r="D10" s="3">
         <v>4693157.7015000004</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="17"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -9289,7 +9295,7 @@
       </c>
       <c r="G496" s="10"/>
     </row>
-    <row r="497" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B497" s="6">
         <v>49</v>
       </c>
@@ -9307,7 +9313,7 @@
       </c>
       <c r="G497" s="10"/>
     </row>
-    <row r="498" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B498" s="4" t="s">
         <v>11</v>
       </c>
@@ -9325,7 +9331,7 @@
       </c>
       <c r="G498" s="10"/>
     </row>
-    <row r="499" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B499" s="4" t="s">
         <v>13</v>
       </c>
@@ -9343,7 +9349,7 @@
       </c>
       <c r="G499" s="11"/>
     </row>
-    <row r="501" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B501" s="1" t="s">
         <v>0</v>
       </c>
@@ -9363,7 +9369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="502" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B502" s="4">
         <v>1</v>
       </c>
@@ -9383,8 +9389,12 @@
         <v>22</v>
       </c>
       <c r="I502" s="8"/>
-    </row>
-    <row r="503" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J502" s="8">
+        <f>E502+2.95</f>
+        <v>655.62700000000018</v>
+      </c>
+    </row>
+    <row r="503" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B503" s="4">
         <v>2</v>
       </c>
@@ -9401,8 +9411,11 @@
         <v>8</v>
       </c>
       <c r="G503" s="10"/>
-    </row>
-    <row r="504" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J503">
+        <v>655.62699999999995</v>
+      </c>
+    </row>
+    <row r="504" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B504" s="4">
         <v>3</v>
       </c>
@@ -9420,7 +9433,7 @@
       </c>
       <c r="G504" s="10"/>
     </row>
-    <row r="505" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B505" s="4">
         <v>4</v>
       </c>
@@ -9438,7 +9451,7 @@
       </c>
       <c r="G505" s="10"/>
     </row>
-    <row r="506" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B506" s="4">
         <v>5</v>
       </c>
@@ -9456,7 +9469,7 @@
       </c>
       <c r="G506" s="10"/>
     </row>
-    <row r="507" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B507" s="4">
         <v>6</v>
       </c>
@@ -9474,7 +9487,7 @@
       </c>
       <c r="G507" s="10"/>
     </row>
-    <row r="508" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B508" s="4">
         <v>7</v>
       </c>
@@ -9492,7 +9505,7 @@
       </c>
       <c r="G508" s="10"/>
     </row>
-    <row r="509" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B509" s="4">
         <v>8</v>
       </c>
@@ -9510,7 +9523,7 @@
       </c>
       <c r="G509" s="10"/>
     </row>
-    <row r="510" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B510" s="6">
         <v>9</v>
       </c>
@@ -9528,7 +9541,7 @@
       </c>
       <c r="G510" s="10"/>
     </row>
-    <row r="511" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B511" s="6">
         <v>10</v>
       </c>
@@ -9546,7 +9559,7 @@
       </c>
       <c r="G511" s="10"/>
     </row>
-    <row r="512" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B512" s="6">
         <v>11</v>
       </c>
@@ -10283,12 +10296,719 @@
         <v>12</v>
       </c>
       <c r="G552" s="11"/>
+    </row>
+    <row r="555" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B555" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C555" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D555" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E555" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F555" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G555" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="556" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B556" s="4">
+        <v>1</v>
+      </c>
+      <c r="C556" s="5">
+        <v>7511859.8897000002</v>
+      </c>
+      <c r="D556" s="5">
+        <v>4693116.2697000001</v>
+      </c>
+      <c r="E556" s="5">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F556" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G556" s="18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="557" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B557" s="4">
+        <v>2</v>
+      </c>
+      <c r="C557" s="5">
+        <v>7511872.2877000002</v>
+      </c>
+      <c r="D557" s="5">
+        <v>4693098.3461999996</v>
+      </c>
+      <c r="E557" s="5">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F557" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G557" s="18"/>
+    </row>
+    <row r="558" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B558" s="4">
+        <v>3</v>
+      </c>
+      <c r="C558" s="5">
+        <v>7511854.8661000002</v>
+      </c>
+      <c r="D558" s="5">
+        <v>4693105.8019999899</v>
+      </c>
+      <c r="E558" s="5">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F558" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G558" s="18"/>
+    </row>
+    <row r="559" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B559" s="4">
+        <v>4</v>
+      </c>
+      <c r="C559" s="5">
+        <v>7511859.4299999904</v>
+      </c>
+      <c r="D559" s="5">
+        <v>4693116.46639999</v>
+      </c>
+      <c r="E559" s="5">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F559" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G559" s="18"/>
+    </row>
+    <row r="560" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B560" s="4">
+        <v>5</v>
+      </c>
+      <c r="C560" s="5">
+        <v>7511862.449</v>
+      </c>
+      <c r="D560" s="5">
+        <v>4693118.4375999896</v>
+      </c>
+      <c r="E560" s="5">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F560" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G560" s="18"/>
+    </row>
+    <row r="561" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B561" s="4">
+        <v>6</v>
+      </c>
+      <c r="C561" s="5">
+        <v>7511861.0700000003</v>
+      </c>
+      <c r="D561" s="5">
+        <v>4693119.02779999</v>
+      </c>
+      <c r="E561" s="5">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F561" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G561" s="18"/>
+    </row>
+    <row r="562" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B562" s="4">
+        <v>7</v>
+      </c>
+      <c r="C562" s="5">
+        <v>7511862.4982000003</v>
+      </c>
+      <c r="D562" s="5">
+        <v>4693118.5525000002</v>
+      </c>
+      <c r="E562" s="5">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F562" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G562" s="18"/>
+    </row>
+    <row r="563" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B563" s="4">
+        <v>8</v>
+      </c>
+      <c r="C563" s="5">
+        <v>7511860.6595000001</v>
+      </c>
+      <c r="D563" s="5">
+        <v>4693119.3393999999</v>
+      </c>
+      <c r="E563" s="5">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F563" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G563" s="18"/>
+    </row>
+    <row r="564" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B564" s="6">
+        <v>9</v>
+      </c>
+      <c r="C564" s="7">
+        <v>7511863.4038000004</v>
+      </c>
+      <c r="D564" s="7">
+        <v>4693125.7518999996</v>
+      </c>
+      <c r="E564" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F564" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G564" s="18"/>
+    </row>
+    <row r="565" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B565" s="6">
+        <v>10</v>
+      </c>
+      <c r="C565" s="7">
+        <v>7511863.4471000005</v>
+      </c>
+      <c r="D565" s="7">
+        <v>4693125.8361999998</v>
+      </c>
+      <c r="E565" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F565" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G565" s="18"/>
+    </row>
+    <row r="566" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B566" s="6">
+        <v>11</v>
+      </c>
+      <c r="C566" s="7">
+        <v>7511870.5888999896</v>
+      </c>
+      <c r="D566" s="7">
+        <v>4693141.2703</v>
+      </c>
+      <c r="E566" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F566" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G566" s="18"/>
+    </row>
+    <row r="567" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B567" s="6">
+        <v>12</v>
+      </c>
+      <c r="C567" s="7">
+        <v>7511868.4181000004</v>
+      </c>
+      <c r="D567" s="7">
+        <v>4693137.46859999</v>
+      </c>
+      <c r="E567" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F567" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G567" s="18"/>
+    </row>
+    <row r="568" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B568" s="6">
+        <v>13</v>
+      </c>
+      <c r="C568" s="7">
+        <v>7511868.6939000003</v>
+      </c>
+      <c r="D568" s="7">
+        <v>4693137.3505999995</v>
+      </c>
+      <c r="E568" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F568" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G568" s="18"/>
+    </row>
+    <row r="569" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B569" s="6">
+        <v>14</v>
+      </c>
+      <c r="C569" s="7">
+        <v>7511870.4050000003</v>
+      </c>
+      <c r="D569" s="7">
+        <v>4693141.3489999902</v>
+      </c>
+      <c r="E569" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F569" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G569" s="18"/>
+    </row>
+    <row r="570" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B570" s="6">
+        <v>15</v>
+      </c>
+      <c r="C570" s="7">
+        <v>7511871.8479000004</v>
+      </c>
+      <c r="D570" s="7">
+        <v>4693144.2122</v>
+      </c>
+      <c r="E570" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F570" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G570" s="18"/>
+    </row>
+    <row r="571" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B571" s="6">
+        <v>16</v>
+      </c>
+      <c r="C571" s="7">
+        <v>7511893.3739</v>
+      </c>
+      <c r="D571" s="7">
+        <v>4693147.6175999902</v>
+      </c>
+      <c r="E571" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F571" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G571" s="18"/>
+    </row>
+    <row r="572" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B572" s="6">
+        <v>17</v>
+      </c>
+      <c r="C572" s="7">
+        <v>7511871.3881999897</v>
+      </c>
+      <c r="D572" s="7">
+        <v>4693144.409</v>
+      </c>
+      <c r="E572" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F572" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G572" s="18"/>
+    </row>
+    <row r="573" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B573" s="6">
+        <v>18</v>
+      </c>
+      <c r="C573" s="7">
+        <v>7511875.9522000002</v>
+      </c>
+      <c r="D573" s="7">
+        <v>4693155.0734000001</v>
+      </c>
+      <c r="E573" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F573" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G573" s="18"/>
+    </row>
+    <row r="574" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B574" s="6">
+        <v>19</v>
+      </c>
+      <c r="C574" s="7">
+        <v>7511859.8897000002</v>
+      </c>
+      <c r="D574" s="7">
+        <v>4693116.2697000001</v>
+      </c>
+      <c r="E574" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F574" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G574" s="18"/>
+    </row>
+    <row r="575" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B575" s="6">
+        <v>20</v>
+      </c>
+      <c r="C575" s="7">
+        <v>7511872.2877000002</v>
+      </c>
+      <c r="D575" s="7">
+        <v>4693098.3461999996</v>
+      </c>
+      <c r="E575" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F575" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G575" s="18"/>
+    </row>
+    <row r="576" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B576" s="6">
+        <v>21</v>
+      </c>
+      <c r="C576" s="7">
+        <v>7511854.8661000002</v>
+      </c>
+      <c r="D576" s="7">
+        <v>4693105.8019999899</v>
+      </c>
+      <c r="E576" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F576" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G576" s="18"/>
+    </row>
+    <row r="577" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B577" s="6">
+        <v>22</v>
+      </c>
+      <c r="C577" s="7">
+        <v>7511859.4299999904</v>
+      </c>
+      <c r="D577" s="7">
+        <v>4693116.46639999</v>
+      </c>
+      <c r="E577" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F577" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G577" s="18"/>
+    </row>
+    <row r="578" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B578" s="6">
+        <v>23</v>
+      </c>
+      <c r="C578" s="7">
+        <v>7511862.449</v>
+      </c>
+      <c r="D578" s="7">
+        <v>4693118.4375999896</v>
+      </c>
+      <c r="E578" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F578" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G578" s="18"/>
+    </row>
+    <row r="579" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B579" s="6">
+        <v>24</v>
+      </c>
+      <c r="C579" s="7">
+        <v>7511861.0700000003</v>
+      </c>
+      <c r="D579" s="7">
+        <v>4693119.02779999</v>
+      </c>
+      <c r="E579" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F579" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G579" s="18"/>
+    </row>
+    <row r="580" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B580" s="6">
+        <v>25</v>
+      </c>
+      <c r="C580" s="7">
+        <v>7511862.4982000003</v>
+      </c>
+      <c r="D580" s="7">
+        <v>4693118.5525000002</v>
+      </c>
+      <c r="E580" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F580" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G580" s="18"/>
+    </row>
+    <row r="581" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B581" s="6">
+        <v>26</v>
+      </c>
+      <c r="C581" s="7">
+        <v>7511860.6595000001</v>
+      </c>
+      <c r="D581" s="7">
+        <v>4693119.3393999999</v>
+      </c>
+      <c r="E581" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F581" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G581" s="18"/>
+    </row>
+    <row r="582" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B582" s="6">
+        <v>27</v>
+      </c>
+      <c r="C582" s="7">
+        <v>7511863.4038000004</v>
+      </c>
+      <c r="D582" s="7">
+        <v>4693125.7518999996</v>
+      </c>
+      <c r="E582" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F582" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G582" s="18"/>
+    </row>
+    <row r="583" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B583" s="6">
+        <v>28</v>
+      </c>
+      <c r="C583" s="7">
+        <v>7511863.4471000005</v>
+      </c>
+      <c r="D583" s="7">
+        <v>4693125.8361999998</v>
+      </c>
+      <c r="E583" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F583" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G583" s="18"/>
+    </row>
+    <row r="584" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B584" s="6">
+        <v>29</v>
+      </c>
+      <c r="C584" s="7">
+        <v>7511870.5888999896</v>
+      </c>
+      <c r="D584" s="7">
+        <v>4693141.2703</v>
+      </c>
+      <c r="E584" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F584" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G584" s="18"/>
+    </row>
+    <row r="585" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B585" s="6">
+        <v>30</v>
+      </c>
+      <c r="C585" s="7">
+        <v>7511868.4181000004</v>
+      </c>
+      <c r="D585" s="7">
+        <v>4693137.46859999</v>
+      </c>
+      <c r="E585" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F585" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G585" s="18"/>
+    </row>
+    <row r="586" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B586" s="6">
+        <v>31</v>
+      </c>
+      <c r="C586" s="7">
+        <v>7511868.6939000003</v>
+      </c>
+      <c r="D586" s="7">
+        <v>4693137.3505999995</v>
+      </c>
+      <c r="E586" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F586" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G586" s="18"/>
+    </row>
+    <row r="587" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B587" s="6">
+        <v>32</v>
+      </c>
+      <c r="C587" s="7">
+        <v>7511870.4050000003</v>
+      </c>
+      <c r="D587" s="7">
+        <v>4693141.3489999902</v>
+      </c>
+      <c r="E587" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F587" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G587" s="18"/>
+    </row>
+    <row r="588" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B588" s="6">
+        <v>33</v>
+      </c>
+      <c r="C588" s="7">
+        <v>7511871.8479000004</v>
+      </c>
+      <c r="D588" s="7">
+        <v>4693144.2122</v>
+      </c>
+      <c r="E588" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F588" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G588" s="18"/>
+    </row>
+    <row r="589" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B589" s="6">
+        <v>34</v>
+      </c>
+      <c r="C589" s="7">
+        <v>7511893.3739</v>
+      </c>
+      <c r="D589" s="7">
+        <v>4693147.6175999902</v>
+      </c>
+      <c r="E589" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F589" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G589" s="18"/>
+    </row>
+    <row r="590" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B590" s="6">
+        <v>35</v>
+      </c>
+      <c r="C590" s="7">
+        <v>7511871.3881999897</v>
+      </c>
+      <c r="D590" s="7">
+        <v>4693144.409</v>
+      </c>
+      <c r="E590" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F590" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G590" s="18"/>
+    </row>
+    <row r="591" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B591" s="6">
+        <v>36</v>
+      </c>
+      <c r="C591" s="7">
+        <v>7511875.9522000002</v>
+      </c>
+      <c r="D591" s="7">
+        <v>4693155.0734000001</v>
+      </c>
+      <c r="E591" s="7">
+        <v>655.62699999999904</v>
+      </c>
+      <c r="F591" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G591" s="18"/>
+    </row>
+    <row r="592" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B592" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C592" s="7">
+        <v>7511869.1090000002</v>
+      </c>
+      <c r="D592" s="7">
+        <v>4693143.5549999904</v>
+      </c>
+      <c r="E592" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F592" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G592" s="18"/>
+    </row>
+    <row r="593" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B593" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C593" s="7">
+        <v>7511858.3770000003</v>
+      </c>
+      <c r="D593" s="7">
+        <v>4693118.5029999996</v>
+      </c>
+      <c r="E593" s="7">
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F593" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G593" s="18"/>
     </row>
   </sheetData>
   <sortState ref="B1:D21">
     <sortCondition ref="B1"/>
   </sortState>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="G556:G593"/>
     <mergeCell ref="G396:G446"/>
     <mergeCell ref="G449:G499"/>
     <mergeCell ref="G502:G552"/>

--- a/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
+++ b/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kosova\Ferizaj\Ferizaj\Ingjinierike\Unioni-337-0-Objekti\5-Njësit-Banesore\regjistri\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ferizaj\Ferizaj\Ingjinierike\Unioni-337-0-Objekti\5-Njësit-Banesore\regjistri\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="24">
   <si>
     <t>Nr</t>
   </si>
@@ -199,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -219,6 +219,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -245,9 +251,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J593"/>
+  <dimension ref="B2:J575"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A567" workbookViewId="0">
-      <selection activeCell="F581" sqref="B555:G593"/>
+    <sheetView tabSelected="1" topLeftCell="A552" workbookViewId="0">
+      <selection activeCell="L560" sqref="L560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,10 +572,10 @@
       <c r="D3" s="3">
         <v>4693165.9556</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="14">
         <v>620.17700000000002</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -586,8 +589,8 @@
       <c r="D4" s="3">
         <v>4693157.3587999903</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="16"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
@@ -599,8 +602,8 @@
       <c r="D5" s="3">
         <v>4693146.0508999899</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
@@ -612,8 +615,8 @@
       <c r="D6" s="3">
         <v>4693148.5689000003</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="16"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
@@ -625,8 +628,8 @@
       <c r="D7" s="3">
         <v>4693099.5273000002</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="16"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
@@ -638,8 +641,8 @@
       <c r="D8" s="3">
         <v>4693105.6059999997</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="16"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
@@ -651,8 +654,8 @@
       <c r="D9" s="3">
         <v>4693154.4177999897</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -664,8 +667,8 @@
       <c r="D10" s="3">
         <v>4693157.7015000004</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="17"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="19"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -703,7 +706,7 @@
       <c r="F13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -723,7 +726,7 @@
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="10"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
@@ -741,7 +744,7 @@
       <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="10"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
@@ -759,7 +762,7 @@
       <c r="F16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
@@ -777,7 +780,7 @@
       <c r="F17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="10"/>
+      <c r="G17" s="12"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
@@ -795,7 +798,7 @@
       <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="10"/>
+      <c r="G18" s="12"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
@@ -813,7 +816,7 @@
       <c r="F19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
@@ -831,7 +834,7 @@
       <c r="F20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="11"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
@@ -869,7 +872,7 @@
       <c r="F23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="11" t="s">
         <v>10</v>
       </c>
     </row>
@@ -889,7 +892,7 @@
       <c r="F24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="10"/>
+      <c r="G24" s="12"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="4">
@@ -907,7 +910,7 @@
       <c r="F25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G25" s="12"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="4">
@@ -925,7 +928,7 @@
       <c r="F26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="10"/>
+      <c r="G26" s="12"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="4">
@@ -943,7 +946,7 @@
       <c r="F27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="10"/>
+      <c r="G27" s="12"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="4">
@@ -961,7 +964,7 @@
       <c r="F28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="10"/>
+      <c r="G28" s="12"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="4">
@@ -979,7 +982,7 @@
       <c r="F29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="10"/>
+      <c r="G29" s="12"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="4">
@@ -997,7 +1000,7 @@
       <c r="F30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="10"/>
+      <c r="G30" s="12"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="6">
@@ -1015,7 +1018,7 @@
       <c r="F31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="10"/>
+      <c r="G31" s="12"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="6">
@@ -1033,7 +1036,7 @@
       <c r="F32" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="10"/>
+      <c r="G32" s="12"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="6">
@@ -1051,7 +1054,7 @@
       <c r="F33" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="10"/>
+      <c r="G33" s="12"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="6">
@@ -1069,7 +1072,7 @@
       <c r="F34" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="10"/>
+      <c r="G34" s="12"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="6">
@@ -1087,7 +1090,7 @@
       <c r="F35" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="10"/>
+      <c r="G35" s="12"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="6">
@@ -1105,7 +1108,7 @@
       <c r="F36" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="10"/>
+      <c r="G36" s="12"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="6">
@@ -1123,7 +1126,7 @@
       <c r="F37" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="10"/>
+      <c r="G37" s="12"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="6">
@@ -1141,7 +1144,7 @@
       <c r="F38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="10"/>
+      <c r="G38" s="12"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="6">
@@ -1159,7 +1162,7 @@
       <c r="F39" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="10"/>
+      <c r="G39" s="12"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="6">
@@ -1177,7 +1180,7 @@
       <c r="F40" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="10"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="6">
@@ -1195,7 +1198,7 @@
       <c r="F41" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="10"/>
+      <c r="G41" s="12"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="6">
@@ -1213,7 +1216,7 @@
       <c r="F42" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="10"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="6">
@@ -1231,7 +1234,7 @@
       <c r="F43" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="10"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="6">
@@ -1249,7 +1252,7 @@
       <c r="F44" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="10"/>
+      <c r="G44" s="12"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="6">
@@ -1267,7 +1270,7 @@
       <c r="F45" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="10"/>
+      <c r="G45" s="12"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="6">
@@ -1285,7 +1288,7 @@
       <c r="F46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="10"/>
+      <c r="G46" s="12"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="6">
@@ -1303,7 +1306,7 @@
       <c r="F47" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="10"/>
+      <c r="G47" s="12"/>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="6">
@@ -1321,7 +1324,7 @@
       <c r="F48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="10"/>
+      <c r="G48" s="12"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="6">
@@ -1339,7 +1342,7 @@
       <c r="F49" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="10"/>
+      <c r="G49" s="12"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="6">
@@ -1357,7 +1360,7 @@
       <c r="F50" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="10"/>
+      <c r="G50" s="12"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="6">
@@ -1375,7 +1378,7 @@
       <c r="F51" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="10"/>
+      <c r="G51" s="12"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="6">
@@ -1393,7 +1396,7 @@
       <c r="F52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="10"/>
+      <c r="G52" s="12"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="6">
@@ -1411,7 +1414,7 @@
       <c r="F53" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="10"/>
+      <c r="G53" s="12"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="6">
@@ -1429,7 +1432,7 @@
       <c r="F54" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="10"/>
+      <c r="G54" s="12"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="6">
@@ -1447,7 +1450,7 @@
       <c r="F55" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="10"/>
+      <c r="G55" s="12"/>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="6">
@@ -1465,7 +1468,7 @@
       <c r="F56" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="10"/>
+      <c r="G56" s="12"/>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="6">
@@ -1483,7 +1486,7 @@
       <c r="F57" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="10"/>
+      <c r="G57" s="12"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="6">
@@ -1501,7 +1504,7 @@
       <c r="F58" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="10"/>
+      <c r="G58" s="12"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="6">
@@ -1519,7 +1522,7 @@
       <c r="F59" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="10"/>
+      <c r="G59" s="12"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="6">
@@ -1537,7 +1540,7 @@
       <c r="F60" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="10"/>
+      <c r="G60" s="12"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="6">
@@ -1555,7 +1558,7 @@
       <c r="F61" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="10"/>
+      <c r="G61" s="12"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="6">
@@ -1573,7 +1576,7 @@
       <c r="F62" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="10"/>
+      <c r="G62" s="12"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="6">
@@ -1591,7 +1594,7 @@
       <c r="F63" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G63" s="10"/>
+      <c r="G63" s="12"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="6">
@@ -1609,7 +1612,7 @@
       <c r="F64" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="10"/>
+      <c r="G64" s="12"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="6">
@@ -1627,7 +1630,7 @@
       <c r="F65" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="10"/>
+      <c r="G65" s="12"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="6">
@@ -1645,7 +1648,7 @@
       <c r="F66" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="10"/>
+      <c r="G66" s="12"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="6">
@@ -1663,7 +1666,7 @@
       <c r="F67" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="10"/>
+      <c r="G67" s="12"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="6">
@@ -1681,7 +1684,7 @@
       <c r="F68" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="10"/>
+      <c r="G68" s="12"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="6">
@@ -1699,7 +1702,7 @@
       <c r="F69" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G69" s="10"/>
+      <c r="G69" s="12"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="6">
@@ -1717,7 +1720,7 @@
       <c r="F70" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="10"/>
+      <c r="G70" s="12"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="6">
@@ -1735,7 +1738,7 @@
       <c r="F71" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G71" s="10"/>
+      <c r="G71" s="12"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="4" t="s">
@@ -1753,7 +1756,7 @@
       <c r="F72" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G72" s="10"/>
+      <c r="G72" s="12"/>
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="4" t="s">
@@ -1771,7 +1774,7 @@
       <c r="F73" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G73" s="11"/>
+      <c r="G73" s="13"/>
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="1" t="s">
@@ -1809,7 +1812,7 @@
       <c r="F76" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="G76" s="11" t="s">
         <v>14</v>
       </c>
       <c r="I76" s="8"/>
@@ -1830,7 +1833,7 @@
       <c r="F77" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="10"/>
+      <c r="G77" s="12"/>
       <c r="I77" s="8"/>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
@@ -1849,7 +1852,7 @@
       <c r="F78" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G78" s="10"/>
+      <c r="G78" s="12"/>
       <c r="I78" s="8"/>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
@@ -1868,7 +1871,7 @@
       <c r="F79" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G79" s="10"/>
+      <c r="G79" s="12"/>
       <c r="I79" s="8"/>
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
@@ -1887,7 +1890,7 @@
       <c r="F80" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G80" s="10"/>
+      <c r="G80" s="12"/>
       <c r="I80" s="8"/>
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
@@ -1906,7 +1909,7 @@
       <c r="F81" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="10"/>
+      <c r="G81" s="12"/>
       <c r="I81" s="8"/>
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
@@ -1925,7 +1928,7 @@
       <c r="F82" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G82" s="10"/>
+      <c r="G82" s="12"/>
       <c r="I82" s="8"/>
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
@@ -1944,7 +1947,7 @@
       <c r="F83" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="10"/>
+      <c r="G83" s="12"/>
       <c r="I83" s="8"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
@@ -1963,7 +1966,7 @@
       <c r="F84" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G84" s="10"/>
+      <c r="G84" s="12"/>
       <c r="I84" s="8"/>
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
@@ -1982,7 +1985,7 @@
       <c r="F85" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G85" s="10"/>
+      <c r="G85" s="12"/>
       <c r="I85" s="8"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
@@ -2001,7 +2004,7 @@
       <c r="F86" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G86" s="10"/>
+      <c r="G86" s="12"/>
       <c r="I86" s="8"/>
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
@@ -2020,7 +2023,7 @@
       <c r="F87" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="10"/>
+      <c r="G87" s="12"/>
       <c r="I87" s="8"/>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
@@ -2039,7 +2042,7 @@
       <c r="F88" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G88" s="10"/>
+      <c r="G88" s="12"/>
       <c r="I88" s="8"/>
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
@@ -2058,7 +2061,7 @@
       <c r="F89" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="10"/>
+      <c r="G89" s="12"/>
       <c r="I89" s="8"/>
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
@@ -2077,7 +2080,7 @@
       <c r="F90" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G90" s="10"/>
+      <c r="G90" s="12"/>
       <c r="I90" s="8"/>
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
@@ -2096,7 +2099,7 @@
       <c r="F91" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="10"/>
+      <c r="G91" s="12"/>
       <c r="I91" s="8"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
@@ -2115,7 +2118,7 @@
       <c r="F92" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G92" s="10"/>
+      <c r="G92" s="12"/>
       <c r="I92" s="8"/>
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
@@ -2134,7 +2137,7 @@
       <c r="F93" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="10"/>
+      <c r="G93" s="12"/>
       <c r="I93" s="8"/>
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
@@ -2153,7 +2156,7 @@
       <c r="F94" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="10"/>
+      <c r="G94" s="12"/>
       <c r="I94" s="8"/>
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
@@ -2172,7 +2175,7 @@
       <c r="F95" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G95" s="10"/>
+      <c r="G95" s="12"/>
       <c r="I95" s="8"/>
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
@@ -2191,7 +2194,7 @@
       <c r="F96" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="10"/>
+      <c r="G96" s="12"/>
       <c r="I96" s="8"/>
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
@@ -2210,7 +2213,7 @@
       <c r="F97" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G97" s="10"/>
+      <c r="G97" s="12"/>
       <c r="I97" s="8"/>
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
@@ -2229,7 +2232,7 @@
       <c r="F98" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G98" s="10"/>
+      <c r="G98" s="12"/>
       <c r="I98" s="8"/>
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
@@ -2248,7 +2251,7 @@
       <c r="F99" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="10"/>
+      <c r="G99" s="12"/>
       <c r="I99" s="8"/>
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
@@ -2267,7 +2270,7 @@
       <c r="F100" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="10"/>
+      <c r="G100" s="12"/>
       <c r="I100" s="8"/>
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
@@ -2286,7 +2289,7 @@
       <c r="F101" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="10"/>
+      <c r="G101" s="12"/>
       <c r="I101" s="8"/>
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
@@ -2305,7 +2308,7 @@
       <c r="F102" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="10"/>
+      <c r="G102" s="12"/>
       <c r="I102" s="8"/>
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
@@ -2324,7 +2327,7 @@
       <c r="F103" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G103" s="10"/>
+      <c r="G103" s="12"/>
       <c r="I103" s="8"/>
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
@@ -2343,7 +2346,7 @@
       <c r="F104" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G104" s="10"/>
+      <c r="G104" s="12"/>
       <c r="I104" s="8"/>
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
@@ -2362,7 +2365,7 @@
       <c r="F105" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G105" s="10"/>
+      <c r="G105" s="12"/>
       <c r="I105" s="8"/>
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
@@ -2381,7 +2384,7 @@
       <c r="F106" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G106" s="10"/>
+      <c r="G106" s="12"/>
       <c r="I106" s="8"/>
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
@@ -2400,7 +2403,7 @@
       <c r="F107" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G107" s="10"/>
+      <c r="G107" s="12"/>
       <c r="I107" s="8"/>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
@@ -2419,7 +2422,7 @@
       <c r="F108" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G108" s="10"/>
+      <c r="G108" s="12"/>
       <c r="I108" s="8"/>
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
@@ -2438,7 +2441,7 @@
       <c r="F109" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G109" s="10"/>
+      <c r="G109" s="12"/>
       <c r="I109" s="8"/>
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
@@ -2457,7 +2460,7 @@
       <c r="F110" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G110" s="10"/>
+      <c r="G110" s="12"/>
       <c r="I110" s="8"/>
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
@@ -2476,7 +2479,7 @@
       <c r="F111" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G111" s="10"/>
+      <c r="G111" s="12"/>
       <c r="I111" s="8"/>
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
@@ -2495,7 +2498,7 @@
       <c r="F112" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G112" s="10"/>
+      <c r="G112" s="12"/>
       <c r="I112" s="8"/>
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
@@ -2514,7 +2517,7 @@
       <c r="F113" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G113" s="10"/>
+      <c r="G113" s="12"/>
       <c r="I113" s="8"/>
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
@@ -2533,7 +2536,7 @@
       <c r="F114" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G114" s="10"/>
+      <c r="G114" s="12"/>
       <c r="I114" s="8"/>
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
@@ -2552,7 +2555,7 @@
       <c r="F115" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G115" s="10"/>
+      <c r="G115" s="12"/>
       <c r="I115" s="8"/>
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
@@ -2571,7 +2574,7 @@
       <c r="F116" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G116" s="10"/>
+      <c r="G116" s="12"/>
       <c r="I116" s="8"/>
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
@@ -2590,7 +2593,7 @@
       <c r="F117" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G117" s="10"/>
+      <c r="G117" s="12"/>
       <c r="I117" s="8"/>
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
@@ -2609,7 +2612,7 @@
       <c r="F118" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G118" s="10"/>
+      <c r="G118" s="12"/>
       <c r="I118" s="8"/>
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
@@ -2628,7 +2631,7 @@
       <c r="F119" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G119" s="10"/>
+      <c r="G119" s="12"/>
       <c r="I119" s="8"/>
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
@@ -2647,7 +2650,7 @@
       <c r="F120" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G120" s="10"/>
+      <c r="G120" s="12"/>
       <c r="I120" s="8"/>
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
@@ -2666,7 +2669,7 @@
       <c r="F121" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G121" s="10"/>
+      <c r="G121" s="12"/>
       <c r="I121" s="8"/>
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
@@ -2685,7 +2688,7 @@
       <c r="F122" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G122" s="10"/>
+      <c r="G122" s="12"/>
       <c r="I122" s="8"/>
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
@@ -2704,7 +2707,7 @@
       <c r="F123" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G123" s="10"/>
+      <c r="G123" s="12"/>
       <c r="I123" s="8"/>
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
@@ -2723,7 +2726,7 @@
       <c r="F124" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G124" s="10"/>
+      <c r="G124" s="12"/>
       <c r="I124" s="8"/>
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
@@ -2742,7 +2745,7 @@
       <c r="F125" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G125" s="10"/>
+      <c r="G125" s="12"/>
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" s="4" t="s">
@@ -2760,7 +2763,7 @@
       <c r="F126" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G126" s="11"/>
+      <c r="G126" s="13"/>
     </row>
     <row r="129" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B129" s="1" t="s">
@@ -2798,7 +2801,7 @@
       <c r="F130" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G130" s="9" t="s">
+      <c r="G130" s="11" t="s">
         <v>15</v>
       </c>
       <c r="J130" s="8"/>
@@ -2819,7 +2822,7 @@
       <c r="F131" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G131" s="10"/>
+      <c r="G131" s="12"/>
     </row>
     <row r="132" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B132" s="4">
@@ -2837,7 +2840,7 @@
       <c r="F132" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G132" s="10"/>
+      <c r="G132" s="12"/>
     </row>
     <row r="133" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B133" s="4">
@@ -2855,7 +2858,7 @@
       <c r="F133" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G133" s="10"/>
+      <c r="G133" s="12"/>
     </row>
     <row r="134" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B134" s="4">
@@ -2873,7 +2876,7 @@
       <c r="F134" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G134" s="10"/>
+      <c r="G134" s="12"/>
     </row>
     <row r="135" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B135" s="4">
@@ -2891,7 +2894,7 @@
       <c r="F135" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G135" s="10"/>
+      <c r="G135" s="12"/>
     </row>
     <row r="136" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B136" s="4">
@@ -2909,7 +2912,7 @@
       <c r="F136" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G136" s="10"/>
+      <c r="G136" s="12"/>
     </row>
     <row r="137" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B137" s="4">
@@ -2927,7 +2930,7 @@
       <c r="F137" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G137" s="10"/>
+      <c r="G137" s="12"/>
     </row>
     <row r="138" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B138" s="6">
@@ -2945,7 +2948,7 @@
       <c r="F138" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G138" s="10"/>
+      <c r="G138" s="12"/>
     </row>
     <row r="139" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B139" s="6">
@@ -2963,7 +2966,7 @@
       <c r="F139" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G139" s="10"/>
+      <c r="G139" s="12"/>
     </row>
     <row r="140" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B140" s="6">
@@ -2981,7 +2984,7 @@
       <c r="F140" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G140" s="10"/>
+      <c r="G140" s="12"/>
     </row>
     <row r="141" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B141" s="6">
@@ -2999,7 +3002,7 @@
       <c r="F141" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G141" s="10"/>
+      <c r="G141" s="12"/>
     </row>
     <row r="142" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B142" s="6">
@@ -3017,7 +3020,7 @@
       <c r="F142" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G142" s="10"/>
+      <c r="G142" s="12"/>
     </row>
     <row r="143" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B143" s="6">
@@ -3035,7 +3038,7 @@
       <c r="F143" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G143" s="10"/>
+      <c r="G143" s="12"/>
     </row>
     <row r="144" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B144" s="6">
@@ -3053,7 +3056,7 @@
       <c r="F144" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G144" s="10"/>
+      <c r="G144" s="12"/>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="6">
@@ -3071,7 +3074,7 @@
       <c r="F145" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G145" s="10"/>
+      <c r="G145" s="12"/>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="6">
@@ -3089,7 +3092,7 @@
       <c r="F146" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G146" s="10"/>
+      <c r="G146" s="12"/>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="6">
@@ -3107,7 +3110,7 @@
       <c r="F147" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G147" s="10"/>
+      <c r="G147" s="12"/>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" s="6">
@@ -3125,7 +3128,7 @@
       <c r="F148" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G148" s="10"/>
+      <c r="G148" s="12"/>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="6">
@@ -3143,7 +3146,7 @@
       <c r="F149" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G149" s="10"/>
+      <c r="G149" s="12"/>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" s="6">
@@ -3161,7 +3164,7 @@
       <c r="F150" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G150" s="10"/>
+      <c r="G150" s="12"/>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" s="6">
@@ -3179,7 +3182,7 @@
       <c r="F151" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G151" s="10"/>
+      <c r="G151" s="12"/>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" s="6">
@@ -3197,7 +3200,7 @@
       <c r="F152" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G152" s="10"/>
+      <c r="G152" s="12"/>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" s="6">
@@ -3215,7 +3218,7 @@
       <c r="F153" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G153" s="10"/>
+      <c r="G153" s="12"/>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154" s="6">
@@ -3233,7 +3236,7 @@
       <c r="F154" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G154" s="10"/>
+      <c r="G154" s="12"/>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B155" s="6">
@@ -3251,7 +3254,7 @@
       <c r="F155" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G155" s="10"/>
+      <c r="G155" s="12"/>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" s="6">
@@ -3269,7 +3272,7 @@
       <c r="F156" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G156" s="10"/>
+      <c r="G156" s="12"/>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="6">
@@ -3287,7 +3290,7 @@
       <c r="F157" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G157" s="10"/>
+      <c r="G157" s="12"/>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="6">
@@ -3305,7 +3308,7 @@
       <c r="F158" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G158" s="10"/>
+      <c r="G158" s="12"/>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" s="6">
@@ -3323,7 +3326,7 @@
       <c r="F159" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G159" s="10"/>
+      <c r="G159" s="12"/>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160" s="6">
@@ -3341,7 +3344,7 @@
       <c r="F160" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G160" s="10"/>
+      <c r="G160" s="12"/>
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B161" s="6">
@@ -3359,7 +3362,7 @@
       <c r="F161" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G161" s="10"/>
+      <c r="G161" s="12"/>
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="6">
@@ -3377,7 +3380,7 @@
       <c r="F162" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G162" s="10"/>
+      <c r="G162" s="12"/>
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" s="6">
@@ -3395,7 +3398,7 @@
       <c r="F163" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G163" s="10"/>
+      <c r="G163" s="12"/>
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" s="6">
@@ -3413,7 +3416,7 @@
       <c r="F164" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G164" s="10"/>
+      <c r="G164" s="12"/>
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165" s="6">
@@ -3431,7 +3434,7 @@
       <c r="F165" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G165" s="10"/>
+      <c r="G165" s="12"/>
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166" s="6">
@@ -3449,7 +3452,7 @@
       <c r="F166" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G166" s="10"/>
+      <c r="G166" s="12"/>
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" s="6">
@@ -3467,7 +3470,7 @@
       <c r="F167" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G167" s="10"/>
+      <c r="G167" s="12"/>
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168" s="6">
@@ -3485,7 +3488,7 @@
       <c r="F168" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G168" s="10"/>
+      <c r="G168" s="12"/>
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B169" s="6">
@@ -3503,7 +3506,7 @@
       <c r="F169" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G169" s="10"/>
+      <c r="G169" s="12"/>
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" s="6">
@@ -3521,7 +3524,7 @@
       <c r="F170" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G170" s="10"/>
+      <c r="G170" s="12"/>
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171" s="6">
@@ -3539,7 +3542,7 @@
       <c r="F171" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G171" s="10"/>
+      <c r="G171" s="12"/>
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" s="6">
@@ -3557,7 +3560,7 @@
       <c r="F172" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G172" s="10"/>
+      <c r="G172" s="12"/>
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" s="6">
@@ -3575,7 +3578,7 @@
       <c r="F173" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G173" s="10"/>
+      <c r="G173" s="12"/>
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174" s="6">
@@ -3593,7 +3596,7 @@
       <c r="F174" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G174" s="10"/>
+      <c r="G174" s="12"/>
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B175" s="6">
@@ -3611,7 +3614,7 @@
       <c r="F175" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G175" s="10"/>
+      <c r="G175" s="12"/>
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176" s="6">
@@ -3629,7 +3632,7 @@
       <c r="F176" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G176" s="10"/>
+      <c r="G176" s="12"/>
     </row>
     <row r="177" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B177" s="6">
@@ -3647,7 +3650,7 @@
       <c r="F177" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G177" s="10"/>
+      <c r="G177" s="12"/>
     </row>
     <row r="178" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B178" s="6">
@@ -3665,7 +3668,7 @@
       <c r="F178" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G178" s="10"/>
+      <c r="G178" s="12"/>
     </row>
     <row r="179" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B179" s="4" t="s">
@@ -3683,7 +3686,7 @@
       <c r="F179" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G179" s="10"/>
+      <c r="G179" s="12"/>
     </row>
     <row r="180" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B180" s="4" t="s">
@@ -3701,7 +3704,7 @@
       <c r="F180" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G180" s="11"/>
+      <c r="G180" s="13"/>
     </row>
     <row r="182" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B182" s="1" t="s">
@@ -3739,7 +3742,7 @@
       <c r="F183" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G183" s="9" t="s">
+      <c r="G183" s="11" t="s">
         <v>16</v>
       </c>
       <c r="J183" s="8"/>
@@ -3760,7 +3763,7 @@
       <c r="F184" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G184" s="10"/>
+      <c r="G184" s="12"/>
     </row>
     <row r="185" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B185" s="4">
@@ -3778,7 +3781,7 @@
       <c r="F185" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G185" s="10"/>
+      <c r="G185" s="12"/>
     </row>
     <row r="186" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B186" s="4">
@@ -3796,7 +3799,7 @@
       <c r="F186" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G186" s="10"/>
+      <c r="G186" s="12"/>
     </row>
     <row r="187" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B187" s="4">
@@ -3814,7 +3817,7 @@
       <c r="F187" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G187" s="10"/>
+      <c r="G187" s="12"/>
     </row>
     <row r="188" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B188" s="4">
@@ -3832,7 +3835,7 @@
       <c r="F188" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G188" s="10"/>
+      <c r="G188" s="12"/>
     </row>
     <row r="189" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B189" s="4">
@@ -3850,7 +3853,7 @@
       <c r="F189" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G189" s="10"/>
+      <c r="G189" s="12"/>
     </row>
     <row r="190" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B190" s="4">
@@ -3868,7 +3871,7 @@
       <c r="F190" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G190" s="10"/>
+      <c r="G190" s="12"/>
     </row>
     <row r="191" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B191" s="6">
@@ -3886,7 +3889,7 @@
       <c r="F191" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G191" s="10"/>
+      <c r="G191" s="12"/>
     </row>
     <row r="192" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B192" s="6">
@@ -3904,7 +3907,7 @@
       <c r="F192" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G192" s="10"/>
+      <c r="G192" s="12"/>
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B193" s="6">
@@ -3922,7 +3925,7 @@
       <c r="F193" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G193" s="10"/>
+      <c r="G193" s="12"/>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B194" s="6">
@@ -3940,7 +3943,7 @@
       <c r="F194" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G194" s="10"/>
+      <c r="G194" s="12"/>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B195" s="6">
@@ -3958,7 +3961,7 @@
       <c r="F195" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G195" s="10"/>
+      <c r="G195" s="12"/>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B196" s="6">
@@ -3976,7 +3979,7 @@
       <c r="F196" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G196" s="10"/>
+      <c r="G196" s="12"/>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B197" s="6">
@@ -3994,7 +3997,7 @@
       <c r="F197" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G197" s="10"/>
+      <c r="G197" s="12"/>
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B198" s="6">
@@ -4012,7 +4015,7 @@
       <c r="F198" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G198" s="10"/>
+      <c r="G198" s="12"/>
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B199" s="6">
@@ -4030,7 +4033,7 @@
       <c r="F199" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G199" s="10"/>
+      <c r="G199" s="12"/>
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B200" s="6">
@@ -4048,7 +4051,7 @@
       <c r="F200" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G200" s="10"/>
+      <c r="G200" s="12"/>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B201" s="6">
@@ -4066,7 +4069,7 @@
       <c r="F201" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G201" s="10"/>
+      <c r="G201" s="12"/>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B202" s="6">
@@ -4084,7 +4087,7 @@
       <c r="F202" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G202" s="10"/>
+      <c r="G202" s="12"/>
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B203" s="6">
@@ -4102,7 +4105,7 @@
       <c r="F203" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G203" s="10"/>
+      <c r="G203" s="12"/>
     </row>
     <row r="204" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B204" s="6">
@@ -4120,7 +4123,7 @@
       <c r="F204" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G204" s="10"/>
+      <c r="G204" s="12"/>
     </row>
     <row r="205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B205" s="6">
@@ -4138,7 +4141,7 @@
       <c r="F205" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G205" s="10"/>
+      <c r="G205" s="12"/>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B206" s="6">
@@ -4156,7 +4159,7 @@
       <c r="F206" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G206" s="10"/>
+      <c r="G206" s="12"/>
     </row>
     <row r="207" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B207" s="6">
@@ -4174,7 +4177,7 @@
       <c r="F207" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G207" s="10"/>
+      <c r="G207" s="12"/>
     </row>
     <row r="208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B208" s="6">
@@ -4192,7 +4195,7 @@
       <c r="F208" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G208" s="10"/>
+      <c r="G208" s="12"/>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B209" s="6">
@@ -4210,7 +4213,7 @@
       <c r="F209" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G209" s="10"/>
+      <c r="G209" s="12"/>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B210" s="6">
@@ -4228,7 +4231,7 @@
       <c r="F210" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G210" s="10"/>
+      <c r="G210" s="12"/>
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B211" s="6">
@@ -4246,7 +4249,7 @@
       <c r="F211" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G211" s="10"/>
+      <c r="G211" s="12"/>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B212" s="6">
@@ -4264,7 +4267,7 @@
       <c r="F212" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G212" s="10"/>
+      <c r="G212" s="12"/>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B213" s="6">
@@ -4282,7 +4285,7 @@
       <c r="F213" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G213" s="10"/>
+      <c r="G213" s="12"/>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" s="6">
@@ -4300,7 +4303,7 @@
       <c r="F214" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G214" s="10"/>
+      <c r="G214" s="12"/>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B215" s="6">
@@ -4318,7 +4321,7 @@
       <c r="F215" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G215" s="10"/>
+      <c r="G215" s="12"/>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B216" s="6">
@@ -4336,7 +4339,7 @@
       <c r="F216" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G216" s="10"/>
+      <c r="G216" s="12"/>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B217" s="6">
@@ -4354,7 +4357,7 @@
       <c r="F217" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G217" s="10"/>
+      <c r="G217" s="12"/>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B218" s="6">
@@ -4372,7 +4375,7 @@
       <c r="F218" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G218" s="10"/>
+      <c r="G218" s="12"/>
     </row>
     <row r="219" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B219" s="6">
@@ -4390,7 +4393,7 @@
       <c r="F219" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G219" s="10"/>
+      <c r="G219" s="12"/>
     </row>
     <row r="220" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B220" s="6">
@@ -4408,7 +4411,7 @@
       <c r="F220" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G220" s="10"/>
+      <c r="G220" s="12"/>
     </row>
     <row r="221" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B221" s="6">
@@ -4426,7 +4429,7 @@
       <c r="F221" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G221" s="10"/>
+      <c r="G221" s="12"/>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B222" s="6">
@@ -4444,7 +4447,7 @@
       <c r="F222" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G222" s="10"/>
+      <c r="G222" s="12"/>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B223" s="6">
@@ -4462,7 +4465,7 @@
       <c r="F223" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G223" s="10"/>
+      <c r="G223" s="12"/>
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B224" s="6">
@@ -4480,7 +4483,7 @@
       <c r="F224" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G224" s="10"/>
+      <c r="G224" s="12"/>
     </row>
     <row r="225" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B225" s="6">
@@ -4498,7 +4501,7 @@
       <c r="F225" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G225" s="10"/>
+      <c r="G225" s="12"/>
     </row>
     <row r="226" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B226" s="6">
@@ -4516,7 +4519,7 @@
       <c r="F226" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G226" s="10"/>
+      <c r="G226" s="12"/>
     </row>
     <row r="227" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B227" s="6">
@@ -4534,7 +4537,7 @@
       <c r="F227" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G227" s="10"/>
+      <c r="G227" s="12"/>
     </row>
     <row r="228" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B228" s="6">
@@ -4552,7 +4555,7 @@
       <c r="F228" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G228" s="10"/>
+      <c r="G228" s="12"/>
     </row>
     <row r="229" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B229" s="6">
@@ -4570,7 +4573,7 @@
       <c r="F229" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G229" s="10"/>
+      <c r="G229" s="12"/>
     </row>
     <row r="230" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B230" s="6">
@@ -4588,7 +4591,7 @@
       <c r="F230" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G230" s="10"/>
+      <c r="G230" s="12"/>
     </row>
     <row r="231" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B231" s="6">
@@ -4606,7 +4609,7 @@
       <c r="F231" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G231" s="10"/>
+      <c r="G231" s="12"/>
     </row>
     <row r="232" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B232" s="4" t="s">
@@ -4624,7 +4627,7 @@
       <c r="F232" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G232" s="10"/>
+      <c r="G232" s="12"/>
     </row>
     <row r="233" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B233" s="4" t="s">
@@ -4642,7 +4645,7 @@
       <c r="F233" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G233" s="11"/>
+      <c r="G233" s="13"/>
     </row>
     <row r="235" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B235" s="1" t="s">
@@ -4680,7 +4683,7 @@
       <c r="F236" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G236" s="9" t="s">
+      <c r="G236" s="11" t="s">
         <v>17</v>
       </c>
       <c r="I236" s="8"/>
@@ -4701,7 +4704,7 @@
       <c r="F237" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G237" s="10"/>
+      <c r="G237" s="12"/>
     </row>
     <row r="238" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B238" s="4">
@@ -4719,7 +4722,7 @@
       <c r="F238" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G238" s="10"/>
+      <c r="G238" s="12"/>
     </row>
     <row r="239" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B239" s="4">
@@ -4737,7 +4740,7 @@
       <c r="F239" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G239" s="10"/>
+      <c r="G239" s="12"/>
     </row>
     <row r="240" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B240" s="4">
@@ -4755,7 +4758,7 @@
       <c r="F240" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G240" s="10"/>
+      <c r="G240" s="12"/>
     </row>
     <row r="241" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B241" s="4">
@@ -4773,7 +4776,7 @@
       <c r="F241" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G241" s="10"/>
+      <c r="G241" s="12"/>
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B242" s="4">
@@ -4791,7 +4794,7 @@
       <c r="F242" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G242" s="10"/>
+      <c r="G242" s="12"/>
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B243" s="4">
@@ -4809,7 +4812,7 @@
       <c r="F243" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G243" s="10"/>
+      <c r="G243" s="12"/>
     </row>
     <row r="244" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B244" s="6">
@@ -4827,7 +4830,7 @@
       <c r="F244" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G244" s="10"/>
+      <c r="G244" s="12"/>
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B245" s="6">
@@ -4845,7 +4848,7 @@
       <c r="F245" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G245" s="10"/>
+      <c r="G245" s="12"/>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B246" s="6">
@@ -4863,7 +4866,7 @@
       <c r="F246" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G246" s="10"/>
+      <c r="G246" s="12"/>
     </row>
     <row r="247" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B247" s="6">
@@ -4881,7 +4884,7 @@
       <c r="F247" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G247" s="10"/>
+      <c r="G247" s="12"/>
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B248" s="6">
@@ -4899,7 +4902,7 @@
       <c r="F248" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G248" s="10"/>
+      <c r="G248" s="12"/>
     </row>
     <row r="249" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B249" s="6">
@@ -4917,7 +4920,7 @@
       <c r="F249" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G249" s="10"/>
+      <c r="G249" s="12"/>
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B250" s="6">
@@ -4935,7 +4938,7 @@
       <c r="F250" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G250" s="10"/>
+      <c r="G250" s="12"/>
     </row>
     <row r="251" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B251" s="6">
@@ -4953,7 +4956,7 @@
       <c r="F251" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G251" s="10"/>
+      <c r="G251" s="12"/>
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B252" s="6">
@@ -4971,7 +4974,7 @@
       <c r="F252" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G252" s="10"/>
+      <c r="G252" s="12"/>
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B253" s="6">
@@ -4989,7 +4992,7 @@
       <c r="F253" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G253" s="10"/>
+      <c r="G253" s="12"/>
     </row>
     <row r="254" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B254" s="6">
@@ -5007,7 +5010,7 @@
       <c r="F254" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G254" s="10"/>
+      <c r="G254" s="12"/>
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B255" s="6">
@@ -5025,7 +5028,7 @@
       <c r="F255" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G255" s="10"/>
+      <c r="G255" s="12"/>
     </row>
     <row r="256" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B256" s="6">
@@ -5043,7 +5046,7 @@
       <c r="F256" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G256" s="10"/>
+      <c r="G256" s="12"/>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B257" s="6">
@@ -5061,7 +5064,7 @@
       <c r="F257" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G257" s="10"/>
+      <c r="G257" s="12"/>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B258" s="6">
@@ -5079,7 +5082,7 @@
       <c r="F258" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G258" s="10"/>
+      <c r="G258" s="12"/>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B259" s="6">
@@ -5097,7 +5100,7 @@
       <c r="F259" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G259" s="10"/>
+      <c r="G259" s="12"/>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B260" s="6">
@@ -5115,7 +5118,7 @@
       <c r="F260" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G260" s="10"/>
+      <c r="G260" s="12"/>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B261" s="6">
@@ -5133,7 +5136,7 @@
       <c r="F261" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G261" s="10"/>
+      <c r="G261" s="12"/>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B262" s="6">
@@ -5151,7 +5154,7 @@
       <c r="F262" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G262" s="10"/>
+      <c r="G262" s="12"/>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B263" s="6">
@@ -5169,7 +5172,7 @@
       <c r="F263" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G263" s="10"/>
+      <c r="G263" s="12"/>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B264" s="6">
@@ -5187,7 +5190,7 @@
       <c r="F264" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G264" s="10"/>
+      <c r="G264" s="12"/>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B265" s="6">
@@ -5205,7 +5208,7 @@
       <c r="F265" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G265" s="10"/>
+      <c r="G265" s="12"/>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B266" s="6">
@@ -5223,7 +5226,7 @@
       <c r="F266" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G266" s="10"/>
+      <c r="G266" s="12"/>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B267" s="6">
@@ -5241,7 +5244,7 @@
       <c r="F267" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G267" s="10"/>
+      <c r="G267" s="12"/>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B268" s="6">
@@ -5259,7 +5262,7 @@
       <c r="F268" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G268" s="10"/>
+      <c r="G268" s="12"/>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B269" s="6">
@@ -5277,7 +5280,7 @@
       <c r="F269" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G269" s="10"/>
+      <c r="G269" s="12"/>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B270" s="6">
@@ -5295,7 +5298,7 @@
       <c r="F270" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G270" s="10"/>
+      <c r="G270" s="12"/>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B271" s="6">
@@ -5313,7 +5316,7 @@
       <c r="F271" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G271" s="10"/>
+      <c r="G271" s="12"/>
     </row>
     <row r="272" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B272" s="6">
@@ -5331,7 +5334,7 @@
       <c r="F272" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G272" s="10"/>
+      <c r="G272" s="12"/>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B273" s="6">
@@ -5349,7 +5352,7 @@
       <c r="F273" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G273" s="10"/>
+      <c r="G273" s="12"/>
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B274" s="6">
@@ -5367,7 +5370,7 @@
       <c r="F274" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G274" s="10"/>
+      <c r="G274" s="12"/>
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B275" s="6">
@@ -5385,7 +5388,7 @@
       <c r="F275" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G275" s="10"/>
+      <c r="G275" s="12"/>
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B276" s="6">
@@ -5403,7 +5406,7 @@
       <c r="F276" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G276" s="10"/>
+      <c r="G276" s="12"/>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B277" s="6">
@@ -5421,7 +5424,7 @@
       <c r="F277" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G277" s="10"/>
+      <c r="G277" s="12"/>
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B278" s="6">
@@ -5439,7 +5442,7 @@
       <c r="F278" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G278" s="10"/>
+      <c r="G278" s="12"/>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B279" s="6">
@@ -5457,7 +5460,7 @@
       <c r="F279" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G279" s="10"/>
+      <c r="G279" s="12"/>
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B280" s="6">
@@ -5475,7 +5478,7 @@
       <c r="F280" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G280" s="10"/>
+      <c r="G280" s="12"/>
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B281" s="6">
@@ -5493,7 +5496,7 @@
       <c r="F281" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G281" s="10"/>
+      <c r="G281" s="12"/>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B282" s="6">
@@ -5511,7 +5514,7 @@
       <c r="F282" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G282" s="10"/>
+      <c r="G282" s="12"/>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B283" s="6">
@@ -5529,7 +5532,7 @@
       <c r="F283" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G283" s="10"/>
+      <c r="G283" s="12"/>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B284" s="6">
@@ -5547,7 +5550,7 @@
       <c r="F284" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G284" s="10"/>
+      <c r="G284" s="12"/>
     </row>
     <row r="285" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B285" s="4" t="s">
@@ -5565,7 +5568,7 @@
       <c r="F285" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G285" s="10"/>
+      <c r="G285" s="12"/>
     </row>
     <row r="286" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B286" s="4" t="s">
@@ -5583,7 +5586,7 @@
       <c r="F286" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G286" s="11"/>
+      <c r="G286" s="13"/>
     </row>
     <row r="288" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B288" s="1" t="s">
@@ -5621,7 +5624,7 @@
       <c r="F289" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G289" s="9" t="s">
+      <c r="G289" s="11" t="s">
         <v>18</v>
       </c>
       <c r="I289" s="8"/>
@@ -5642,7 +5645,7 @@
       <c r="F290" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G290" s="10"/>
+      <c r="G290" s="12"/>
     </row>
     <row r="291" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B291" s="4">
@@ -5660,7 +5663,7 @@
       <c r="F291" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G291" s="10"/>
+      <c r="G291" s="12"/>
     </row>
     <row r="292" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B292" s="4">
@@ -5678,7 +5681,7 @@
       <c r="F292" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G292" s="10"/>
+      <c r="G292" s="12"/>
     </row>
     <row r="293" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B293" s="4">
@@ -5696,7 +5699,7 @@
       <c r="F293" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G293" s="10"/>
+      <c r="G293" s="12"/>
     </row>
     <row r="294" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B294" s="4">
@@ -5714,7 +5717,7 @@
       <c r="F294" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G294" s="10"/>
+      <c r="G294" s="12"/>
     </row>
     <row r="295" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B295" s="4">
@@ -5732,7 +5735,7 @@
       <c r="F295" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G295" s="10"/>
+      <c r="G295" s="12"/>
     </row>
     <row r="296" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B296" s="4">
@@ -5750,7 +5753,7 @@
       <c r="F296" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G296" s="10"/>
+      <c r="G296" s="12"/>
     </row>
     <row r="297" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B297" s="6">
@@ -5768,7 +5771,7 @@
       <c r="F297" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G297" s="10"/>
+      <c r="G297" s="12"/>
     </row>
     <row r="298" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B298" s="6">
@@ -5786,7 +5789,7 @@
       <c r="F298" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G298" s="10"/>
+      <c r="G298" s="12"/>
     </row>
     <row r="299" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B299" s="6">
@@ -5804,7 +5807,7 @@
       <c r="F299" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G299" s="10"/>
+      <c r="G299" s="12"/>
     </row>
     <row r="300" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B300" s="6">
@@ -5822,7 +5825,7 @@
       <c r="F300" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G300" s="10"/>
+      <c r="G300" s="12"/>
     </row>
     <row r="301" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B301" s="6">
@@ -5840,7 +5843,7 @@
       <c r="F301" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G301" s="10"/>
+      <c r="G301" s="12"/>
     </row>
     <row r="302" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B302" s="6">
@@ -5858,7 +5861,7 @@
       <c r="F302" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G302" s="10"/>
+      <c r="G302" s="12"/>
     </row>
     <row r="303" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B303" s="6">
@@ -5876,7 +5879,7 @@
       <c r="F303" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G303" s="10"/>
+      <c r="G303" s="12"/>
     </row>
     <row r="304" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B304" s="6">
@@ -5894,7 +5897,7 @@
       <c r="F304" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G304" s="10"/>
+      <c r="G304" s="12"/>
     </row>
     <row r="305" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B305" s="6">
@@ -5912,7 +5915,7 @@
       <c r="F305" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G305" s="10"/>
+      <c r="G305" s="12"/>
     </row>
     <row r="306" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B306" s="6">
@@ -5930,7 +5933,7 @@
       <c r="F306" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G306" s="10"/>
+      <c r="G306" s="12"/>
     </row>
     <row r="307" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B307" s="6">
@@ -5948,7 +5951,7 @@
       <c r="F307" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G307" s="10"/>
+      <c r="G307" s="12"/>
     </row>
     <row r="308" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B308" s="6">
@@ -5966,7 +5969,7 @@
       <c r="F308" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G308" s="10"/>
+      <c r="G308" s="12"/>
     </row>
     <row r="309" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B309" s="6">
@@ -5984,7 +5987,7 @@
       <c r="F309" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G309" s="10"/>
+      <c r="G309" s="12"/>
     </row>
     <row r="310" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B310" s="6">
@@ -6002,7 +6005,7 @@
       <c r="F310" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G310" s="10"/>
+      <c r="G310" s="12"/>
     </row>
     <row r="311" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B311" s="6">
@@ -6020,7 +6023,7 @@
       <c r="F311" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G311" s="10"/>
+      <c r="G311" s="12"/>
     </row>
     <row r="312" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B312" s="6">
@@ -6038,7 +6041,7 @@
       <c r="F312" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G312" s="10"/>
+      <c r="G312" s="12"/>
     </row>
     <row r="313" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B313" s="6">
@@ -6056,7 +6059,7 @@
       <c r="F313" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G313" s="10"/>
+      <c r="G313" s="12"/>
     </row>
     <row r="314" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B314" s="6">
@@ -6074,7 +6077,7 @@
       <c r="F314" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G314" s="10"/>
+      <c r="G314" s="12"/>
     </row>
     <row r="315" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B315" s="6">
@@ -6092,7 +6095,7 @@
       <c r="F315" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G315" s="10"/>
+      <c r="G315" s="12"/>
     </row>
     <row r="316" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B316" s="6">
@@ -6110,7 +6113,7 @@
       <c r="F316" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G316" s="10"/>
+      <c r="G316" s="12"/>
     </row>
     <row r="317" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B317" s="6">
@@ -6128,7 +6131,7 @@
       <c r="F317" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G317" s="10"/>
+      <c r="G317" s="12"/>
     </row>
     <row r="318" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B318" s="6">
@@ -6146,7 +6149,7 @@
       <c r="F318" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G318" s="10"/>
+      <c r="G318" s="12"/>
     </row>
     <row r="319" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B319" s="6">
@@ -6164,7 +6167,7 @@
       <c r="F319" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G319" s="10"/>
+      <c r="G319" s="12"/>
     </row>
     <row r="320" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B320" s="6">
@@ -6182,7 +6185,7 @@
       <c r="F320" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G320" s="10"/>
+      <c r="G320" s="12"/>
     </row>
     <row r="321" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B321" s="6">
@@ -6200,7 +6203,7 @@
       <c r="F321" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G321" s="10"/>
+      <c r="G321" s="12"/>
     </row>
     <row r="322" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B322" s="6">
@@ -6218,7 +6221,7 @@
       <c r="F322" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G322" s="10"/>
+      <c r="G322" s="12"/>
     </row>
     <row r="323" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B323" s="6">
@@ -6236,7 +6239,7 @@
       <c r="F323" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G323" s="10"/>
+      <c r="G323" s="12"/>
     </row>
     <row r="324" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B324" s="6">
@@ -6254,7 +6257,7 @@
       <c r="F324" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G324" s="10"/>
+      <c r="G324" s="12"/>
     </row>
     <row r="325" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B325" s="6">
@@ -6272,7 +6275,7 @@
       <c r="F325" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G325" s="10"/>
+      <c r="G325" s="12"/>
     </row>
     <row r="326" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B326" s="6">
@@ -6290,7 +6293,7 @@
       <c r="F326" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G326" s="10"/>
+      <c r="G326" s="12"/>
     </row>
     <row r="327" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B327" s="6">
@@ -6308,7 +6311,7 @@
       <c r="F327" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G327" s="10"/>
+      <c r="G327" s="12"/>
     </row>
     <row r="328" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B328" s="6">
@@ -6326,7 +6329,7 @@
       <c r="F328" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G328" s="10"/>
+      <c r="G328" s="12"/>
     </row>
     <row r="329" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B329" s="6">
@@ -6344,7 +6347,7 @@
       <c r="F329" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G329" s="10"/>
+      <c r="G329" s="12"/>
     </row>
     <row r="330" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B330" s="6">
@@ -6362,7 +6365,7 @@
       <c r="F330" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G330" s="10"/>
+      <c r="G330" s="12"/>
     </row>
     <row r="331" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B331" s="6">
@@ -6380,7 +6383,7 @@
       <c r="F331" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G331" s="10"/>
+      <c r="G331" s="12"/>
     </row>
     <row r="332" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B332" s="6">
@@ -6398,7 +6401,7 @@
       <c r="F332" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G332" s="10"/>
+      <c r="G332" s="12"/>
     </row>
     <row r="333" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B333" s="6">
@@ -6416,7 +6419,7 @@
       <c r="F333" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G333" s="10"/>
+      <c r="G333" s="12"/>
     </row>
     <row r="334" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B334" s="6">
@@ -6434,7 +6437,7 @@
       <c r="F334" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G334" s="10"/>
+      <c r="G334" s="12"/>
     </row>
     <row r="335" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B335" s="6">
@@ -6452,7 +6455,7 @@
       <c r="F335" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G335" s="10"/>
+      <c r="G335" s="12"/>
     </row>
     <row r="336" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B336" s="6">
@@ -6470,7 +6473,7 @@
       <c r="F336" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G336" s="10"/>
+      <c r="G336" s="12"/>
     </row>
     <row r="337" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B337" s="6">
@@ -6488,7 +6491,7 @@
       <c r="F337" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G337" s="10"/>
+      <c r="G337" s="12"/>
     </row>
     <row r="338" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B338" s="4" t="s">
@@ -6506,7 +6509,7 @@
       <c r="F338" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G338" s="10"/>
+      <c r="G338" s="12"/>
     </row>
     <row r="339" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B339" s="4" t="s">
@@ -6524,7 +6527,7 @@
       <c r="F339" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G339" s="11"/>
+      <c r="G339" s="13"/>
     </row>
     <row r="341" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B341" s="1" t="s">
@@ -6563,7 +6566,7 @@
       <c r="F342" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G342" s="9" t="s">
+      <c r="G342" s="11" t="s">
         <v>19</v>
       </c>
     </row>
@@ -6583,7 +6586,7 @@
       <c r="F343" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G343" s="10"/>
+      <c r="G343" s="12"/>
     </row>
     <row r="344" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B344" s="4">
@@ -6601,7 +6604,7 @@
       <c r="F344" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G344" s="10"/>
+      <c r="G344" s="12"/>
     </row>
     <row r="345" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B345" s="4">
@@ -6619,7 +6622,7 @@
       <c r="F345" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G345" s="10"/>
+      <c r="G345" s="12"/>
     </row>
     <row r="346" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B346" s="4">
@@ -6637,7 +6640,7 @@
       <c r="F346" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G346" s="10"/>
+      <c r="G346" s="12"/>
     </row>
     <row r="347" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B347" s="4">
@@ -6655,7 +6658,7 @@
       <c r="F347" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G347" s="10"/>
+      <c r="G347" s="12"/>
     </row>
     <row r="348" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B348" s="4">
@@ -6673,7 +6676,7 @@
       <c r="F348" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G348" s="10"/>
+      <c r="G348" s="12"/>
     </row>
     <row r="349" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B349" s="4">
@@ -6691,7 +6694,7 @@
       <c r="F349" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G349" s="10"/>
+      <c r="G349" s="12"/>
     </row>
     <row r="350" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B350" s="6">
@@ -6709,7 +6712,7 @@
       <c r="F350" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G350" s="10"/>
+      <c r="G350" s="12"/>
     </row>
     <row r="351" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B351" s="6">
@@ -6727,7 +6730,7 @@
       <c r="F351" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G351" s="10"/>
+      <c r="G351" s="12"/>
     </row>
     <row r="352" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B352" s="6">
@@ -6745,7 +6748,7 @@
       <c r="F352" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G352" s="10"/>
+      <c r="G352" s="12"/>
     </row>
     <row r="353" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B353" s="6">
@@ -6763,7 +6766,7 @@
       <c r="F353" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G353" s="10"/>
+      <c r="G353" s="12"/>
     </row>
     <row r="354" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B354" s="6">
@@ -6781,7 +6784,7 @@
       <c r="F354" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G354" s="10"/>
+      <c r="G354" s="12"/>
     </row>
     <row r="355" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B355" s="6">
@@ -6799,7 +6802,7 @@
       <c r="F355" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G355" s="10"/>
+      <c r="G355" s="12"/>
     </row>
     <row r="356" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B356" s="6">
@@ -6817,7 +6820,7 @@
       <c r="F356" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G356" s="10"/>
+      <c r="G356" s="12"/>
     </row>
     <row r="357" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B357" s="6">
@@ -6835,7 +6838,7 @@
       <c r="F357" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G357" s="10"/>
+      <c r="G357" s="12"/>
     </row>
     <row r="358" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B358" s="6">
@@ -6853,7 +6856,7 @@
       <c r="F358" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G358" s="10"/>
+      <c r="G358" s="12"/>
     </row>
     <row r="359" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B359" s="6">
@@ -6871,7 +6874,7 @@
       <c r="F359" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G359" s="10"/>
+      <c r="G359" s="12"/>
     </row>
     <row r="360" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B360" s="6">
@@ -6889,7 +6892,7 @@
       <c r="F360" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G360" s="10"/>
+      <c r="G360" s="12"/>
     </row>
     <row r="361" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B361" s="6">
@@ -6907,7 +6910,7 @@
       <c r="F361" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G361" s="10"/>
+      <c r="G361" s="12"/>
     </row>
     <row r="362" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B362" s="6">
@@ -6925,7 +6928,7 @@
       <c r="F362" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G362" s="10"/>
+      <c r="G362" s="12"/>
     </row>
     <row r="363" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B363" s="6">
@@ -6943,7 +6946,7 @@
       <c r="F363" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G363" s="10"/>
+      <c r="G363" s="12"/>
     </row>
     <row r="364" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B364" s="6">
@@ -6961,7 +6964,7 @@
       <c r="F364" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G364" s="10"/>
+      <c r="G364" s="12"/>
     </row>
     <row r="365" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B365" s="6">
@@ -6979,7 +6982,7 @@
       <c r="F365" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G365" s="10"/>
+      <c r="G365" s="12"/>
     </row>
     <row r="366" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B366" s="6">
@@ -6997,7 +7000,7 @@
       <c r="F366" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G366" s="10"/>
+      <c r="G366" s="12"/>
     </row>
     <row r="367" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B367" s="6">
@@ -7015,7 +7018,7 @@
       <c r="F367" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G367" s="10"/>
+      <c r="G367" s="12"/>
     </row>
     <row r="368" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B368" s="6">
@@ -7033,7 +7036,7 @@
       <c r="F368" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G368" s="10"/>
+      <c r="G368" s="12"/>
     </row>
     <row r="369" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B369" s="6">
@@ -7051,7 +7054,7 @@
       <c r="F369" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G369" s="10"/>
+      <c r="G369" s="12"/>
     </row>
     <row r="370" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B370" s="6">
@@ -7069,7 +7072,7 @@
       <c r="F370" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G370" s="10"/>
+      <c r="G370" s="12"/>
     </row>
     <row r="371" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B371" s="6">
@@ -7087,7 +7090,7 @@
       <c r="F371" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G371" s="10"/>
+      <c r="G371" s="12"/>
     </row>
     <row r="372" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B372" s="6">
@@ -7105,7 +7108,7 @@
       <c r="F372" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G372" s="10"/>
+      <c r="G372" s="12"/>
     </row>
     <row r="373" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B373" s="6">
@@ -7123,7 +7126,7 @@
       <c r="F373" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G373" s="10"/>
+      <c r="G373" s="12"/>
     </row>
     <row r="374" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B374" s="6">
@@ -7141,7 +7144,7 @@
       <c r="F374" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G374" s="10"/>
+      <c r="G374" s="12"/>
     </row>
     <row r="375" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B375" s="6">
@@ -7159,7 +7162,7 @@
       <c r="F375" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G375" s="10"/>
+      <c r="G375" s="12"/>
     </row>
     <row r="376" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B376" s="6">
@@ -7177,7 +7180,7 @@
       <c r="F376" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G376" s="10"/>
+      <c r="G376" s="12"/>
     </row>
     <row r="377" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B377" s="6">
@@ -7195,7 +7198,7 @@
       <c r="F377" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G377" s="10"/>
+      <c r="G377" s="12"/>
     </row>
     <row r="378" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B378" s="6">
@@ -7213,7 +7216,7 @@
       <c r="F378" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G378" s="10"/>
+      <c r="G378" s="12"/>
     </row>
     <row r="379" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B379" s="6">
@@ -7231,7 +7234,7 @@
       <c r="F379" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G379" s="10"/>
+      <c r="G379" s="12"/>
     </row>
     <row r="380" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B380" s="6">
@@ -7249,7 +7252,7 @@
       <c r="F380" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G380" s="10"/>
+      <c r="G380" s="12"/>
     </row>
     <row r="381" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B381" s="6">
@@ -7267,7 +7270,7 @@
       <c r="F381" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G381" s="10"/>
+      <c r="G381" s="12"/>
     </row>
     <row r="382" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B382" s="6">
@@ -7285,7 +7288,7 @@
       <c r="F382" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G382" s="10"/>
+      <c r="G382" s="12"/>
     </row>
     <row r="383" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B383" s="6">
@@ -7303,7 +7306,7 @@
       <c r="F383" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G383" s="10"/>
+      <c r="G383" s="12"/>
     </row>
     <row r="384" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B384" s="6">
@@ -7321,7 +7324,7 @@
       <c r="F384" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G384" s="10"/>
+      <c r="G384" s="12"/>
     </row>
     <row r="385" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B385" s="6">
@@ -7339,7 +7342,7 @@
       <c r="F385" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G385" s="10"/>
+      <c r="G385" s="12"/>
     </row>
     <row r="386" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B386" s="6">
@@ -7357,7 +7360,7 @@
       <c r="F386" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G386" s="10"/>
+      <c r="G386" s="12"/>
     </row>
     <row r="387" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B387" s="6">
@@ -7375,7 +7378,7 @@
       <c r="F387" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G387" s="10"/>
+      <c r="G387" s="12"/>
     </row>
     <row r="388" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B388" s="6">
@@ -7393,7 +7396,7 @@
       <c r="F388" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G388" s="10"/>
+      <c r="G388" s="12"/>
     </row>
     <row r="389" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B389" s="6">
@@ -7411,7 +7414,7 @@
       <c r="F389" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G389" s="10"/>
+      <c r="G389" s="12"/>
     </row>
     <row r="390" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B390" s="6">
@@ -7429,7 +7432,7 @@
       <c r="F390" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G390" s="10"/>
+      <c r="G390" s="12"/>
     </row>
     <row r="391" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B391" s="4" t="s">
@@ -7447,7 +7450,7 @@
       <c r="F391" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G391" s="10"/>
+      <c r="G391" s="12"/>
     </row>
     <row r="392" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B392" s="4" t="s">
@@ -7465,7 +7468,7 @@
       <c r="F392" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G392" s="11"/>
+      <c r="G392" s="13"/>
     </row>
     <row r="395" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B395" s="1" t="s">
@@ -7503,7 +7506,7 @@
       <c r="F396" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G396" s="9" t="s">
+      <c r="G396" s="11" t="s">
         <v>20</v>
       </c>
       <c r="I396" s="8"/>
@@ -7524,7 +7527,7 @@
       <c r="F397" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G397" s="10"/>
+      <c r="G397" s="12"/>
     </row>
     <row r="398" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B398" s="4">
@@ -7542,7 +7545,7 @@
       <c r="F398" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G398" s="10"/>
+      <c r="G398" s="12"/>
     </row>
     <row r="399" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B399" s="4">
@@ -7560,7 +7563,7 @@
       <c r="F399" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G399" s="10"/>
+      <c r="G399" s="12"/>
     </row>
     <row r="400" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B400" s="4">
@@ -7578,7 +7581,7 @@
       <c r="F400" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G400" s="10"/>
+      <c r="G400" s="12"/>
     </row>
     <row r="401" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B401" s="4">
@@ -7596,7 +7599,7 @@
       <c r="F401" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G401" s="10"/>
+      <c r="G401" s="12"/>
     </row>
     <row r="402" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B402" s="4">
@@ -7614,7 +7617,7 @@
       <c r="F402" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G402" s="10"/>
+      <c r="G402" s="12"/>
     </row>
     <row r="403" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B403" s="4">
@@ -7632,7 +7635,7 @@
       <c r="F403" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G403" s="10"/>
+      <c r="G403" s="12"/>
     </row>
     <row r="404" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B404" s="6">
@@ -7650,7 +7653,7 @@
       <c r="F404" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G404" s="10"/>
+      <c r="G404" s="12"/>
     </row>
     <row r="405" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B405" s="6">
@@ -7668,7 +7671,7 @@
       <c r="F405" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G405" s="10"/>
+      <c r="G405" s="12"/>
     </row>
     <row r="406" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B406" s="6">
@@ -7686,7 +7689,7 @@
       <c r="F406" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G406" s="10"/>
+      <c r="G406" s="12"/>
     </row>
     <row r="407" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B407" s="6">
@@ -7704,7 +7707,7 @@
       <c r="F407" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G407" s="10"/>
+      <c r="G407" s="12"/>
     </row>
     <row r="408" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B408" s="6">
@@ -7722,7 +7725,7 @@
       <c r="F408" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G408" s="10"/>
+      <c r="G408" s="12"/>
     </row>
     <row r="409" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B409" s="6">
@@ -7740,7 +7743,7 @@
       <c r="F409" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G409" s="10"/>
+      <c r="G409" s="12"/>
     </row>
     <row r="410" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B410" s="6">
@@ -7758,7 +7761,7 @@
       <c r="F410" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G410" s="10"/>
+      <c r="G410" s="12"/>
     </row>
     <row r="411" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B411" s="6">
@@ -7776,7 +7779,7 @@
       <c r="F411" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G411" s="10"/>
+      <c r="G411" s="12"/>
     </row>
     <row r="412" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B412" s="6">
@@ -7794,7 +7797,7 @@
       <c r="F412" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G412" s="10"/>
+      <c r="G412" s="12"/>
     </row>
     <row r="413" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B413" s="6">
@@ -7812,7 +7815,7 @@
       <c r="F413" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G413" s="10"/>
+      <c r="G413" s="12"/>
     </row>
     <row r="414" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B414" s="6">
@@ -7830,7 +7833,7 @@
       <c r="F414" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G414" s="10"/>
+      <c r="G414" s="12"/>
     </row>
     <row r="415" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B415" s="6">
@@ -7848,7 +7851,7 @@
       <c r="F415" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G415" s="10"/>
+      <c r="G415" s="12"/>
     </row>
     <row r="416" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B416" s="6">
@@ -7866,7 +7869,7 @@
       <c r="F416" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G416" s="10"/>
+      <c r="G416" s="12"/>
     </row>
     <row r="417" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B417" s="6">
@@ -7884,7 +7887,7 @@
       <c r="F417" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G417" s="10"/>
+      <c r="G417" s="12"/>
     </row>
     <row r="418" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B418" s="6">
@@ -7902,7 +7905,7 @@
       <c r="F418" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G418" s="10"/>
+      <c r="G418" s="12"/>
     </row>
     <row r="419" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B419" s="6">
@@ -7920,7 +7923,7 @@
       <c r="F419" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G419" s="10"/>
+      <c r="G419" s="12"/>
     </row>
     <row r="420" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B420" s="6">
@@ -7938,7 +7941,7 @@
       <c r="F420" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G420" s="10"/>
+      <c r="G420" s="12"/>
     </row>
     <row r="421" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B421" s="6">
@@ -7956,7 +7959,7 @@
       <c r="F421" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G421" s="10"/>
+      <c r="G421" s="12"/>
     </row>
     <row r="422" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B422" s="6">
@@ -7974,7 +7977,7 @@
       <c r="F422" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G422" s="10"/>
+      <c r="G422" s="12"/>
     </row>
     <row r="423" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B423" s="6">
@@ -7992,7 +7995,7 @@
       <c r="F423" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G423" s="10"/>
+      <c r="G423" s="12"/>
     </row>
     <row r="424" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B424" s="6">
@@ -8010,7 +8013,7 @@
       <c r="F424" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G424" s="10"/>
+      <c r="G424" s="12"/>
     </row>
     <row r="425" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B425" s="6">
@@ -8028,7 +8031,7 @@
       <c r="F425" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G425" s="10"/>
+      <c r="G425" s="12"/>
     </row>
     <row r="426" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B426" s="6">
@@ -8046,7 +8049,7 @@
       <c r="F426" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G426" s="10"/>
+      <c r="G426" s="12"/>
     </row>
     <row r="427" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B427" s="6">
@@ -8064,7 +8067,7 @@
       <c r="F427" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G427" s="10"/>
+      <c r="G427" s="12"/>
     </row>
     <row r="428" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B428" s="6">
@@ -8082,7 +8085,7 @@
       <c r="F428" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G428" s="10"/>
+      <c r="G428" s="12"/>
     </row>
     <row r="429" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B429" s="6">
@@ -8100,7 +8103,7 @@
       <c r="F429" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G429" s="10"/>
+      <c r="G429" s="12"/>
     </row>
     <row r="430" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B430" s="6">
@@ -8118,7 +8121,7 @@
       <c r="F430" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G430" s="10"/>
+      <c r="G430" s="12"/>
     </row>
     <row r="431" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B431" s="6">
@@ -8136,7 +8139,7 @@
       <c r="F431" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G431" s="10"/>
+      <c r="G431" s="12"/>
     </row>
     <row r="432" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B432" s="6">
@@ -8154,7 +8157,7 @@
       <c r="F432" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G432" s="10"/>
+      <c r="G432" s="12"/>
     </row>
     <row r="433" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B433" s="6">
@@ -8172,7 +8175,7 @@
       <c r="F433" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G433" s="10"/>
+      <c r="G433" s="12"/>
     </row>
     <row r="434" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B434" s="6">
@@ -8190,7 +8193,7 @@
       <c r="F434" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G434" s="10"/>
+      <c r="G434" s="12"/>
     </row>
     <row r="435" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B435" s="6">
@@ -8208,7 +8211,7 @@
       <c r="F435" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G435" s="10"/>
+      <c r="G435" s="12"/>
     </row>
     <row r="436" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B436" s="6">
@@ -8226,7 +8229,7 @@
       <c r="F436" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G436" s="10"/>
+      <c r="G436" s="12"/>
     </row>
     <row r="437" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B437" s="6">
@@ -8244,7 +8247,7 @@
       <c r="F437" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G437" s="10"/>
+      <c r="G437" s="12"/>
     </row>
     <row r="438" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B438" s="6">
@@ -8262,7 +8265,7 @@
       <c r="F438" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G438" s="10"/>
+      <c r="G438" s="12"/>
     </row>
     <row r="439" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B439" s="6">
@@ -8280,7 +8283,7 @@
       <c r="F439" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G439" s="10"/>
+      <c r="G439" s="12"/>
     </row>
     <row r="440" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B440" s="6">
@@ -8298,7 +8301,7 @@
       <c r="F440" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G440" s="10"/>
+      <c r="G440" s="12"/>
     </row>
     <row r="441" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B441" s="6">
@@ -8316,7 +8319,7 @@
       <c r="F441" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G441" s="10"/>
+      <c r="G441" s="12"/>
     </row>
     <row r="442" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B442" s="6">
@@ -8334,7 +8337,7 @@
       <c r="F442" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G442" s="10"/>
+      <c r="G442" s="12"/>
     </row>
     <row r="443" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B443" s="6">
@@ -8352,7 +8355,7 @@
       <c r="F443" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G443" s="10"/>
+      <c r="G443" s="12"/>
     </row>
     <row r="444" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B444" s="6">
@@ -8370,7 +8373,7 @@
       <c r="F444" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G444" s="10"/>
+      <c r="G444" s="12"/>
     </row>
     <row r="445" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B445" s="4" t="s">
@@ -8388,7 +8391,7 @@
       <c r="F445" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G445" s="10"/>
+      <c r="G445" s="12"/>
     </row>
     <row r="446" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B446" s="4" t="s">
@@ -8406,7 +8409,7 @@
       <c r="F446" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G446" s="11"/>
+      <c r="G446" s="13"/>
     </row>
     <row r="448" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B448" s="1" t="s">
@@ -8444,7 +8447,7 @@
       <c r="F449" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G449" s="9" t="s">
+      <c r="G449" s="11" t="s">
         <v>21</v>
       </c>
       <c r="I449" s="8"/>
@@ -8465,7 +8468,7 @@
       <c r="F450" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G450" s="10"/>
+      <c r="G450" s="12"/>
     </row>
     <row r="451" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B451" s="4">
@@ -8483,7 +8486,7 @@
       <c r="F451" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G451" s="10"/>
+      <c r="G451" s="12"/>
     </row>
     <row r="452" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B452" s="4">
@@ -8501,7 +8504,7 @@
       <c r="F452" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G452" s="10"/>
+      <c r="G452" s="12"/>
     </row>
     <row r="453" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B453" s="4">
@@ -8519,7 +8522,7 @@
       <c r="F453" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G453" s="10"/>
+      <c r="G453" s="12"/>
     </row>
     <row r="454" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B454" s="4">
@@ -8537,7 +8540,7 @@
       <c r="F454" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G454" s="10"/>
+      <c r="G454" s="12"/>
     </row>
     <row r="455" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B455" s="4">
@@ -8555,7 +8558,7 @@
       <c r="F455" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G455" s="10"/>
+      <c r="G455" s="12"/>
     </row>
     <row r="456" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B456" s="4">
@@ -8573,7 +8576,7 @@
       <c r="F456" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G456" s="10"/>
+      <c r="G456" s="12"/>
     </row>
     <row r="457" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B457" s="6">
@@ -8591,7 +8594,7 @@
       <c r="F457" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G457" s="10"/>
+      <c r="G457" s="12"/>
     </row>
     <row r="458" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B458" s="6">
@@ -8609,7 +8612,7 @@
       <c r="F458" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G458" s="10"/>
+      <c r="G458" s="12"/>
     </row>
     <row r="459" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B459" s="6">
@@ -8627,7 +8630,7 @@
       <c r="F459" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G459" s="10"/>
+      <c r="G459" s="12"/>
     </row>
     <row r="460" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B460" s="6">
@@ -8645,7 +8648,7 @@
       <c r="F460" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G460" s="10"/>
+      <c r="G460" s="12"/>
     </row>
     <row r="461" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B461" s="6">
@@ -8663,7 +8666,7 @@
       <c r="F461" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G461" s="10"/>
+      <c r="G461" s="12"/>
     </row>
     <row r="462" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B462" s="6">
@@ -8681,7 +8684,7 @@
       <c r="F462" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G462" s="10"/>
+      <c r="G462" s="12"/>
     </row>
     <row r="463" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B463" s="6">
@@ -8699,7 +8702,7 @@
       <c r="F463" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G463" s="10"/>
+      <c r="G463" s="12"/>
     </row>
     <row r="464" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B464" s="6">
@@ -8717,7 +8720,7 @@
       <c r="F464" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G464" s="10"/>
+      <c r="G464" s="12"/>
     </row>
     <row r="465" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B465" s="6">
@@ -8735,7 +8738,7 @@
       <c r="F465" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G465" s="10"/>
+      <c r="G465" s="12"/>
     </row>
     <row r="466" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B466" s="6">
@@ -8753,7 +8756,7 @@
       <c r="F466" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G466" s="10"/>
+      <c r="G466" s="12"/>
     </row>
     <row r="467" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B467" s="6">
@@ -8771,7 +8774,7 @@
       <c r="F467" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G467" s="10"/>
+      <c r="G467" s="12"/>
     </row>
     <row r="468" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B468" s="6">
@@ -8789,7 +8792,7 @@
       <c r="F468" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G468" s="10"/>
+      <c r="G468" s="12"/>
     </row>
     <row r="469" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B469" s="6">
@@ -8807,7 +8810,7 @@
       <c r="F469" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G469" s="10"/>
+      <c r="G469" s="12"/>
     </row>
     <row r="470" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B470" s="6">
@@ -8825,7 +8828,7 @@
       <c r="F470" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G470" s="10"/>
+      <c r="G470" s="12"/>
     </row>
     <row r="471" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B471" s="6">
@@ -8843,7 +8846,7 @@
       <c r="F471" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G471" s="10"/>
+      <c r="G471" s="12"/>
     </row>
     <row r="472" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B472" s="6">
@@ -8861,7 +8864,7 @@
       <c r="F472" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G472" s="10"/>
+      <c r="G472" s="12"/>
     </row>
     <row r="473" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B473" s="6">
@@ -8879,7 +8882,7 @@
       <c r="F473" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G473" s="10"/>
+      <c r="G473" s="12"/>
     </row>
     <row r="474" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B474" s="6">
@@ -8897,7 +8900,7 @@
       <c r="F474" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G474" s="10"/>
+      <c r="G474" s="12"/>
     </row>
     <row r="475" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B475" s="6">
@@ -8915,7 +8918,7 @@
       <c r="F475" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G475" s="10"/>
+      <c r="G475" s="12"/>
     </row>
     <row r="476" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B476" s="6">
@@ -8933,7 +8936,7 @@
       <c r="F476" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G476" s="10"/>
+      <c r="G476" s="12"/>
     </row>
     <row r="477" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B477" s="6">
@@ -8951,7 +8954,7 @@
       <c r="F477" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G477" s="10"/>
+      <c r="G477" s="12"/>
     </row>
     <row r="478" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B478" s="6">
@@ -8969,7 +8972,7 @@
       <c r="F478" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G478" s="10"/>
+      <c r="G478" s="12"/>
     </row>
     <row r="479" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B479" s="6">
@@ -8987,7 +8990,7 @@
       <c r="F479" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G479" s="10"/>
+      <c r="G479" s="12"/>
     </row>
     <row r="480" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B480" s="6">
@@ -9005,7 +9008,7 @@
       <c r="F480" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G480" s="10"/>
+      <c r="G480" s="12"/>
     </row>
     <row r="481" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B481" s="6">
@@ -9023,7 +9026,7 @@
       <c r="F481" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G481" s="10"/>
+      <c r="G481" s="12"/>
     </row>
     <row r="482" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B482" s="6">
@@ -9041,7 +9044,7 @@
       <c r="F482" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G482" s="10"/>
+      <c r="G482" s="12"/>
     </row>
     <row r="483" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B483" s="6">
@@ -9059,7 +9062,7 @@
       <c r="F483" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G483" s="10"/>
+      <c r="G483" s="12"/>
     </row>
     <row r="484" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B484" s="6">
@@ -9077,7 +9080,7 @@
       <c r="F484" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G484" s="10"/>
+      <c r="G484" s="12"/>
     </row>
     <row r="485" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B485" s="6">
@@ -9095,7 +9098,7 @@
       <c r="F485" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G485" s="10"/>
+      <c r="G485" s="12"/>
     </row>
     <row r="486" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B486" s="6">
@@ -9113,7 +9116,7 @@
       <c r="F486" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G486" s="10"/>
+      <c r="G486" s="12"/>
     </row>
     <row r="487" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B487" s="6">
@@ -9131,7 +9134,7 @@
       <c r="F487" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G487" s="10"/>
+      <c r="G487" s="12"/>
     </row>
     <row r="488" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B488" s="6">
@@ -9149,7 +9152,7 @@
       <c r="F488" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G488" s="10"/>
+      <c r="G488" s="12"/>
     </row>
     <row r="489" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B489" s="6">
@@ -9167,7 +9170,7 @@
       <c r="F489" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G489" s="10"/>
+      <c r="G489" s="12"/>
     </row>
     <row r="490" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B490" s="6">
@@ -9185,7 +9188,7 @@
       <c r="F490" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G490" s="10"/>
+      <c r="G490" s="12"/>
     </row>
     <row r="491" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B491" s="6">
@@ -9203,7 +9206,7 @@
       <c r="F491" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G491" s="10"/>
+      <c r="G491" s="12"/>
     </row>
     <row r="492" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B492" s="6">
@@ -9221,7 +9224,7 @@
       <c r="F492" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G492" s="10"/>
+      <c r="G492" s="12"/>
     </row>
     <row r="493" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B493" s="6">
@@ -9239,7 +9242,7 @@
       <c r="F493" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G493" s="10"/>
+      <c r="G493" s="12"/>
     </row>
     <row r="494" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B494" s="6">
@@ -9257,7 +9260,7 @@
       <c r="F494" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G494" s="10"/>
+      <c r="G494" s="12"/>
     </row>
     <row r="495" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B495" s="6">
@@ -9275,7 +9278,7 @@
       <c r="F495" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G495" s="10"/>
+      <c r="G495" s="12"/>
     </row>
     <row r="496" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B496" s="6">
@@ -9293,7 +9296,7 @@
       <c r="F496" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G496" s="10"/>
+      <c r="G496" s="12"/>
     </row>
     <row r="497" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B497" s="6">
@@ -9311,7 +9314,7 @@
       <c r="F497" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G497" s="10"/>
+      <c r="G497" s="12"/>
     </row>
     <row r="498" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B498" s="4" t="s">
@@ -9329,7 +9332,7 @@
       <c r="F498" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G498" s="10"/>
+      <c r="G498" s="12"/>
     </row>
     <row r="499" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B499" s="4" t="s">
@@ -9347,7 +9350,7 @@
       <c r="F499" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G499" s="11"/>
+      <c r="G499" s="13"/>
     </row>
     <row r="501" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B501" s="1" t="s">
@@ -9385,7 +9388,7 @@
       <c r="F502" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G502" s="9" t="s">
+      <c r="G502" s="11" t="s">
         <v>22</v>
       </c>
       <c r="I502" s="8"/>
@@ -9410,7 +9413,7 @@
       <c r="F503" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G503" s="10"/>
+      <c r="G503" s="12"/>
       <c r="J503">
         <v>655.62699999999995</v>
       </c>
@@ -9431,7 +9434,7 @@
       <c r="F504" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G504" s="10"/>
+      <c r="G504" s="12"/>
     </row>
     <row r="505" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B505" s="4">
@@ -9449,7 +9452,7 @@
       <c r="F505" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G505" s="10"/>
+      <c r="G505" s="12"/>
     </row>
     <row r="506" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B506" s="4">
@@ -9467,7 +9470,7 @@
       <c r="F506" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G506" s="10"/>
+      <c r="G506" s="12"/>
     </row>
     <row r="507" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B507" s="4">
@@ -9485,7 +9488,7 @@
       <c r="F507" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G507" s="10"/>
+      <c r="G507" s="12"/>
     </row>
     <row r="508" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B508" s="4">
@@ -9503,7 +9506,7 @@
       <c r="F508" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G508" s="10"/>
+      <c r="G508" s="12"/>
     </row>
     <row r="509" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B509" s="4">
@@ -9521,7 +9524,7 @@
       <c r="F509" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G509" s="10"/>
+      <c r="G509" s="12"/>
     </row>
     <row r="510" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B510" s="6">
@@ -9539,7 +9542,7 @@
       <c r="F510" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G510" s="10"/>
+      <c r="G510" s="12"/>
     </row>
     <row r="511" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B511" s="6">
@@ -9557,7 +9560,7 @@
       <c r="F511" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G511" s="10"/>
+      <c r="G511" s="12"/>
     </row>
     <row r="512" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B512" s="6">
@@ -9575,7 +9578,7 @@
       <c r="F512" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G512" s="10"/>
+      <c r="G512" s="12"/>
     </row>
     <row r="513" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B513" s="6">
@@ -9593,7 +9596,7 @@
       <c r="F513" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G513" s="10"/>
+      <c r="G513" s="12"/>
     </row>
     <row r="514" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B514" s="6">
@@ -9611,7 +9614,7 @@
       <c r="F514" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G514" s="10"/>
+      <c r="G514" s="12"/>
     </row>
     <row r="515" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B515" s="6">
@@ -9629,7 +9632,7 @@
       <c r="F515" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G515" s="10"/>
+      <c r="G515" s="12"/>
     </row>
     <row r="516" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B516" s="6">
@@ -9647,7 +9650,7 @@
       <c r="F516" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G516" s="10"/>
+      <c r="G516" s="12"/>
     </row>
     <row r="517" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B517" s="6">
@@ -9665,7 +9668,7 @@
       <c r="F517" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G517" s="10"/>
+      <c r="G517" s="12"/>
     </row>
     <row r="518" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B518" s="6">
@@ -9683,7 +9686,7 @@
       <c r="F518" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G518" s="10"/>
+      <c r="G518" s="12"/>
     </row>
     <row r="519" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B519" s="6">
@@ -9701,7 +9704,7 @@
       <c r="F519" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G519" s="10"/>
+      <c r="G519" s="12"/>
     </row>
     <row r="520" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B520" s="6">
@@ -9719,7 +9722,7 @@
       <c r="F520" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G520" s="10"/>
+      <c r="G520" s="12"/>
     </row>
     <row r="521" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B521" s="6">
@@ -9737,7 +9740,7 @@
       <c r="F521" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G521" s="10"/>
+      <c r="G521" s="12"/>
     </row>
     <row r="522" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B522" s="6">
@@ -9755,7 +9758,7 @@
       <c r="F522" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G522" s="10"/>
+      <c r="G522" s="12"/>
     </row>
     <row r="523" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B523" s="6">
@@ -9773,7 +9776,7 @@
       <c r="F523" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G523" s="10"/>
+      <c r="G523" s="12"/>
     </row>
     <row r="524" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B524" s="6">
@@ -9791,7 +9794,7 @@
       <c r="F524" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G524" s="10"/>
+      <c r="G524" s="12"/>
     </row>
     <row r="525" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B525" s="6">
@@ -9809,7 +9812,7 @@
       <c r="F525" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G525" s="10"/>
+      <c r="G525" s="12"/>
     </row>
     <row r="526" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B526" s="6">
@@ -9827,7 +9830,7 @@
       <c r="F526" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G526" s="10"/>
+      <c r="G526" s="12"/>
     </row>
     <row r="527" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B527" s="6">
@@ -9845,7 +9848,7 @@
       <c r="F527" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G527" s="10"/>
+      <c r="G527" s="12"/>
     </row>
     <row r="528" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B528" s="6">
@@ -9863,7 +9866,7 @@
       <c r="F528" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G528" s="10"/>
+      <c r="G528" s="12"/>
     </row>
     <row r="529" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B529" s="6">
@@ -9881,7 +9884,7 @@
       <c r="F529" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G529" s="10"/>
+      <c r="G529" s="12"/>
     </row>
     <row r="530" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B530" s="6">
@@ -9899,7 +9902,7 @@
       <c r="F530" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G530" s="10"/>
+      <c r="G530" s="12"/>
     </row>
     <row r="531" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B531" s="6">
@@ -9917,7 +9920,7 @@
       <c r="F531" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G531" s="10"/>
+      <c r="G531" s="12"/>
     </row>
     <row r="532" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B532" s="6">
@@ -9935,7 +9938,7 @@
       <c r="F532" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G532" s="10"/>
+      <c r="G532" s="12"/>
     </row>
     <row r="533" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B533" s="6">
@@ -9953,7 +9956,7 @@
       <c r="F533" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G533" s="10"/>
+      <c r="G533" s="12"/>
     </row>
     <row r="534" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B534" s="6">
@@ -9971,7 +9974,7 @@
       <c r="F534" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G534" s="10"/>
+      <c r="G534" s="12"/>
     </row>
     <row r="535" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B535" s="6">
@@ -9989,7 +9992,7 @@
       <c r="F535" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G535" s="10"/>
+      <c r="G535" s="12"/>
     </row>
     <row r="536" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B536" s="6">
@@ -10007,7 +10010,7 @@
       <c r="F536" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G536" s="10"/>
+      <c r="G536" s="12"/>
     </row>
     <row r="537" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B537" s="6">
@@ -10025,7 +10028,7 @@
       <c r="F537" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G537" s="10"/>
+      <c r="G537" s="12"/>
     </row>
     <row r="538" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B538" s="6">
@@ -10043,7 +10046,7 @@
       <c r="F538" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G538" s="10"/>
+      <c r="G538" s="12"/>
     </row>
     <row r="539" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B539" s="6">
@@ -10061,7 +10064,7 @@
       <c r="F539" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G539" s="10"/>
+      <c r="G539" s="12"/>
     </row>
     <row r="540" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B540" s="6">
@@ -10079,7 +10082,7 @@
       <c r="F540" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G540" s="10"/>
+      <c r="G540" s="12"/>
     </row>
     <row r="541" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B541" s="6">
@@ -10097,7 +10100,7 @@
       <c r="F541" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G541" s="10"/>
+      <c r="G541" s="12"/>
     </row>
     <row r="542" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B542" s="6">
@@ -10115,7 +10118,7 @@
       <c r="F542" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G542" s="10"/>
+      <c r="G542" s="12"/>
     </row>
     <row r="543" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B543" s="6">
@@ -10133,7 +10136,7 @@
       <c r="F543" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G543" s="10"/>
+      <c r="G543" s="12"/>
     </row>
     <row r="544" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B544" s="6">
@@ -10151,7 +10154,7 @@
       <c r="F544" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G544" s="10"/>
+      <c r="G544" s="12"/>
     </row>
     <row r="545" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B545" s="6">
@@ -10169,7 +10172,7 @@
       <c r="F545" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G545" s="10"/>
+      <c r="G545" s="12"/>
     </row>
     <row r="546" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B546" s="6">
@@ -10187,7 +10190,7 @@
       <c r="F546" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G546" s="10"/>
+      <c r="G546" s="12"/>
     </row>
     <row r="547" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B547" s="6">
@@ -10205,7 +10208,7 @@
       <c r="F547" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G547" s="10"/>
+      <c r="G547" s="12"/>
     </row>
     <row r="548" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B548" s="6">
@@ -10223,7 +10226,7 @@
       <c r="F548" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G548" s="10"/>
+      <c r="G548" s="12"/>
     </row>
     <row r="549" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B549" s="6">
@@ -10241,7 +10244,7 @@
       <c r="F549" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G549" s="10"/>
+      <c r="G549" s="12"/>
     </row>
     <row r="550" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B550" s="6">
@@ -10259,7 +10262,7 @@
       <c r="F550" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G550" s="10"/>
+      <c r="G550" s="12"/>
     </row>
     <row r="551" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B551" s="4" t="s">
@@ -10277,7 +10280,7 @@
       <c r="F551" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G551" s="10"/>
+      <c r="G551" s="12"/>
     </row>
     <row r="552" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B552" s="4" t="s">
@@ -10295,7 +10298,7 @@
       <c r="F552" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G552" s="11"/>
+      <c r="G552" s="13"/>
     </row>
     <row r="555" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B555" s="1" t="s">
@@ -10333,7 +10336,7 @@
       <c r="F556" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G556" s="18" t="s">
+      <c r="G556" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -10345,7 +10348,7 @@
         <v>7511872.2877000002</v>
       </c>
       <c r="D557" s="5">
-        <v>4693098.3461999996</v>
+        <v>4693098.3461999903</v>
       </c>
       <c r="E557" s="5">
         <v>655.62699999999904</v>
@@ -10353,7 +10356,7 @@
       <c r="F557" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G557" s="18"/>
+      <c r="G557" s="10"/>
     </row>
     <row r="558" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B558" s="4">
@@ -10363,7 +10366,7 @@
         <v>7511854.8661000002</v>
       </c>
       <c r="D558" s="5">
-        <v>4693105.8019999899</v>
+        <v>4693105.8020000001</v>
       </c>
       <c r="E558" s="5">
         <v>655.62699999999904</v>
@@ -10371,7 +10374,7 @@
       <c r="F558" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G558" s="18"/>
+      <c r="G558" s="10"/>
     </row>
     <row r="559" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B559" s="4">
@@ -10381,7 +10384,7 @@
         <v>7511859.4299999904</v>
       </c>
       <c r="D559" s="5">
-        <v>4693116.46639999</v>
+        <v>4693116.4664000003</v>
       </c>
       <c r="E559" s="5">
         <v>655.62699999999904</v>
@@ -10389,7 +10392,7 @@
       <c r="F559" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G559" s="18"/>
+      <c r="G559" s="10"/>
     </row>
     <row r="560" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B560" s="4">
@@ -10407,7 +10410,7 @@
       <c r="F560" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G560" s="18"/>
+      <c r="G560" s="10"/>
     </row>
     <row r="561" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B561" s="4">
@@ -10417,7 +10420,7 @@
         <v>7511861.0700000003</v>
       </c>
       <c r="D561" s="5">
-        <v>4693119.02779999</v>
+        <v>4693119.0278000003</v>
       </c>
       <c r="E561" s="5">
         <v>655.62699999999904</v>
@@ -10425,7 +10428,7 @@
       <c r="F561" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G561" s="18"/>
+      <c r="G561" s="10"/>
     </row>
     <row r="562" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B562" s="4">
@@ -10443,7 +10446,7 @@
       <c r="F562" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G562" s="18"/>
+      <c r="G562" s="10"/>
     </row>
     <row r="563" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B563" s="4">
@@ -10453,7 +10456,7 @@
         <v>7511860.6595000001</v>
       </c>
       <c r="D563" s="5">
-        <v>4693119.3393999999</v>
+        <v>4693119.3393999897</v>
       </c>
       <c r="E563" s="5">
         <v>655.62699999999904</v>
@@ -10461,7 +10464,7 @@
       <c r="F563" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G563" s="18"/>
+      <c r="G563" s="10"/>
     </row>
     <row r="564" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B564" s="6">
@@ -10471,7 +10474,7 @@
         <v>7511863.4038000004</v>
       </c>
       <c r="D564" s="7">
-        <v>4693125.7518999996</v>
+        <v>4693125.7518999903</v>
       </c>
       <c r="E564" s="7">
         <v>655.62699999999904</v>
@@ -10479,7 +10482,7 @@
       <c r="F564" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G564" s="18"/>
+      <c r="G564" s="10"/>
     </row>
     <row r="565" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B565" s="6">
@@ -10489,7 +10492,7 @@
         <v>7511863.4471000005</v>
       </c>
       <c r="D565" s="7">
-        <v>4693125.8361999998</v>
+        <v>4693125.8361999895</v>
       </c>
       <c r="E565" s="7">
         <v>655.62699999999904</v>
@@ -10497,7 +10500,7 @@
       <c r="F565" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G565" s="18"/>
+      <c r="G565" s="10"/>
     </row>
     <row r="566" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B566" s="6">
@@ -10515,7 +10518,7 @@
       <c r="F566" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G566" s="18"/>
+      <c r="G566" s="10"/>
     </row>
     <row r="567" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B567" s="6">
@@ -10525,7 +10528,7 @@
         <v>7511868.4181000004</v>
       </c>
       <c r="D567" s="7">
-        <v>4693137.46859999</v>
+        <v>4693137.4686000003</v>
       </c>
       <c r="E567" s="7">
         <v>655.62699999999904</v>
@@ -10533,7 +10536,7 @@
       <c r="F567" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G567" s="18"/>
+      <c r="G567" s="10"/>
     </row>
     <row r="568" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B568" s="6">
@@ -10543,7 +10546,7 @@
         <v>7511868.6939000003</v>
       </c>
       <c r="D568" s="7">
-        <v>4693137.3505999995</v>
+        <v>4693137.3505999902</v>
       </c>
       <c r="E568" s="7">
         <v>655.62699999999904</v>
@@ -10551,7 +10554,7 @@
       <c r="F568" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G568" s="18"/>
+      <c r="G568" s="10"/>
     </row>
     <row r="569" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B569" s="6">
@@ -10561,7 +10564,7 @@
         <v>7511870.4050000003</v>
       </c>
       <c r="D569" s="7">
-        <v>4693141.3489999902</v>
+        <v>4693141.3490000004</v>
       </c>
       <c r="E569" s="7">
         <v>655.62699999999904</v>
@@ -10569,7 +10572,7 @@
       <c r="F569" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G569" s="18"/>
+      <c r="G569" s="10"/>
     </row>
     <row r="570" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B570" s="6">
@@ -10587,7 +10590,7 @@
       <c r="F570" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G570" s="18"/>
+      <c r="G570" s="10"/>
     </row>
     <row r="571" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B571" s="6">
@@ -10597,7 +10600,7 @@
         <v>7511893.3739</v>
       </c>
       <c r="D571" s="7">
-        <v>4693147.6175999902</v>
+        <v>4693147.6176000005</v>
       </c>
       <c r="E571" s="7">
         <v>655.62699999999904</v>
@@ -10605,7 +10608,7 @@
       <c r="F571" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G571" s="18"/>
+      <c r="G571" s="10"/>
     </row>
     <row r="572" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B572" s="6">
@@ -10623,7 +10626,7 @@
       <c r="F572" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G572" s="18"/>
+      <c r="G572" s="10"/>
     </row>
     <row r="573" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B573" s="6">
@@ -10641,374 +10644,50 @@
       <c r="F573" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G573" s="18"/>
+      <c r="G573" s="10"/>
     </row>
     <row r="574" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B574" s="6">
-        <v>19</v>
+      <c r="B574" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C574" s="7">
-        <v>7511859.8897000002</v>
+        <v>7511869.1090000002</v>
       </c>
       <c r="D574" s="7">
-        <v>4693116.2697000001</v>
+        <v>4693143.5549999904</v>
       </c>
       <c r="E574" s="7">
-        <v>655.62699999999904</v>
-      </c>
-      <c r="F574" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G574" s="18"/>
+        <v>623.17700000000002</v>
+      </c>
+      <c r="F574" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G574" s="10"/>
     </row>
     <row r="575" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B575" s="6">
-        <v>20</v>
+      <c r="B575" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="C575" s="7">
-        <v>7511872.2877000002</v>
+        <v>7511858.3770000003</v>
       </c>
       <c r="D575" s="7">
-        <v>4693098.3461999996</v>
+        <v>4693118.5029999902</v>
       </c>
       <c r="E575" s="7">
-        <v>655.62699999999904</v>
-      </c>
-      <c r="F575" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G575" s="18"/>
-    </row>
-    <row r="576" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B576" s="6">
-        <v>21</v>
-      </c>
-      <c r="C576" s="7">
-        <v>7511854.8661000002</v>
-      </c>
-      <c r="D576" s="7">
-        <v>4693105.8019999899</v>
-      </c>
-      <c r="E576" s="7">
-        <v>655.62699999999904</v>
-      </c>
-      <c r="F576" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G576" s="18"/>
-    </row>
-    <row r="577" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B577" s="6">
-        <v>22</v>
-      </c>
-      <c r="C577" s="7">
-        <v>7511859.4299999904</v>
-      </c>
-      <c r="D577" s="7">
-        <v>4693116.46639999</v>
-      </c>
-      <c r="E577" s="7">
-        <v>655.62699999999904</v>
-      </c>
-      <c r="F577" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G577" s="18"/>
-    </row>
-    <row r="578" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B578" s="6">
-        <v>23</v>
-      </c>
-      <c r="C578" s="7">
-        <v>7511862.449</v>
-      </c>
-      <c r="D578" s="7">
-        <v>4693118.4375999896</v>
-      </c>
-      <c r="E578" s="7">
-        <v>655.62699999999904</v>
-      </c>
-      <c r="F578" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G578" s="18"/>
-    </row>
-    <row r="579" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B579" s="6">
-        <v>24</v>
-      </c>
-      <c r="C579" s="7">
-        <v>7511861.0700000003</v>
-      </c>
-      <c r="D579" s="7">
-        <v>4693119.02779999</v>
-      </c>
-      <c r="E579" s="7">
-        <v>655.62699999999904</v>
-      </c>
-      <c r="F579" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G579" s="18"/>
-    </row>
-    <row r="580" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B580" s="6">
-        <v>25</v>
-      </c>
-      <c r="C580" s="7">
-        <v>7511862.4982000003</v>
-      </c>
-      <c r="D580" s="7">
-        <v>4693118.5525000002</v>
-      </c>
-      <c r="E580" s="7">
-        <v>655.62699999999904</v>
-      </c>
-      <c r="F580" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G580" s="18"/>
-    </row>
-    <row r="581" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B581" s="6">
-        <v>26</v>
-      </c>
-      <c r="C581" s="7">
-        <v>7511860.6595000001</v>
-      </c>
-      <c r="D581" s="7">
-        <v>4693119.3393999999</v>
-      </c>
-      <c r="E581" s="7">
-        <v>655.62699999999904</v>
-      </c>
-      <c r="F581" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G581" s="18"/>
-    </row>
-    <row r="582" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B582" s="6">
-        <v>27</v>
-      </c>
-      <c r="C582" s="7">
-        <v>7511863.4038000004</v>
-      </c>
-      <c r="D582" s="7">
-        <v>4693125.7518999996</v>
-      </c>
-      <c r="E582" s="7">
-        <v>655.62699999999904</v>
-      </c>
-      <c r="F582" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G582" s="18"/>
-    </row>
-    <row r="583" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B583" s="6">
-        <v>28</v>
-      </c>
-      <c r="C583" s="7">
-        <v>7511863.4471000005</v>
-      </c>
-      <c r="D583" s="7">
-        <v>4693125.8361999998</v>
-      </c>
-      <c r="E583" s="7">
-        <v>655.62699999999904</v>
-      </c>
-      <c r="F583" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G583" s="18"/>
-    </row>
-    <row r="584" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B584" s="6">
-        <v>29</v>
-      </c>
-      <c r="C584" s="7">
-        <v>7511870.5888999896</v>
-      </c>
-      <c r="D584" s="7">
-        <v>4693141.2703</v>
-      </c>
-      <c r="E584" s="7">
-        <v>655.62699999999904</v>
-      </c>
-      <c r="F584" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G584" s="18"/>
-    </row>
-    <row r="585" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B585" s="6">
-        <v>30</v>
-      </c>
-      <c r="C585" s="7">
-        <v>7511868.4181000004</v>
-      </c>
-      <c r="D585" s="7">
-        <v>4693137.46859999</v>
-      </c>
-      <c r="E585" s="7">
-        <v>655.62699999999904</v>
-      </c>
-      <c r="F585" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G585" s="18"/>
-    </row>
-    <row r="586" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B586" s="6">
-        <v>31</v>
-      </c>
-      <c r="C586" s="7">
-        <v>7511868.6939000003</v>
-      </c>
-      <c r="D586" s="7">
-        <v>4693137.3505999995</v>
-      </c>
-      <c r="E586" s="7">
-        <v>655.62699999999904</v>
-      </c>
-      <c r="F586" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G586" s="18"/>
-    </row>
-    <row r="587" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B587" s="6">
-        <v>32</v>
-      </c>
-      <c r="C587" s="7">
-        <v>7511870.4050000003</v>
-      </c>
-      <c r="D587" s="7">
-        <v>4693141.3489999902</v>
-      </c>
-      <c r="E587" s="7">
-        <v>655.62699999999904</v>
-      </c>
-      <c r="F587" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G587" s="18"/>
-    </row>
-    <row r="588" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B588" s="6">
-        <v>33</v>
-      </c>
-      <c r="C588" s="7">
-        <v>7511871.8479000004</v>
-      </c>
-      <c r="D588" s="7">
-        <v>4693144.2122</v>
-      </c>
-      <c r="E588" s="7">
-        <v>655.62699999999904</v>
-      </c>
-      <c r="F588" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G588" s="18"/>
-    </row>
-    <row r="589" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B589" s="6">
-        <v>34</v>
-      </c>
-      <c r="C589" s="7">
-        <v>7511893.3739</v>
-      </c>
-      <c r="D589" s="7">
-        <v>4693147.6175999902</v>
-      </c>
-      <c r="E589" s="7">
-        <v>655.62699999999904</v>
-      </c>
-      <c r="F589" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G589" s="18"/>
-    </row>
-    <row r="590" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B590" s="6">
-        <v>35</v>
-      </c>
-      <c r="C590" s="7">
-        <v>7511871.3881999897</v>
-      </c>
-      <c r="D590" s="7">
-        <v>4693144.409</v>
-      </c>
-      <c r="E590" s="7">
-        <v>655.62699999999904</v>
-      </c>
-      <c r="F590" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G590" s="18"/>
-    </row>
-    <row r="591" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B591" s="6">
-        <v>36</v>
-      </c>
-      <c r="C591" s="7">
-        <v>7511875.9522000002</v>
-      </c>
-      <c r="D591" s="7">
-        <v>4693155.0734000001</v>
-      </c>
-      <c r="E591" s="7">
-        <v>655.62699999999904</v>
-      </c>
-      <c r="F591" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G591" s="18"/>
-    </row>
-    <row r="592" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B592" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C592" s="7">
-        <v>7511869.1090000002</v>
-      </c>
-      <c r="D592" s="7">
-        <v>4693143.5549999904</v>
-      </c>
-      <c r="E592" s="7">
         <v>623.17700000000002</v>
       </c>
-      <c r="F592" s="5" t="s">
+      <c r="F575" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G592" s="18"/>
-    </row>
-    <row r="593" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B593" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C593" s="7">
-        <v>7511858.3770000003</v>
-      </c>
-      <c r="D593" s="7">
-        <v>4693118.5029999996</v>
-      </c>
-      <c r="E593" s="7">
-        <v>623.17700000000002</v>
-      </c>
-      <c r="F593" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G593" s="18"/>
+      <c r="G575" s="10"/>
     </row>
   </sheetData>
   <sortState ref="B1:D21">
     <sortCondition ref="B1"/>
   </sortState>
   <mergeCells count="14">
-    <mergeCell ref="G556:G593"/>
+    <mergeCell ref="G556:G575"/>
     <mergeCell ref="G396:G446"/>
     <mergeCell ref="G449:G499"/>
     <mergeCell ref="G502:G552"/>

--- a/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
+++ b/5-Njësit-Banesore/regjistri/Koordinatat.xlsx
@@ -535,7 +535,7 @@
   <dimension ref="B2:J575"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A552" workbookViewId="0">
-      <selection activeCell="L560" sqref="L560"/>
+      <selection activeCell="F559" sqref="B555:G575"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
